--- a/examples/USA OGD/TLC_vehicle_insurance/profile.xlsx
+++ b/examples/USA OGD/TLC_vehicle_insurance/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,18 +481,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E2" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -514,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -539,14 +544,17 @@
         <v>39927</v>
       </c>
       <c r="U2" t="n">
-        <v>335160</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>['TLCCAR', 'TLCMED', 'TLCPAR', 'TLCSBV', 'TLCVAN']</t>
+        <v>335176</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>['TLCCAR', 'TLCMED', 'TLCPAR', 'TLCSBV', 'TLCVAN', 'TLC_License_Type']</t>
         </is>
       </c>
     </row>
@@ -557,18 +565,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E3" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -595,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -616,12 +624,15 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>349000</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>55859</v>
-      </c>
-      <c r="W3" t="inlineStr">
+        <v>349018</v>
+      </c>
+      <c r="W3" t="n">
+        <v>55860</v>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>['1.00E+10', '1.00E+11', '1.00E+12', '1.00E+13', '1.00E+14', '1.00E+15', '1.00E+16', '1.00E+17', '1.00E+18', '1.00E+19', '1.00E+20', '1.00E+21', '1.00E+22', '1.00E+23', '1.00E+24', '1.00E+25', '1.00E+26', '1.00E+27', '1.00E+28', '1.00E+29', '1.00E+30', '1.00E+31', '1.00E+32', '1.00E+33', '1.00E+34', '1.00E+35', '1.00E+36', '1.00E+37', '1.00E+38', '1.00E+39', '1.00E+40', '1.00E+41', '1.00E+42', '1.00E+43', '1.00E+44', '1.00E+45', '1.00E+46', '1.00E+47', '1.00E+48', '1.00E+49', '1.00E+50', '1.00E+51', '1.00E+52', '1.00E+53', '1.00E+54', '1.00E+55', '1.00E+56', '1.00E+57', '1.00E+58', '1.00E+59', '1.00E+60', '1.00E+61', '1.00E+62', '1.00E+63', '1.00E+64', '1.00E+65', '1.00E+66', '1.00E+67', '1.00E+68', '1.00E+69', '1.00E+70', '1.00E+71', '1.00E+72', '1.00E+73', '1.00E+74', '1.00E+75', '1.00E+76', '1.00E+77', '1.00E+78', '1.00E+79', '1.00E+80', '1.00E+81', '1.00E+82', '1.00E+83', '1.00E+84', '1.00E+85', '1.00E+86', '1.00E+87', '1.00E+88', '1.00E+89', '1.00E+90', '1.00E+91', '1.00E+92', '1.00E+93', '1.00E+94', '1.00E+95', '1.00E+96', '1.00E+97', '1.00E+98', '1.00E+99', '1A10', '1A11', '1A12', '1A13', '1A14', '1A15', '1A16', '1A17', '1A18', '1A19', '1A20', '1A21', '1A22', '1A23', '1A24', '1A25', '1A26', '1A27', '1A28', '1A29', '1A30', '1A31', '1A32', '1A33', '1A34', '1A35', '1A36', '1A37', '1A38', '1A39', '1A40', '1A41', '1A42', '1A43', '1A44', '1A45', '1A46', '1A47', '1A48', '1A49', '1A50', '1A51', '1A52', '1A53', '1A54', '1A55', '1A56', '1A57', '1A58', '1A59', '1A60', '1A61', '1A62', '1A63', '1A64', '1A65', '1A66', '1A67', '1A68', '1A69', '1A70', '1A71', '1A72', '1A73', '1A74', '1A75', '1A76', '1A77', '1A78', '1A79', '1A80', '1A81', '1A82', '1A83', '1A84', '1A85', '1A86', '1A87', '1A88', '1A89', '1A90', '1A91', '1A92', '1A93', '1A94', '1A95', '1A96', '1A97', '1A98', '1A99', '1B10', '1B11', '1B12', '1B13', '1B14', '1B15', '1B16', '1B17', '1B18', '1B19', '1B20', '1B21', '1B22', '1B23', '1B24', '1B25', '1B26', '1B27', '1B28', '1B29', '1B30', '1B31', '1B32', '1B33', '1B34', '1B35', '1B36', '1B37', '1B38', '1B39', '1B40', '1B41', '1B42', '1B43', '1B44', '1B45', '1B46', '1B47', '1B48', '1B49', '1B50', '1B51', '1B52', '1B53', '1B54', '1B55', '1B56', '1B57', '1B58', '1B59', '1B60', '1B61', '1B62', '1B63', '1B64', '1B65', '1B66', '1B67', '1B68', '1B69', '1B70', '1B71', '1B72', '1B73', '1B74', '1B75', '1B76', '1B77', '1B78', '1B79', '1B80', '1B81', '1B82', '1B83', '1B84', '1B85', '1B86', '1B87', '1B88', '1B89', '1B90', '1B91', '1B92', '1B93', '1B94', '1B95', '1B96', '1B97', '1B98', '1B99', '1C10', '1C11', '1C12', '1C13', '1C14', '1C15', '1C16', '1C17', '1C18', '1C19', '1C20', '1C21', '1C22', '1C23', '1C24', '1C25', '1C26', '1C27', '1C28', '1C29', '1C30', '1C31', '1C32', '1C33', '1C34', '1C35', '1C36', '1C37', '1C38', '1C39', '1C40', '1C41', '1C42', '1C43', '1C44', '1C45', '1C46', '1C47', '1C48', '1C49', '1C50', '1C51', '1C52', '1C53', '1C54', '1C55', '1C56', '1C57', '1C58', '1C59', '1C60', '1C61', '1C62', '1C63', '1C64', '1C65', '1C66', '1C67', '1C68', '1C69', '1C70', '1C71', '1C72', '1C73', '1C74', '1C75', '1C76', '1C77', '1C78', '1C79', '1C80', '1C81', '1C82', '1C83', '1C84', '1C85', '1C86', '1C87', '1C88', '1C89', '1C90', '1C91', '1C92', '1C93', '1C94', '1C95', '1C96', '1C97', '1C98', '1C99', '1D10', '1D11', '1D12', '1D13', '1D14', '1D15', '1D16', '1D17', '1D18', '1D19', '1D20', '1D21', '1D22', '1D23', '1D24', '1D25', '1D26', '1D27', '1D28', '1D29', '1D30', '1D31', '1D32', '1D33', '1D34', '1D35', '1D36', '1D37', '1D38', '1D39', '1D40', '1D41', '1D42', '1D43', '1D44', '1D45', '1D46', '1D47', '1D48', '1D49', '1D50', '1D51', '1D52', '1D53', '1D54', '1D55', '1D56', '1D57', '1D58', '1D59', '1D60', '1D61', '1D62', '1D63', '1D64', '1D65', '1D66', '1D67', '1D68', '1D69', '1D70', '1D71', '1D72', '1D73', '1D74', '1D75', '1D76', '1D77', '1D78', '1D79', '1D80', '1D81', '1D82', '1D83', '1D84', '1D85', '1D86', '1D87', '1D88', '1D89', '1D90', '1D91', '1D92', '1D93', '1D94', '1D95', '1D96', '1D97', '1D98', '1D99', '1F10', '1F11', '1F12', '1F13', '1F14', '1F15', '1F16', '1F17', '1F18', '1F19', '1F20', '1F21', '1F22', '1F23', '1F24', '1F25', '1F26', '1F27', '1F28', '1F29', '1F30', '1F31', '1F32', '1F33', '1F34', '1F35', '1F36', '1F37', '1F38', '1F39', '1F40', '1F41', '1F42', '1F43', '1F44', '1F45', '1F46', '1F47', '1F48', '1F49', '1F50', '1F51', '1F52', '1F53', '1F54', '1F55', '1F56', '1F57', '1F58', '1F59', '1F60', '1F61', '1F62', '1F63', '1F64', '1F65', '1F66', '1F67', '1F68', '1F69', '1F70', '1F71', '1F72', '1F73', '1F74', '1F75', '1F76', '1F77', '1F78', '1F79', '1F80', '1F81', '1F82', '1F83', '1F84', '1F85', '1F86', '1F87', '1F88', '1F89', '1F90', '1F91', '1F92', '1F93', '1F94', '1F95', '1F96', '1F97', '1F98', '1F99', '1G10', '1G11', '1G12', '1G13', '1G14', '1G15', '1G16', '1G17', '1G18', '1G19', '1G20', '1G21', '1G22', '1G23', '1G24', '1G25', '1G26', '1G27', '1G28', '1G29', '1G30', '1G31', '1G32', '1G33', '1G34', '1G35', '1G36', '1G37', '1G38', '1G39', '1G40', '1G41', '1G42', '1G43', '1G44', '1G45', '1G46', '1G47', '1G48', '1G49', '1G50', '1G51', '1G52', '1G53', '1G54', '1G55', '1G56', '1G57', '1G58', '1G59', '1G60', '1G61', '1G62', '1G63', '1G64', '1G65', '1G66', '1G67', '1G68', '1G69', '1G70', '1G71', '1G72', '1G73', '1G74', '1G75', '1G76', '1G77', '1G78', '1G79', '1G80', '1G81', '1G82', '1G83', '1G84', '1G85', '1G86', '1G87', '1G88', '1G89', '1G90', '1G91', '1G92', '1G93', '1G94', '1G95', '1G96', '1G97', '1G98', '1G99', '1H10', '1H11', '1H12', '1H13', '1H14', '1H15', '1H16', '1H17', '1H18', '1H19', '1H20', '1H21', '1H22', '1H23', '1H24', '1H25', '1H26', '1H27', '1H28', '1H29', '1H30', '1H31', '1H32', '1H33', '1H34', '1H35', '1H36', '1H37', '1H38', '1H39', '1H40', '1H41', '1H42', '1H43', '1H44', '1H45', '1H46', '1H47', '1H48', '1H49', '1H50', '1H51', '1H52', '1H53', '1H54', '1H55', '1H56', '1H57', '1H58', '1H59', '1H60', '1H61', '1H62', '1H63', '1H64', '1H65', '1H66', '1H67', '1H68', '1H69', '1H70', '1H71', '1H72', '1H73', '1H74', '1H75', '1H76', '1H77', '1H78', '1H79', '1H80', '1H81', '1H82', '1H83', '1H84', '1H85', '1H86', '1H87', '1H88', '1H89', '1H90', '1H91', '1H92', '1H93', '1H94', '1H95', '1H96', '1H97', '1H98', '1H99', '1J10', '1J11', '1J12', '1J13', '1J14', '1J15', '1J16', '1J17', '1J18', '1J19', '1J20', '1J21', '1J22', '1J23', '1J24', '1J25', '1J26', '1J27', '1J28', '1J29', '1J30', '1J31', '1J32', '1J33', '1J34', '1J35', '1J36', '1J37', '1J38', '1J39', '1J40', '1J41', '1J42', '1J43', '1J44', '1J45', '1J46', '1J47', '1J48', '1J49', '1J50', '1J51', '1J52', '1J53', '1J54', '1J55', '1J56', '1J57', '1J58', '1J59', '1J60', '1J61', '1J62', '1J63', '1J64', '1J65', '1J66', '1J67', '1J68', '1J69', '1J70', '1J71', '1J72', '1J73', '1J74', '1J75', '1J76', '1J77', '1J78', '1J79', '1J80', '1J81', '1J82', '1J83', '1J84', '1J85', '1J86', '1J87', '1J88', '1J89', '1J90', '1J91', '1J92', '1J93', '1J94', '1J95', '1J96', '1J97', '1J98', '1J99', '1K10', '1K11', '1K12', '1K13', '1K14', '1K15', '1K16', '1K17', '1K18', '1K19', '1K20', '1K21', '1K22', '1K23', '1K24', '1K25', '1K26', '1K27', '1K28', '1K29', '1K30', '1K31', '1K32', '1K33', '1K34', '1K35', '1K36', '1K37', '1K38', '1K39', '1K40', '1K41', '1K42', '1K43', '1K44', '1K45', '1K46', '1K47', '1K48', '1K49', '1K50', '1K51', '1K52', '1K53', '1K54', '1K55', '1K56', '1K57', '1K58', '1K59', '1K60', '1K61', '1K62', '1K63', '1K64', '1K65', '1K66', '1K67', '1K68', '1K69', '1K70', '1K71', '1K72', '1K73', '1K74', '1K75', '1K76', '1K77', '1K78', '1K79', '1K80', '1K81', '1K82', '1K83', '1K84', '1K85', '1K86', '1K87', '1K88', '1K89', '1K90', '1K91', '1K92', '1K93', '1K94', '1K95', '1K96', '1K97', '1K98', '1K99', '1L10', '1L11', '1L12', '1L13', '1L14', '1L15', '1L16', '1L17', '1L18', '1L19', '1L20', '1L21', '1L22', '1L23', '1L24', '1L25', '1L26', '1L27', '1L28', '1L29', '1L30', '1L31', '1L32', '1L33', '1L34', '1L35', '1L36', '1L37', '1L38', '1L39', '1L40', '1L41', '1L42', '1L43', '1L44', '1L45', '1L46', '1L47', '1L48', '1L49', '1L50', '1L51', '1L52', '1L53', '1L54', '1L55', '1L56', '1L57', '1L58', '1L59', '1L60', '1L61', '1L62', '1L63', '1L64', '1L65', '1L66', '1L67', '1L68', '1L69', '1L70', '1L71', '1L72', '1L73', '1L74', '1L75', '1L76', '1L77', '1L78', '1L79', '1L80', '1L81', '1L82', '1L83', '1L84', '1L85', '1L86', '1L87', '1L88', '1L89', '1L90', '1L91', '1L92', '1L93', '1L94', '1L95', '1L96', '1L97', '1L98', '1L99', '1M10', '1M11', '1M12', '1M13', '1M14', '1M15', '1M16', '1M17', '1M18', '1M19', '1M20', '1M21', '1M22', '1M23', '1M24', '1M25', '1M26', '1M27', '1M28', '1M29', '1M30', '1M31', '1M32', '1M33', '1M34', '1M35', '1M36', '1M37', '1M38', '1M39', '1M40', '1M41', '1M42', '1M43', '1M44', '1M45', '1M46', '1M47', '1M48', '1M49', '1M50', '1M51', '1M52', '1M53', '1M54', '1M55', '1M56', '1M57', '1M58', '1M59', '1M60', '1M61', '1M62', '1M63', '1M64', '1M65', '1M66', '1M67', '1M68', '1M69', '1M70', '1M71', '1M72', '1M73', '1M74', '1M75', '1M76', '1M77', '1M78', '1M79', '1M80', '1M81', '1M82', '1M83', '1M84', '1M85', '1M86', '1M87', '1M88', '1M89', '1M90', '1M91', '1M92', '1M93', '1M94', '1M95', '1M96', '1M97', '1M98', '1M99', '1N10', '1N11', '1N12', '1N13', '1N14', '1N15', '1N16', '1N17', '1N18', '1N19', '1N20', '1N21', '1N22', '1N23', '1N24', '1N25', '1N26', '1N27', '1N28', '1N29', '1N30', '1N31', '1N32', '1N33', '1N34', '1N35', '1N36', '1N37', '1N38', '1N39', '1N40', '1N41', '1N42', '1N43', '1N44', '1N45', '1N46', '1N47', '1N48', '1N49', '1N50', '1N51', '1N52', '1N53', '1N54', '1N55', '1N56', '1N57', '1N58', '1N59', '1N60', '1N61', '1N62', '1N63', '1N64', '1N65', '1N66', '1N67', '1N68', '1N69', '1N70', '1N71', '1N72', '1N73', '1N74', '1N75', '1N76', '1N77', '1N78', '1N79', '1N80', '1N81', '1N82', '1N83', '1N84', '1N85', '1N86', '1N87', '1N88', '1N89', '1N90', '1N91', '1N92', '1N93', '1N94', '1N95', '1N96', '1N97', '1N98', '1N99', '1P10', '1P11', '1P12', '1P13', '1P14', '1P15', '1P16', '1P17', '1P18', '1P19', '1P20', '1P21', '1P22', '1P23', '1P24', '1P25', '1P26', '1P27', '1P28', '1P29', '1P30', '1P31', '1P32', '1P33', '1P34', '1P35', '1P36', '1P37', '1P38', '1P39', '1P40', '1P41', '1P42', '1P43', '1P44', '1P45', '1P46', '1P47', '1P48', '1P49', '1P50', '1P51', '1P52', '1P53', '1P54', '1P55', '1P56', '1P57', '1P58', '1P59', '1P60', '1P61', '1P62', '1P63', '1P64', '1P65', '1P66', '1P67', '1P68', '1P69', '1P70', '1P71', '1P72', '1P73', '1P74', '1P75', '1P76', '1P77', '1P78', '1P79', '1P80', '1P81', '1P82', '1P83', '1P84', '1P85', '1P86', '1P87', '1P88', '1P89', '1P90', '1P91', '1P92', '1P93', '1P94', '1P95', '1P96', '1P97', '1P98', '1P99', '1T10', '1T11', '1T12', '1T13', '1T14', '1T15', '1T16', '1T17', '1T18', '1T19', '1T20', '1T21', '1T22', '1T23', '1T24', '1T25', '1T26', '1T27', '1T28', '1T29', '1T30', '1T31', '1T32', '1T33', '1T34', '1T35', '1T36', '1T37', '1T38', '1T39', '1T40', '1T41', '1T42', '1T43', '1T44', '1T45', '1T46', '1T47', '1T48', '1T49', '1T50', '1T51', '1T52', '1T53', '1T54', '1T55', '1T56', '1T57', '1T58', '1T59', '1T60', '1T61', '1T62', '1T63', '1T64', '1T65', '1T66', '1T67', '1T68', '1T69', '1T70', '1T71', '1T72', '1T73', '1T74', '1T75', '1T76', '1T77', '1T78', '1T79', '1T80', '1T81', '1T82', '1T83', '1T84', '1T85', '1T86', '1T87', '1T88', '1T89', '1T90', '1T91', '1T92', '1T93', '1T94', '1T95', '1T96', '1T97', '1T98', '1T99', '1V10', '1V11', '1V12', '1V13', '1V14', '1V15', '1V16', '1V17', '1V18', '1V19', '1V20', '1V21', '1V22', '1V23', '1V24', '1V25', '1V26', '1V27', '1V28', '1V29', '1V30', '1V31', '1V32', '1V33', '1V34', '1V35', '1V36', '1V37', '1V38', '1V39', '1V40', '1V41', '1V42', '1V43', '1V44', '1V45', '1V46', '1V47', '1V48', '1V49', '1V50', '1V51', '1V52', '1V53', '1V54', '1V55', '1V56', '1V57', '1V58', '1V59', '1V60', '1V61', '1V62', '1V63', '1V64', '1V65', '1V66', '1V67', '1V68', '1V69', '1V70', '1V71', '1V72', '1V73', '1V74', '1V75', '1V76', '1V77', '1V78', '1V79', '1V80', '1V81', '1V82', '1V83', '1V84', '1V85', '1V86', '1V87', '1V88', '1V89', '1V90', '1V91', '1V92', '1V93', '1V94', '1V95', '1V96', '1V97', '1V98', '1V99', '1W10', '1W11', '1W12', '1W13', '1W14', '1W15', '1W16', '1W17', '1W18', '1W19', '1W20', '1W21', '1W22', '1W23', '1W24', '1W25', '1W26', '1W27', '1W28', '1W29', '1W30', '1W31', '1W32', '1W33', '1W34', '1W35', '1W36', '1W37', '1W38', '1W39', '1W40', '1W41', '1W42', '1W43', '1W44', '1W45', '1W46', '1W47', '1W48', '1W49', '1W50', '1W51', '1W52', '1W53', '1W54', '1W55', '1W56', '1W57', '1W58', '1W59', '1W60', '1W61', '1W62', '1W63', '1W64', '1W65', '1W66', '1W67', '1W68', '1W69', '1W70', '1W71', '1W72', '1W73', '1W74', '1W75', '1W76', '1W77', '1W78', '1W79', '1W80', '1W81', '1W82', '1W83', '1W84', '1W85', '1W86', '1W87', '1W88', '1W89', '1W90', '1W91', '1W92', '1W93', '1W94', '1W95', '1W96', '1W97', '1W98', '1W99', '1Y10', '1Y11', '1Y12', '1Y13', '1Y14', '1Y15', '1Y16', '1Y17', '1Y18', '1Y19', '1Y20', '1Y21', '1Y22', '1Y23', '1Y24', '1Y25', '1Y26', '1Y27', '1Y28', '1Y29', '1Y30', '1Y31', '1Y32', '1Y33', '1Y34', '1Y35', '1Y36', '1Y37', '1Y38', '1Y39', '1Y40', '1Y41', '1Y42', '1Y43', '1Y44', '1Y45', '1Y46', '1Y47', '1Y48', '1Y49', '1Y50', '1Y51', '1Y52', '1Y53', '1Y54', '1Y55', '1Y56', '1Y57', '1Y58', '1Y59', '1Y60', '1Y61', '1Y62', '1Y63', '1Y64', '1Y65', '1Y66', '1Y67', '1Y68', '1Y69', '1Y70', '1Y71', '1Y72', '1Y73', '1Y74', '1Y75', '1Y76', '1Y77', '1Y78', '1Y79', '1Y80', '1Y81', '1Y82', '1Y83', '1Y84', '1Y85', '1Y86', '1Y87', '1Y88', '1Y89', '1Y90', '1Y91', '1Y92', '1Y93', '1Y94', '1Y95', '1Y96', '1Y97', '1Y98', '1Y99', '2.00E+10', '2.00E+11', '2.00E+12', '2.00E+13', '2.00E+14', '2.00E+15', '2.00E+16', '2.00E+17', '2.00E+18', '2.00E+19', '2.00E+20', '2.00E+21', '2.00E+22', '2.00E+23', '2.00E+24', '2.00E+25', '2.00E+26', '2.00E+27', '2.00E+28', '2.00E+29', '2.00E+30', '2.00E+31', '2.00E+32', '2.00E+33', '2.00E+34', '2.00E+35', '2.00E+36', '2.00E+37', '2.00E+38', '2.00E+39', '2.00E+40', '2.00E+41', '2.00E+42', '2.00E+43', '2.00E+44', '2.00E+45', '2.00E+46', '2.00E+47', '2.00E+48', '2.00E+49', '2.00E+50', '2.00E+51', '2.00E+52', '2.00E+53', '2.00E+54', '2.00E+55', '2.00E+56', '2.00E+57', '2.00E+58', '2.00E+59', '2.00E+60', '2.00E+61', '2.00E+62', '2.00E+63', '2.00E+64', '2.00E+65', '2.00E+66', '2.00E+67', '2.00E+68', '2.00E+69', '2.00E+70', '2.00E+71', '2.00E+72', '2.00E+73', '2.00E+74', '2.00E+75', '2.00E+76', '2.00E+77', '2.00E+78', '2.00E+79', '2.00E+80', '2.00E+81', '2.00E+82', '2.00E+83', '2.00E+84', '2.00E+85', '2.00E+86', '2.00E+87', '2.00E+88', '2.00E+89', '2.00E+90', '2.00E+91', '2.00E+92', '2.00E+93', '2.00E+94', '2.00E+95', '2.00E+96', '2.00E+97', '2.00E+98', '2.00E+99', '2A10', '2A11', '2A12', '2A13', '2A14', '2A15', '2A16', '2A17', '2A18', '2A19', '2A20', '2A21', '2A22', '2A23', '2A24', '2A25', '2A26', '2A27', '2A28', '2A29', '2A30', '2A31', '2A32', '2A33', '2A34', '2A35', '2A36', '2A37', '2A38', '2A39', '2A40', '2A41', '2A42', '2A43', '2A44', '2A45', '2A46', '2A47', '2A48', '2A49', '2A50', '2A51', '2A52', '2A53', '2A54', '2A55', '2A56', '2A57', '2A58', '2A59', '2A60', '2A61', '2A62', '2A63', '2A64', '2A65', '2A66', '2A67', '2A68', '2A69', '2A70', '2A71', '2A72', '2A73', '2A74', '2A75', '2A76', '2A77', '2A78', '2A79', '2A80', '2A81', '2A82', '2A83', '2A84', '2A85', '2A86', '2A87', '2A88', '2A89', '2A90', '2A91', '2A92', '2A93', '2A94', '2A95', '2A96', '2A97', '2A98', '2A99', '2B10', '2B11', '2B12', '2B13', '2B14', '2B15', '2B16', '2B17', '2B18', '2B19', '2B20', '2B21', '2B22', '2B23', '2B24', '2B25', '2B26', '2B27', '2B28', '2B29', '2B30', '2B31', '2B32', '2B33', '2B34', '2B35', '2B36', '2B37', '2B38', '2B39', '2B40', '2B41', '2B42', '2B43', '2B44', '2B45', '2B46', '2B47', '2B48', '2B49', '2B50', '2B51', '2B52', '2B53', '2B54', '2B55', '2B56', '2B57', '2B58', '2B59', '2B60', '2B61', '2B62', '2B63', '2B64', '2B65', '2B66', '2B67', '2B68', '2B69', '2B70', '2B71', '2B72', '2B73', '2B74', '2B75', '2B76', '2B77', '2B78', '2B79', '2B80', '2B81', '2B82', '2B83', '2B84', '2B85', '2B86', '2B87', '2B88', '2B89', '2B90', '2B91', '2B92', '2B93', '2B94', '2B95', '2B96', '2B97', '2B98', '2B99', '2C10', '2C11', '2C12', '2C13', '2C14', '2C15', '2C16', '2C17', '2C18', '2C19', '2C20', '2C21', '2C22', '2C23', '2C24', '2C25', '2C26', '2C27', '2C28', '2C29', '2C30', '2C31', '2C32', '2C33', '2C34', '2C35', '2C36', '2C37', '2C38', '2C39', '2C40', '2C41', '2C42', '2C43', '2C44', '2C45', '2C46', '2C47', '2C48', '2C49', '2C50', '2C51', '2C52', '2C53', '2C54', '2C55', '2C56', '2C57', '2C58', '2C59', '2C60', '2C61', '2C62', '2C63', '2C64', '2C65', '2C66', '2C67', '2C68', '2C69', '2C70', '2C71', '2C72', '2C73', '2C74', '2C75', '2C76', '2C77', '2C78', '2C79', '2C80', '2C81', '2C82', '2C83', '2C84', '2C85', '2C86', '2C87', '2C88', '2C89', '2C90', '2C91', '2C92', '2C93', '2C94', '2C95', '2C96', '2C97', '2C98', '2C99', '2D10', '2D12', '2D13', '2D14', '2D15', '2D16', '2D17', '2D18', '2D19', '2D20', '2D21', '2D22', '2D23', '2D24', '2D25', '2D26', '2D27', '2D28', '2D29', '2D30', '2D31', '2D32', '2D33', '2D34', '2D35', '2D36', '2D37', '2D38', '2D39', '2D40', '2D41', '2D42', '2D43', '2D44', '2D45', '2D46', '2D47', '2D48', '2D49', '2D50', '2D51', '2D52', '2D53', '2D54', '2D55', '2D56', '2D57', '2D58', '2D59', '2D60', '2D61', '2D62', '2D63', '2D64', '2D65', '2D66', '2D67', '2D68', '2D69', '2D70', '2D71', '2D72', '2D73', '2D74', '2D75', '2D76', '2D77', '2D78', '2D79', '2D80', '2D81', '2D82', '2D83', '2D85', '2D86', '2D87', '2D88', '2D89', '2D90', '2D91', '2D92', '2D93', '2D94', '2D95', '2D96', '2D97', '2D98', '2D99', '2F10', '2F11', '2F12', '2F13', '2F14', '2F15', '2F16', '2F17', '2F18', '2F19', '2F20', '2F21', '2F22', '2F23', '2F24', '2F25', '2F26', '2F27', '2F28', '2F29', '2F30', '2F31', '2F32', '2F33', '2F34', '2F35', '2F36', '2F37', '2F38', '2F39', '2F40', '2F41', '2F42', '2F43', '2F44', '2F45', '2F46', '2F47', '2F48', '2F49', '2F50', '2F51', '2F52', '2F53', '2F54', '2F55', '2F56', '2F57', '2F58', '2F59', '2F60', '2F61', '2F62', '2F63', '2F64', '2F65', '2F66', '2F67', '2F68', '2F69', '2F70', '2F71', '2F72', '2F73', '2F74', '2F75', '2F76', '2F77', '2F78', '2F79', '2F80', '2F81', '2F82', '2F83', '2F84', '2F85', '2F86', '2F87', '2F88', '2F89', '2F90', '2F91', '2F92', '2F93', '2F94', '2F95', '2F96', '2F97', '2F98', '2F99', '2G10', '2G11', '2G12', '2G13', '2G14', '2G15', '2G16', '2G17', '2G18', '2G19', '2G20', '2G21', '2G22', '2G23', '2G24', '2G25', '2G26', '2G27', '2G28', '2G29', '2G30', '2G31', '2G32', '2G33', '2G34', '2G35', '2G36', '2G37', '2G38', '2G39', '2G40', '2G41', '2G42', '2G43', '2G44', '2G45', '2G46', '2G47', '2G48', '2G49', '2G50', '2G51', '2G52', '2G53', '2G54', '2G55', '2G56', '2G57', '2G58', '2G59', '2G60', '2G61', '2G62', '2G63', '2G64', '2G65', '2G66', '2G67', '2G68', '2G69', '2G70', '2G71', '2G72', '2G73', '2G74', '2G75', '2G76', '2G77', '2G78', '2G79', '2G80', '2G81', '2G82', '2G83', '2G84', '2G85', '2G86', '2G87', '2G88', '2G89', '2G90', '2G91', '2G92', '2G93', '2G94', '2G95', '2G96', '2G97', '2G98', '2G99', '2H10', '2H11', '2H12', '2H13', '2H14', '2H15', '2H16', '2H17', '2H18', '2H19', '2H20', '2H21', '2H22', '2H23', '2H24', '2H25', '2H26', '2H27', '2H28', '2H29', '2H30', '2H31', '2H32', '2H33', '2H34', '2H35', '2H36', '2H37', '2H38', '2H39', '2H40', '2H41', '2H42', '2H43', '2H44', '2H45', '2H46', '2H47', '2H48', '2H49', '2H50', '2H51', '2H52', '2H53', '2H54', '2H55', '2H56', '2H57', '2H58', '2H59', '2H60', '2H61', '2H62', '2H63', '2H64', '2H65', '2H66', '2H67', '2H68', '2H69', '2H70', '2H71', '2H72', '2H73', '2H74', '2H75', '2H76', '2H77', '2H78', '2H79', '2H80', '2H81', '2H82', '2H83', '2H84', '2H85', '2H86', '2H87', '2H88', '2H89', '2H90', '2H91', '2H92', '2H93', '2H94', '2H95', '2H96', '2H97', '2H98', '2H99', '2J10', '2J11', '2J12', '2J13', '2J14', '2J15', '2J16', '2J17', '2J18', '2J19', '2J20', '2J21', '2J22', '2J23', '2J24', '2J25', '2J26', '2J27', '2J28', '2J29', '2J30', '2J31', '2J32', '2J33', '2J34', '2J35', '2J36', '2J37', '2J38', '2J39', '2J40', '2J41', '2J42', '2J43', '2J44', '2J45', '2J46', '2J47', '2J48', '2J49', '2J50', '2J51', '2J52', '2J53', '2J54', '2J55', '2J56', '2J57', '2J58', '2J59', '2J60', '2J61', '2J62', '2J63', '2J64', '2J65', '2J66', '2J67', '2J68', '2J69', '2J70', '2J71', '2J72', '2J73', '2J74', '2J75', '2J76', '2J77', '2J78', '2J79', '2J80', '2J81', '2J82', '2J83', '2J84', '2J85', '2J86', '2J87', '2J88', '2J89', '2J90', '2J91', '2J92', '2J93', '2J94', '2J95', '2J96', '2J97', '2J98', '2J99', '2K10', '2K11', '2K12', '2K13', '2K14', '2K15', '2K16', '2K17', '2K18', '2K19', '2K20', '2K21', '2K22', '2K23', '2K24', '2K25', '2K26', '2K27', '2K28', '2K29', '2K30', '2K31', '2K32', '2K33', '2K34', '2K35', '2K36', '2K37', '2K38', '2K39', '2K40', '2K41', '2K42', '2K43', '2K44', '2K45', '2K46', '2K47', '2K48', '2K49', '2K50', '2K51', '2K52', '2K53', '2K54', '2K55', '2K56', '2K57', '2K58', '2K59', '2K60', '2K61', '2K62', '2K63', '2K64', '2K65', '2K66', '2K67', '2K68', '2K69', '2K70', '2K71', '2K72', '2K73', '2K74', '2K75', '2K76', '2K77', '2K78', '2K79', '2K80', '2K81', '2K82', '2K83', '2K84', '2K85', '2K86', '2K87', '2K88', '2K89', '2K90', '2K91', '2K92', '2K93', '2K94', '2K95', '2K96', '2K97', '2K98', '2K99', '2L10', '2L11', '2L12', '2L13', '2L14', '2L15', '2L16', '2L17', '2L18', '2L19', '2L20', '2L21', '2L22', '2L23', '2L24', '2L25', '2L26', '2L27', '2L28', '2L29', '2L30', '2L31', '2L32', '2L33', '2L34', '2L35', '2L36', '2L37', '2L38', '2L39', '2L40', '2L41', '2L42', '2L43', '2L44', '2L45', '2L46', '2L47', '2L48', '2L49', '2L50', '2L51', '2L52', '2L53', '2L54', '2L55', '2L56', '2L57', '2L58', '2L59', '2L60', '2L61', '2L62', '2L63', '2L64', '2L65', '2L66', '2L67', '2L68', '2L69', '2L70', '2L71', '2L72', '2L73', '2L74', '2L75', '2L76', '2L77', '2L78', '2L79', '2L80', '2L81', '2L82', '2L83', '2L84', '2L85', '2L86', '2L87', '2L88', '2L89', '2L90', '2L91', '2L92', '2L93', '2L94', '2L95', '2L96', '2L97', '2L98', '2L99', '2M10', '2M11', '2M12', '2M13', '2M14', '2M15', '2M16', '2M17', '2M18', '2M19', '2M20', '2M21', '2M22', '2M23', '2M24', '2M25', '2M26', '2M27', '2M28', '2M29', '2M30', '2M31', '2M32', '2M33', '2M34', '2M35', '2M36', '2M37', '2M38', '2M39', '2M40', '2M41', '2M42', '2M43', '2M44', '2M45', '2M46', '2M47', '2M48', '2M49', '2M50', '2M51', '2M52', '2M53', '2M54', '2M55', '2M56', '2M57', '2M58', '2M59', '2M60', '2M61', '2M62', '2M63', '2M64', '2M65', '2M66', '2M67', '2M68', '2M69', '2M70', '2M71', '2M72', '2M73', '2M74', '2M75', '2M76', '2M77', '2M78', '2M79', '2M80', '2M81', '2M82', '2M83', '2M84', '2M85', '2M86', '2M87', '2M88', '2M89', '2M90', '2M91', '2M92', '2M93', '2M94', '2M95', '2M96', '2M97', '2M98', '2M99', '2N10', '2N11', '2N12', '2N13', '2N14', '2N15', '2N16', '2N17', '2N18', '2N19', '2N20', '2N21', '2N22', '2N23', '2N24', '2N25', '2N26', '2N27', '2N28', '2N29', '2N30', '2N31', '2N32', '2N33', '2N34', '2N35', '2N36', '2N37', '2N38', '2N39', '2N40', '2N41', '2N42', '2N43', '2N44', '2N45', '2N46', '2N47', '2N48', '2N49', '2N50', '2N51', '2N52', '2N53', '2N54', '2N55', '2N56', '2N57', '2N58', '2N59', '2N60', '2N61', '2N62', '2N63', '2N64', '2N65', '2N66', '2N67', '2N68', '2N69', '2N70', '2N71', '2N72', '2N73', '2N74', '2N75', '2N76', '2N77', '2N78', '2N79', '2N80', '2N81', '2N82', '2N83', '2N84', '2N85', '2N86', '2N87', '2N88', '2N89', '2N90', '2N91', '2N92', '2N93', '2N94', '2N95', '2N96', '2N97', '2N98', '2N99', '2P10', '2P11', '2P12', '2P13', '2P14', '2P15', '2P16', '2P17', '2P18', '2P19', '2P20', '2P21', '2P22', '2P23', '2P24', '2P25', '2P26', '2P27', '2P28', '2P29', '2P30', '2P31', '2P32', '2P33', '2P34', '2P35', '2P36', '2P37', '2P38', '2P39', '2P40', '2P41', '2P42', '2P43', '2P44', '2P45', '2P46', '2P47', '2P48', '2P49', '2P50', '2P51', '2P52', '2P53', '2P54', '2P55', '2P56', '2P57', '2P58', '2P59', '2P60', '2P61', '2P62', '2P63', '2P64', '2P65', '2P66', '2P67', '2P68', '2P69', '2P70', '2P71', '2P72', '2P73', '2P74', '2P75', '2P76', '2P77', '2P78', '2P79', '2P80', '2P81', '2P82', '2P83', '2P84', '2P85', '2P86', '2P87', '2P88', '2P89', '2P90', '2P91', '2P92', '2P93', '2P94', '2P95', '2P96', '2P97', '2P98', '2P99', '2T10', '2T11', '2T12', '2T13', '2T14', '2T15', '2T16', '2T17', '2T18', '2T19', '2T20', '2T21', '2T22', '2T23', '2T24', '2T25', '2T26', '2T27', '2T28', '2T29', '2T30', '2T31', '2T32', '2T33', '2T34', '2T35', '2T36', '2T37', '2T38', '2T39', '2T40', '2T41', '2T42', '2T43', '2T44', '2T45', '2T46', '2T47', '2T48', '2T49', '2T50', '2T51', '2T52', '2T53', '2T54', '2T55', '2T56', '2T57', '2T58', '2T59', '2T60', '2T61', '2T62', '2T63', '2T64', '2T65', '2T66', '2T67', '2T68', '2T69', '2T70', '2T71', '2T72', '2T73', '2T74', '2T75', '2T76', '2T77', '2T78', '2T79', '2T80', '2T81', '2T82', '2T83', '2T84', '2T85', '2T86', '2T87', '2T88', '2T89', '2T90', '2T91', '2T92', '2T93', '2T94', '2T95', '2T96', '2T97', '2T98', '2T99', '2V10', '2V11', '2V12', '2V13', '2V14', '2V15', '2V16', '2V17', '2V18', '2V19', '2V20', '2V21', '2V22', '2V23', '2V24', '2V25', '2V26', '2V27', '2V28', '2V29', '2V30', '2V31', '2V32', '2V33', '2V34', '2V35', '2V36', '2V37', '2V38', '2V39', '2V40', '2V41', '2V42', '2V43', '2V44', '2V45', '2V46', '2V47', '2V48', '2V49', '2V50', '2V51', '2V52', '2V53', '2V54', '2V55', '2V56', '2V57', '2V58', '2V59', '2V60', '2V61', '2V62', '2V63', '2V64', '2V65', '2V66', '2V67', '2V68', '2V69', '2V70', '2V71', '2V72', '2V73', '2V74', '2V75', '2V76', '2V77', '2V78', '2V79', '2V80', '2V81', '2V82', '2V83', '2V84', '2V85', '2V86', '2V87', '2V88', '2V89', '2V90', '2V91', '2V92', '2V93', '2V94', '2V95', '2V96', '2V97', '2V98', '2V99', '2W10', '2W11', '2W12', '2W13', '2W14', '2W15', '2W16', '2W17', '2W18', '2W19', '2W20', '2W21', '2W22', '2W23', '2W24', '2W25', '2W26', '2W27', '2W28', '2W29', '2W30', '2W31', '2W32', '2W33', '2W34', '2W35', '2W36', '2W37', '2W38', '2W39', '2W40', '2W41', '2W42', '2W43', '2W44', '2W45', '2W46', '2W47', '2W48', '2W49', '2Y10', '2Y11', '2Y12', '2Y13', '2Y14', '2Y15', '2Y16', '2Y17', '2Y18', '2Y19', '2Y20', '2Y21', '2Y22', '2Y23', '2Y24', '2Y25', '2Y26', '2Y27', '2Y28', '2Y29', '2Y30', '2Y31', '2Y32', '2Y33', '2Y34', '2Y35', '2Y36', '2Y37', '2Y38', '2Y39', '2Y40', '2Y41', '2Y42', '2Y43', '2Y44', '2Y45', '2Y46', '2Y47', '2Y48', '2Y49', '2Y50', '2Y51', '2Y52', '2Y53', '2Y54', '2Y55', '2Y56', '2Y57', '2Y58', '2Y59', '2Y60', '2Y61', '2Y62', '2Y63', '2Y64', '2Y65', '2Y66', '2Y67', '2Y68', '2Y69', '2Y70', '2Y71', '2Y72', '2Y73', '2Y74', '2Y75', '2Y76', '2Y77', '2Y78', '2Y79', '2Y80', '2Y81', '2Y82', '2Y83', '2Y84', '2Y85', '2Y86', '2Y87', '2Y88', '2Y89', '2Y90', '2Y91', '2Y92', '2Y93', '2Y94', '2Y95', '2Y96', '2Y97', '2Y98', '2Y99', '3.00E+10', '3.00E+11', '3.00E+12', '3.00E+13', '3.00E+14', '3.00E+15', '3.00E+16', '3.00E+17', '3.00E+18', '3.00E+19', '3.00E+20', '3.00E+21', '3.00E+22', '3.00E+23', '3.00E+24', '3.00E+25', '3.00E+26', '3.00E+27', '3.00E+28', '3.00E+29', '3.00E+30', '3.00E+31', '3.00E+32', '3.00E+33', '3.00E+34', '3.00E+35', '3.00E+36', '3.00E+37', '3.00E+38', '3.00E+39', '3.00E+40', '3.00E+41', '3.00E+42', '3.00E+43', '3.00E+44', '3.00E+45', '3.00E+46', '3.00E+47', '3.00E+48', '3.00E+49', '3.00E+50', '3.00E+51', '3.00E+52', '3.00E+53', '3.00E+54', '3.00E+55', '3.00E+56', '3.00E+57', '3.00E+58', '3.00E+59', '3.00E+60', '3.00E+61', '3.00E+62', '3.00E+63', '3.00E+64', '3.00E+65', '3.00E+66', '3.00E+67', '3.00E+68', '3.00E+69', '3.00E+70', '3.00E+71', '3.00E+72', '3.00E+73', '3.00E+74', '3.00E+75', '3.00E+76', '3.00E+77', '3.00E+78', '3.00E+79', '3.00E+80', '3.00E+81', '3.00E+82', '3.00E+83', '3.00E+84', '3.00E+85', '3.00E+86', '3.00E+87', '3.00E+88', '3.00E+89', '3.00E+90', '3.00E+91', '3.00E+92', '3.00E+93', '3.00E+94', '3.00E+95', '3.00E+96', '3.00E+97', '3.00E+98', '3.00E+99', '3A10', '3A11', '3A12', '3A13', '3A14', '3A15', '3A16', '3A17', '3A18', '3A19', '3A20', '3A21', '3A22', '3A23', '3A24', '3A25', '3A26', '3A27', '3A28', '3A29', '3A30', '3A31', '3A32', '3A33', '3A34', '3A35', '3A36', '3A37', '3A38', '3A39', '3A40', '3A41', '3A42', '3A43', '3A44', '3A45', '3A46', '3A47', '3A48', '3A49', '3A50', '3A51', '3A52', '3A53', '3A54', '3A55', '3A56', '3A57', '3A58', '3A59', '3A60', '3A61', '3A62', '3A63', '3A64', '3A65', '3A66', '3A67', '3A68', '3A69', '3A70', '3A71', '3A72', '3A73', '3A74', '3A75', '3A76', '3A77', '3A78', '3A79', '3A80', '3A81', '3A82', '3A83', '3A84', '3A85', '3A86', '3A87', '3A88', '3A89', '3A90', '3A91', '3A92', '3A93', '3A94', '3A95', '3A96', '3A97', '3A98', '3A99', '3B10', '3B11', '3B12', '3B13', '3B14', '3B15', '3B16', '3B17', '3B18', '3B19', '3B20', '3B21', '3B22', '3B23', '3B24', '3B25', '3B26', '3B27', '3B28', '3B29', '3B30', '3B31', '3B32', '3B33', '3B34', '3B35', '3B36', '3B37', '3B38', '3B39', '3B40', '3B41', '3B42', '3B43', '3B44', '3B45', '3B46', '3B47', '3B48', '3B49', '3B50', '3B51', '3B52', '3B53', '3B54', '3B55', '3B56', '3B57', '3B58', '3B59', '3B60', '3B61', '3B62', '3B63', '3B64', '3B65', '3B66', '3B67', '3B68', '3B69', '3B70', '3B71', '3B72', '3B73', '3B74', '3B75', '3B76', '3B77', '3B78', '3B79', '3B80', '3B81', '3B82', '3B83', '3B84', '3B85', '3B86', '3B87', '3B88', '3B89', '3B90', '3B91', '3B92', '3B93', '3B94', '3B95', '3B96', '3B97', '3B98', '3B99', '3C10', '3C11', '3C12', '3C13', '3C14', '3C15', '3C16', '3C17', '3C18', '3C19', '3C20', '3C21', '3C22', '3C23', '3C24', '3C25', '3C26', '3C27', '3C28', '3C29', '3C30', '3C31', '3C32', '3C33', '3C34', '3C35', '3C36', '3C37', '3C38', '3C39', '3C40', '3C41', '3C42', '3C43', '3C44', '3C45', '3C46', '3C47', '3C48', '3C49', '3C50', '3C51', '3C52', '3C53', '3C54', '3C55', '3C56', '3C57', '3C58', '3C59', '3C60', '3C61', '3C62', '3C63', '3C64', '3C65', '3C66', '3C67', '3C68', '3C69', '3C70', '3C71', '3C72', '3C73', '3C74', '3C75', '3C76', '3C77', '3C78', '3C79', '3C80', '3C81', '3C82', '3C83', '3C84', '3C85', '3C86', '3C87', '3C88', '3C89', '3C90', '3C91', '3C92', '3C93', '3C94', '3C95', '3C96', '3C97', '3C98', '3C99', '3D10', '3D11', '3D12', '3D13', '3D14', '3D15', '3D16', '3D17', '3D18', '3D19', '3D20', '3D21', '3D22', '3D23', '3D24', '3D25', '3D26', '3D27', '3D28', '3D29', '3D30', '3D31', '3D32', '3D33', '3D34', '3D35', '3D36', '3D37', '3D38', '3D39', '3D40', '3D41', '3D42', '3D43', '3D44', '3D45', '3D46', '3D47', '3D48', '3D49', '3D50', '3D51', '3D52', '3D53', '3D54', '3D55', '3D56', '3D57', '3D58', '3D59', '3D60', '3D61', '3D62', '3D63', '3D64', '3D65', '3D66', '3D67', '3D68', '3D69', '3D70', '3D71', '3D72', '3D73', '3D74', '3D75', '3D76', '3D77', '3D78', '3D79', '3D80', '3D81', '3D82', '3D83', '3D84', '3D85', '3D86', '3D87', '3D88', '3D89', '3D90', '3D91', '3D92', '3D93', '3D94', '3D95', '3D96', '3D97', '3D98', '3D99', '3F10', '3F11', '3F12', '3F13', '3F14', '3F15', '3F16', '3F17', '3F18', '3F19', '3F20', '3F21', '3F22', '3F23', '3F24', '3F25', '3F26', '3F27', '3F28', '3F29', '3F30', '3F31', '3F32', '3F33', '3F34', '3F35', '3F36', '3F37', '3F38', '3F39', '3F40', '3F41', '3F42', '3F43', '3F44', '3F45', '3F46', '3F47', '3F48', '3F49', '3F50', '3F51', '3F52', '3F53', '3F54', '3F55', '3F56', '3F57', '3F58', '3F59', '3F60', '3F61', '3F62', '3F63', '3F64', '3F65', '3F66', '3F67', '3F68', '3F69', '3F70', '3F71', '3F72', '3F73', '3F74', '3F75', '3F76', '3F77', '3F78', '3F79', '3F80', '3F81', '3F82', '3F83', '3F84', '3F85', '3F86', '3F87', '3F88', '3F89', '3F90', '3F91', '3F92', '3F93', '3F94', '3F95', '3F96', '3F97', '3F98', '3F99', '3G10', '3G11', '3G12', '3G13', '3G14', '3G15', '3G16', '3G17', '3G18', '3G19', '3G20', '3G21', '3G22', '3G23', '3G24', '3G25', '3G26', '3G27', '3G28', '3G29', '3G30', '3G31', '3G32', '3G33', '3G34', '3G35', '3G36', '3G37', '3G38', '3G39', '3G40', '3G41', '3G42', '3G43', '3G44', '3G45', '3G46', '3G47', '3G48', '3G49', '3G50', '3G51', '3G52', '3G53', '3G54', '3G55', '3G56', '3G57', '3G58', '3G59', '3G60', '3G61', '3G62', '3G63', '3G64', '3G65', '3G66', '3G67', '3G68', '3G69', '3G70', '3G71', '3G72', '3G73', '3G74', '3G75', '3G76', '3G77', '3G78', '3G79', '3G80', '3G81', '3G82', '3G83', '3G84', '3G85', '3G86', '3G87', '3G88', '3G89', '3G90', '3G91', '3G92', '3G93', '3G94', '3G95', '3G96', '3G97', '3G98', '3G99', '3H10', '3H11', '3H12', '3H13', '3H14', '3H15', '3H16', '3H17', '3H18', '3H19', '3H20', '3H21', '3H22', '3H23', '3H24', '3H25', '3H26', '3H27', '3H28', '3H29', '3H30', '3H31', '3H32', '3H33', '3H34', '3H35', '3H36', '3H37', '3H38', '3H39', '3H40', '3H41', '3H42', '3H43', '3H44', '3H45', '3H46', '3H47', '3H48', '3H49', '3H50', '3H51', '3H52', '3H53', '3H54', '3H55', '3H56', '3H57', '3H58', '3H59', '3H60', '3H61', '3H62', '3H63', '3H64', '3H65', '3H66', '3H67', '3H68', '3H69', '3H70', '3H71', '3H72', '3H73', '3H74', '3H75', '3H76', '3H77', '3H78', '3H79', '3H80', '3H81', '3H82', '3H83', '3H84', '3H85', '3H86', '3H87', '3H88', '3H89', '3H90', '3H91', '3H92', '3H93', '3H94', '3H95', '3H96', '3H97', '3H98', '3H99', '3J10', '3J11', '3J12', '3J13', '3J14', '3J15', '3J16', '3J17', '3J18', '3J19', '3J20', '3J21', '3J22', '3J23', '3J24', '3J25', '3J26', '3J27', '3J28', '3J29', '3J30', '3J31', '3J32', '3J33', '3J34', '3J35', '3J36', '3J37', '3J38', '3J39', '3J40', '3J41', '3J42', '3J43', '3J44', '3J45', '3J46', '3J47', '3J48', '3J49', '3J50', '3J51', '3J52', '3J53', '3J54', '3J55', '3J56', '3J57', '3J58', '3J59', '3J60', '3J61', '3J62'</t>
         </is>
@@ -634,18 +645,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E4" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -672,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -693,12 +704,15 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>413327</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>55835</v>
-      </c>
-      <c r="W4" t="inlineStr">
+        <v>413336</v>
+      </c>
+      <c r="W4" t="n">
+        <v>55836</v>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>['0284EAG', '07ALLSTR', '07TAICHI', '0L3682G', '0L4003G', '0L5686G', '0L9435G', '0L9438G', '0L9578G', '0LDIVA75', '100SBV-B', '10121BA', '101SBV-A', '102SBV-A', '103ELITE', '103LTC', '103SBV-C', '104SBV-B', '105SBV-B', '10695LA', '106SBV-B', '108LTC', '1090Y', '110LTC', '11147LA', '111SBV-B', '112LTC', '113LTC', '113SBV-B', '114LTC', '114SBV-A', '115INTA', '115LTC', '115SBV-B', '11638721', '116NYC', '116SBV-A', '118ALCTY', '118LTC', '118SBV-A', '119ELITE', '119LTC', '119SBV-B', '120BMC', '120SBV-B', '121SBV-B', '122LTC', '123LTC', '123SBV-A', '12411LA', '125BLS', '12695BA', '126SBV-A', '127LTC', '127SBV-B', '128LTC', '128SBV-B', '129SBV-B', '130SBV-B', '131SBV-B', '132BLS', '132SBV-B', '133ELITE', '133SBV-B', '134SBV-A', '135LTC', '137SBV-B', '13875LA', '138SBV-B', '139SBV-B', '140SBVB', '141SBV-B', '142SBV-B', '144UTOG', '145SBV-B', '146SBV-B', '147SBV-B', '149SBV-B', '14BMC', '14ELITE', '14OUTOG', '150BLS', '150SBV-B', '151SBV-B', '152SBV-C', '152UTOG', '15471LA', '15472LA', '15476LA', '154SBV-A', '15502LA', '15516LA', '15518LA', '155BLS', '15648BA', '157SBV-A', '158SBV-A', '159SBV-A', '1626OZO', '1628MLJ', '16304BA', '16325BA', '16381BA', '163ELITE', '163SBV-B', '164SBV-B', '165SBV-B', '166SBV-B', '16744LA', '16750LA', '16768LA', '16796BA', '168HSU', '168MLS', '169SBVB', '17045BA', '170SBVB', '171FC', '171SBVB', '1721NTA', '172SBVB', '173COMMU', '17567LA', '175SBV-A', '176SBV-A', '18138LA', '18146LA', '18235LA', '18236LA', '18240LA', '18241LA', '18242LA', '182DIAL', '18380BA', '18399BA', '18403BA', '18415BA', '18430BA', '18484BA', '18486LA', '18652LA', '18NF', '193INTA', '19565LA', '19598LA', '197DIAL', '19945LA', '199SBV-A', '19BMC', '1A10-A', '1A11-A', '1A12-A', '1A13-A', '1A14-B', '1A15-B', '1A16-A', '1A17-B', '1A18-A', '1A19-A', '1A20-B', '1A21-A', '1A22-C', '1A23-B', '1A24-A', '1A25-A', '1A26-A', '1A27-C', '1A28-A', '1A30-A', '1A31-A', '1A32-B', '1A33-A', '1A34-B', '1A35-A', '1A36-B', '1A37-B', '1A38-B', '1A39-A', '1A40-C', '1A41-A', '1A42-A', '1A43-C', '1A44-B', '1A45-B', '1A46-B', '1A47-C', '1A48-C', '1A49-B', '1A50-A', '1A51-B', '1A52-A', '1A53-A', '1A54-A', '1A55-B', '1A56-A', '1A57-A', '1A58-A', '1A59-B', '1A60-A', '1A61-B', '1A62-C', '1A63-A', '1A64-A', '1A65-C', '1A66-A', '1A67-A', '1A68-A', '1A69-A', '1A70-A', '1A71-A', '1A72-A', '1A73-C', '1A74-B', '1A75-B', '1A76-B', '1A77-A', '1A78-A', '1A79-A', '1A80-B', '1A81-B', '1A82-A', '1A83-C', '1A84B', '1A85-A', '1A86-A', '1A87-B', '1A88-A', '1A89-B', '1A90-A', '1A91-C', '1A92-C', '1A93-B', '1A94-C', '1A95-A', '1A96-A', '1A97-A', '1A98-C', '1A99-A', '1B10-A', '1B11-D', '1B12-A', '1B13-A', '1B14-A', '1B15-B', '1B16-B', '1B17-A', '1B18-A', '1B19-A', '1B20-B', '1B21-B', '1B22-B', '1B23-A', '1B24-B', '1B25-A', '1B26-B', '1B27-B', '1B28-B', '1B29-B', '1B30-A', '1B31-A', '1B32-A', '1B33-B', '1B34-B', '1B35-A', '1B36-B', '1B37-B', '1B38-C', '1B39-A', '1B40-A', '1B41-B', '1B42-D', '1B43-B', '1B44-B', '1B45-A', '1B46-A', '1B47-A', '1B48-B', '1B49-A', '1B50-B', '1B51-A', '1B52-A', '1B53-B', '1B54-A', '1B55-A', '1B56-B', '1B57-A', '1B58-A', '1B59-A', '1B60-A', '1B61-C', '1B62-B', '1B63-B', '1B64-A', '1B65-A', '1B66-B', '1B67-C', '1B68-A', '1B69-A', '1B70-A', '1B71-C', '1B72-C', '1B73-B', '1B74-A', '1B75-A', '1B76-B', '1B77-A', '1B78-B', '1B79-B', '1B80-A', '1B81-A', '1B82-A', '1B83-A', '1B84-B', '1B85-C', '1B86-A', '1B87-A', '1B88-A', '1B89-B', '1B90-A', '1B91-A', '1B92-A', '1B93-A', '1B94-A', '1B95-A', '1B96-B', '1B97-D', '1B99-A', '1C10-B', '1C11-A', '1C12-A', '1C13-A', '1C14-B', '1C15-B', '1C16-D', '1C17-B', '1C18-B', '1C19-A', '1C20-B', '1C21-A', '1C22-A', '1C23-C', '1C24-A', '1C25-A', '1C26-A', '1C27-C', '1C28-C', '1C29-B', '1C30-A', '1C31-B', '1C32-C', '1C33-A', '1C34-A', '1C35-B', '1C36-A', '1C37-A', '1C38-B', '1C39-D', '1C40-B', '1C41-A', '1C42-B', '1C43-C', '1C44-A', '1C45-A', '1C46-C', '1C47-A', '1C48-A', '1C49-A', '1C50-C', '1C51-A', '1C52-A', '1C53-A', '1C54-B', '1C55-A', '1C56-B', '1C57-A', '1C58-B', '1C59-A', '1C60-A', '1C61-B', '1C62-A', '1C63-A', '1C64-B', '1C65-B', '1C66-A', '1C67-A', '1C68-A', '1C69-C', '1C70-A', '1C71-A', '1C72-A', '1C73-A', '1C74-A', '1C75-A', '1C76-A', '1C77-B', '1C78-A', '1C79-A', '1C80-B', '1C81-B', '1C82-A', '1C83-B', '1C84-C', '1C85-C', '1C86-A', '1C87-C', '1C88-A', '1C89-A', '1C90-A', '1C91-A', '1C92-B', '1C93-A', '1C94-A', '1C95-B', '1C96-B', '1C97-C', '1C98-D', '1C99-B', '1D10-A', '1D11-B', '1D12-A', '1D13-B', '1D14-B', '1D15-A', '1D16-B', '1D17-C', '1D18-B', '1D19-A', '1D20-D', '1D21-C', '1D22-A', '1D23-A', '1D24-B', '1D25-A', '1D26-A', '1D27-B', '1D28-C', '1D29-A', '1D30-D', '1D31-A', '1D32-A', '1D33-A', '1D35-A', '1D36-A', '1D37-B', '1D38-A', '1D39-A', '1D40-A', '1D41-A', '1D42-B', '1D43-B', '1D44-A', '1D45-B', '1D46-A', '1D48-B', '1D49-A', '1D50-D', '1D51-B', '1D52-B', '1D53-B', '1D54-B', '1D55-B', '1D56-A', '1D57-A', '1D58-A', '1D59-B', '1D60-A', '1D61-A', '1D62-A', '1D63-A', '1D64-C', '1D65-A', '1D66-A', '1D67-A', '1D68-C', '1D69-B', '1D70C', '1D71-B', '1D72-A', '1D73-D', '1D74-B', '1D75-C', '1D76-A', '1D77-C', '1D78-B', '1D79-A', '1D80-A', '1D81-A', '1D82-A', '1D83-A', '1D84-A', '1D85-A', '1D86-B', '1D87-A', '1D88-A', '1D89-C', '1D90-A', '1D91-A', '1D92-A', '1D93-B', '1D94-A', '1D95-C', '1D96-A', '1D97-B', '1D98-C', '1D99-A', '1DANIEL', '1E10-A', '1E11-A', '1E12-B', '1E13-C', '1E14-A', '1E15-A', '1E16-B', '1E17-A', '1E18-B', '1E19-A', '1E20-B', '1E21-B', '1E22-A', '1E23-B', '1E24-A', '1E25-B', '1E26-B', '1E27-A', '1E28-B', '1E29-A', '1E30-B', '1E31-A', '1E32-A', '1E33-A', '1E34-C', '1E35-C', '1E36-C', '1E37-B', '1E38-A', '1E39-A', '1E40-A', '1E41-A', '1E42-A', '1E43-B', '1E44-B', '1E45-B', '1E46-A', '1E47-B', '1E48-B', '1E49-A', '1E50-A', '1E51-A', '1E52-C', '1E53-A', '1E54-A', '1E55-B', '1E56-B', '1E57-B', '1E58-A', '1E59-A', '1E60-B', '1E61-A', '1E62-B', '1E63A', '1E64-A', '1E65-C', '1E66-A', '1E67-A', '1E68-A', '1E69-B', '1E70-B', '1E71-A', '1E72-C', '1E73-A', '1E74-A', '1E75-A', '1E76-B', '1E77-A', '1E78-A', '1E79-A', '1E80-A', '1E81-C', '1E82-A', '1E83-A', '1E84-D', '1E85-C', '1E86-A', '1E87-B', '1E88-A', '1E89-C', '1E90-B', '1E91-A', '1E92-A', '1E93-A', '1E94-B', '1E95-C', '1E96-A', '1E97-C', '1E98-B', '1E99-C', '1F10-A', '1F11-A', '1F12A', '1F13-A', '1F14-A', '1F15-A', '1F16-A', '1F17-A', '1F18-A', '1F19-D', '1F20-C', '1F21-B', '1F22-A', '1F23-A', '1F24-A', '1F25-A', '1F26-A', '1F27-B', '1F28-B', '1F29-B', '1F30-A', '1F31-E', '1F32-B', '1F33-A', '1F34-B', '1F35-A', '1F36-B', '1F37-B', '1F38-A', '1F39-A', '1F40-A', '1F41-B', '1F42-B', '1F43-B', '1F44-A', '1F45-A', '1F46-A', '1F47-A', '1F48-B', '1F49-B', '1F50-B', '1F51-A', '1F52-A', '1F53-A', '1F54-A', '1F55-A', '1F56-A', '1F57-A', '1F58-B', '1F59-A', '1F60-A', '1F61-B', '1F62-A', '1F63-C', '1F64-A', '1F65-A', '1F66-C', '1F67-A', '1F68-A', '1F69-A', '1F70-A', '1F71-A', '1F72-A', '1F73-A', '1F74-B', '1F75-A', '1F76-A', '1F77-A', '1F78-B', '1F79-A', '1F80-A', '1F81-A', '1F82-B', '1F83-A', '1F84-C', '1F85-A', '1F86-B', '1F87-B', '1F88-A', '1F89-A', '1F90-B', '1F91-B', '1F92-C', '1F93-A', '1F94-A', '1F95-D', '1F96-B', '1F97-C', '1F98-A', '1F99-B', '1G10-A', '1G11-B', '1G12-D', '1G13-B', '1G14-A', '1G15-A', '1G16-A', '1G17-A', '1G18-A', '1G19-B', '1G20-A', '1G21-C', '1G22-B', '1G23-A', '1G24-A', '1G25-C', '1G26-=A', '1G27-C', '1G28-A', '1G29-B', '1G30-C', '1G31-A', '1G32-A', '1G33-A', '1G34-A', '1G35-B', '1G36-B', '1G37-A', '1G38-B', '1G39-A', '1G40-B', '1G41-B', '1G42-A', '1G43-B', '1G44-A', '1G45-A', '1G46-A', '1G47-B', '1G48-A', '1G49-B', '1G50-B', '1G51-A', '1G52-A', '1G53-B', '1G54-B', '1G55-A', '1G56-B', '1G57-A', '1G58-A', '1G59-A', '1G60-C', '1G61-A', '1G62-B', '1G63-C', '1G64-A', '1G65-B', '1G66-A', '1G67-B', '1G68-A', '1G69-A', '1G70-A', '1G71-B', '1G72-B', '1G73-A', '1G74-A', '1G75-C', '1G76-C', '1G77-A', '1G78-A', '1G79-A', '1G80-B', '1G81-A', '1G82-A', '1G83-A', '1G84-B', '1G85-A', '1G86-A', '1G87-A', '1G88-B', '1G89-C', '1G90-A', '1G91-A', '1G92-A', '1G93-B', '1G94-A', '1G95-A', '1G96-A', '1G97-A', '1G98-A', '1G99-A', '1GOGREEN', '1H10-B', '1H11-B', '1H12-C', '1H13-A', '1H14-C', '1H15-A', '1H16-A', '1H17-A', '1H18-B', '1H19-A', '1H20-A', '1H21-B', '1H22-A', '1H23-B', '1H24-C', '1H25-B', '1H26-C', '1H27-A', '1H28-B', '1H29-B', '1H30-B', '1H31-B', '1H32-B', '1H33-C', '1H34-B', '1H35-A', '1H36-A', '1H37-B', '1H38-A', '1H39-B', '1H40-A', '1H41-A', '1H42-B', '1H43-A', '1H44-A', '1H45-B', '1H46-A', '1H47-A', '1H48-E', '1H49-A', '1H50-B', '1H51-B', '1H52-B', '1H53A', '1H54-A', '1H55-B', '1H56-D', '1H57-B', '1H58-B', '1H59-B', '1H60-B', '1H61-A', '1H62-B', '1H63-C', '1H64-B', '1H65-B', '1H66-A', '1H67-B', '1H68-A', '1H69-B', '1H70-A', '1H71-B', '1H72-A', '1H73-A', '1H74-C', '1H75-B', '1H76-B', '1H77-C', '1H78-B', '1H79-B', '1H80-B', '1H81-A', '1H82-C', '1H83-C', '1H84-A', '1H85-B', '1H86-B', '1H87-B', '1H88-A', '1H89-B', '1H90-A', '1H91-A', '1H92-A', '1H93-A', '1H94-A', '1H95-A', '1H96-B', '1H97-A', '1H98-A', '1H99-B', '1HUNDRED', '1II11I1I', '1J10-A', '1J11-A', '1J12-A', '1J13-A', '1J14-A', '1J15-A', '1J16-B', '1J17-B', '1J18-B', '1J19-A', '1J20-A', '1J21-A', '1J22-A', '1J23-A', '1J24-B', '1J25-A', '1J26-B', '1J27-A', '1J28-A', '1J29-A', '1J30-A', '1J31-A', '1J32-C', '1J33-C', '1J34-B', '1J35-B', '1J36-C', '1J37-B', '1J38-D', '1J39-A', '1J40-A', '1J41-B', '1J42-B', '1J43-A', '1J44-A', '1J45-D', '1J46-D', '1J47-A', '1J48-E', '1J49-C', '1J50-D', '1J51-A', '1J52-A', '1J53-C', '1J54-C', '1J55-A', '1J56-A', '1J57-A', '1J58-A', '1J59-A', '1J60-A', '1J61-A', '1J62-A', '1J63-A', '1J64-A', '1J65-A', '1J66-A', '1J67-B', '1J68-A', '1J69-D', '1J70-A', '1J71-C', '1J72-A', '1J73-C', '1J74-B', '1J75-A', '1J76-A', '1J77-A', '1J78-D', '1J79-D', '1J80-A', '1J81-B', '1J82-C', '1J83-C', '1J84-A', '1J85-C', '1J86-B', '1J87-B', '1J88-B', '1J89-A', '1J90-A', '1J91-A', '1J92-A', '1J93-B', '1J94-B', '1J95-B', '1J96-A', '1J97-A', '1J98-B', '1J99-B', '1K10-A', '1K11-C', '1K12-A', '1K13-A', '1K14-A', '1K15-A', '1K16-B', '1K17-A', '1K18-A', '1K19-A', '1K20-B', '1K21-C', '1K22-C', '1K23-A', '1K24-A', '1K25-A', '1K26-D', '1K27-D', '1K28-B', '1K29-B', '1K30-B', '1K31-B', '1K32-B', '1K33-B', '1K34-B', '1K35-C', '1K36-B', '1K37-A', '1K38-A', '1K39-C', '1K40-A', '1K41-A', '1K42-B', '1K43-C', '1K44-B', '1K45-A', '1K46-A', '1K47-B', '1K48-A', '1K49-A', '1K50-B', '1K51-B', '1K52-A', '1K53-A', '1K54-A', '1K55-A', '1K56-C', '1K57-A', '1K58-B', '1K59-B', '1K60-A', '1K61-A', '1K62-B', '1K63-A', '1K64-B', '1K65-B', '1K66-B', '1K67-A', '1K68-C', '1K69-B', '1K70-C', '1K71-B', '1K72-B', '1K73-B', '1K74-B', '1K75-A', '1K76-A', '1K77-A', '1K78-B', '1K79-A', '1K80-B', '1K81-A', '1K82-A', '1K83-A', '1K84-A', '1K85-A', '1K86-C', '1K87-A', '1K89-A', '1K90-C', '1K91-C', '1K92-A', '1K93-B', '1K94-A', '1K95-B', '1K96-C', '1K97-A', '1K98-A', '1K99-B', '1KAPETA', '1KMCSBC2', '1L10-A', '1L11-A', '1L12-C', '1L13-A', '1L14-A', '1L15-B', '1L16-A', '1L17-D', '1L18-B', '1L19-B', '1L20-B', '1L21-A', '1L22-A', '1L23-A', '1L24-C', '1L25-B', '1L26-C', '1L27-C', '1L28-E', '1L29-B', '1L30-B', '1L31-A', '1L32-B', '1L33-A', '1L34-C', '1L35-C', '1L36-B', '1L37-A', '1L38-B', '1L39-B', '1L40-B', '1L41-A', '1L42-A', '1L43-A', '1L44-A', '1L45-A', '1L46-A', '1L47-B', '1L48-A', '1L49-B', '1L50-B', '1L51-A', '1L52-A', '1L53-A', '1L54-A', '1L55-B', '1L56-A', '1L57-A', '1L58-A', '1L59-B', '1L60-C', '1L61-A', '1L62-E', '1L63-B', '1L64-A', '1L65-A', '1L66-A', '1L67-A', '1L68-A', '1L69-B', '1L70-A', '1L71-A', '1L72-A', '1L73-A', '1L74-A', '1L75-B', '1L76-A', '1L77-A', '1L78-B', '1L79-B', '1L80-B', '1L81-B', '1L82-B', '1L83-B', '1L84-A', '1L85-B', '1L86-B', '1L87-A', '1L88-A', '1L89-B', '1L90-C', '1L91-A', '1L92-A', '1L93-C', '1L94-C', '1L95-A', '1L96-A', '1L97-B', '1L98-A', '1L99-C', '1LNHM84W', '1M10-B', '1M11-B', '1M12-A', '1M13-A', '1M14-A', '1M15-A', '1M16-A', '1M17-C', '1M18-A', '1M19-B', '1M20-B', '1M21-B', '1M22-C', '1M23-D', '1M24-B', '1M25-A', '1M26-A', '1M27-B', '1M28-B', '1M29-B', '1M30-A', '1M31-B', '1M32-A', '1M33-A', '1M34-A', '1M35-A', '1M36-A', '1M37-B', '1M38-B', '1M39-A', '1M40-A', '1M41-A', '1M42-A', '1M43-B', '1M44-A', '1M45-A', '1M46-A', '1M47-B', '1M48-D', '1M49-B', '1M50-A', '1M51-A', '1M52-B', '1M53-C', '1M54-B', '1M55-B', '1M56-C', '1M57-B', '1M58-D', '1M59-B', '1M60-A', '1M61-A', '1M62-B', '1M63-A', '1M64-A', '1M65-C', '1M66-B', '1M67-D', '1M68-A', '1M69-A', '1M70-A', '1M71-A', '1M72-C', '1M73-A', '1M74-B', '1M75-B', '1M76-B', '1M77-B', '1M78-A', '1M79-A', '1M80-A', '1M81-B', '1M82-C', '1M83-B', '1M84-E', '1M85-B', '1M86-B', '1M87-B', '1M88-B', '1M89-A', '1M90-B', '1M91-A', '1M92-B', '1M93-A', '1M94-A', '1M95-A', '1M96-A', '1M97-A', '1M98-A', '1M99-B', '1MDNYC', '1MMANUEL', '1N10-A', '1N11-A', '1N12-A', '1N13-A', '1N14-D', '1N15-A', '1N16-D', '1N17-E', '1N18-A', '1N19-B', '1N20-B', '1N21-A', '1N22-A', '1N23-A', '1N24-C', '1N25-B', '1N26-A', '1N27-C', '1N28-A', '1N29-C', '1N30-A', '1N31-A', '1N32-A', '1N33-B', '1N34-A', '1N35-A', '1N36-A', '1N37-A', '1N38-A', '1N39-A', '1N40-A', '1N41-A', '1N42-A', '1N43-A', '1N44-A', '1N45-A', '1N46-A', '1N47-A', '1N48-A', '1N49-A', '1N50-B', '1N51-A', '1N52-A', '1N53-B', '1N54-B', '1N55-A', '1N56-A', '1N57-B', '1N58-B', '1N59-A', '1N60-A', '1N61-A', '1N62-A', '1N63-B', '1N64-A', '1N65-A', '1N66-A', '1N67-A', '1N68-A', '1N69-A', '1N70-A', '1N71-A', '1N72-A', '1N73-A', '1N74-A', '1N75-A', '1N76-A', '1N77-B', '1N78-A', '1N79-A', '1N80-B', '1N81-B', '1N82-A', '1N83-A', '1N84-B', '1N85-A', '1N86-A', '1N87-A', '1N88-A', '1N89-A', '1N90-A', '1N91-A', '1N92-A', '1N93-B', '1N94-A', '1N95-C', '1N96-B', '1N97-B', '1N98-A', '1N99-A', '1NTA276', '1NTA305', '1NTA74', '1P10-B', '1P11-A', '1P12-A', '1P13-B', '1P14-A', '1P15-B', '1P16-C', '1P17-A', '1P18-A', '1P19-B', '1P20-A', '1P21-C', '1P22-A', '1P23-A', '1P24-B', '1P25-A', '1P26-A', '1P27-A', '1P28-A', '1P29-A', '1P30-A', '1P31-A', '1P32-A', '1P33-B', '1P34-A', '1P35-A', '1P36-A', '1P37-B', '1P38-B', '1P39-A', '1P40-B', '1P41-B', '1P42-B', '1P43-C', '1P44-A', '1P45-B', '1P46-A', '1P47-D', '1P48-B', '1P49-B', '1P50-C', '1P51-B', '1P52-A', '1P53-A', '1P54-A', '1P55-A', '1P56-A', '1P57-B', '1P58-B', '1P59-A', '1P60-A', '1P61-A', '1P62-A', '1P63-B', '1P64-B', '1P65-A', '1P66-A', '1P67-B', '1P68-B', '1P69-B', '1P70-A', '1P71-A', '1P72-A', '1P73-B', '1P74-B', '1P75-B', '1P76-A', '1P77-A', '1P78-A', '1P79-C', '1P80-B', '1P81-A', '1P82-A', '1P83-A', '1P84-A', '1P85-C', '1P86-B', '1P87-A', '1P88-B', '1P89-C', '1P90-A', '1P91-D', '1P92-B', '1P93-A', '1P94-C', '1P95-B', '1P96-B', '1P97-B', '1P98-A', '1P99-A', '1T10-A', '1T11-A', '1T12-C', '1T13-A', '1T14-A', '1T15-B', '1T16-A', '1T17-A', '1T18-B', '1T19-A', '1T20-C', '1T21-A', '1T22-A', '1T23-A', '1T24-A', '1T25-A', '1T26-B', '1T27-A', '1T28-A', '1T29-A', '1T30-B', '1T31-B', '1T32-A', '1T33-B', '1T34-A', '1T35-A', '1T36-A', '1T37-A', '1T38-C', '1T39-A', '1T40-B', '1T41-A', '1T42-A', '1T43-A', '1T44-A', '1T45-B', '1T46-A', '1T47-B', '1T48-A', '1T49-A', '1T50-A', '1T51-A', '1T52-A', '1T53-B', '1T54-B', '1T55-A', '1T56-A', '1T57-A', '1T58-A', '1T59-A', '1T60-A', '1T61-B', '1T62-A', '1T63-A', '1T64-B', '1T65-A', '1T66-A', '1T67-A', '1T68-A', '1T69-A', '1T70-A', '1T71-A', '1T72-A', '1T73-A', '1T74-A', '1T75-B', '1T76-A', '1T77-A', '1T78-A', '1T79-B', '1T80-A', '1T81-A', '1T82-A', '1T83-B', '1T84-A', '1T85-C', '1T86-B', '1T87-A', '1T88-A', '1T89-A', '1T90-B', '1T91-A', '1T92-A', '1T93=B', '1T94-A', '1T95-B', '1T96-A', '1T97-A', '1T98-A', '1T99-A', '1V10-A', '1V11-A', '1V12-A', '1V13-A', '1V14-A', '1V15-A', '1V16-A', '1V17-A', '1V18-A', '1V19-A', '1V20-A', '1V21-A', '1V22-A', '1V23-B', '1V24-A', '1V25-A', '1V26-A', '1V27-A', '1V28-A', '1V29-A', '1V30-A', '1V31-A', '1V32-A', '1V33-A', '1V34-A', '1V35-A', '1V36-A', '1V37-A', '1V38-A', '1V39-A', '1V40-B', '1V41-A', '1V42-A', '1V43-A', '1V44-B', '1V45-A', '1V46-A', '1V47-A', '1V48-A', '1V49-A', '1V50-A', '1V51-A', '1V52-A', '1V53-A', '1V54-A', '1V55-A', '1V56-B', '1V57-A', '1V58-A', '1V59-B', '1V60-A', '1V61-A', '1V62-A', '1V63-A', '1V64-A', '1V65-A', '1V66-A', '1V67-A', '1V68-B', '1V69-A', '1V70-A', '1V71-A', '1V72-A', '1V73-A', '1V74-A', '1V75-A', '1V76-B', '1V77-B', '1V78-B', '1V79-A', '1V80-B', '1V81-A', '1V82-A', '1V83-A', '1V84-B', '1V85-A', '1V86-A', '1V87-A', '1V88-A', '1V89-A', '1V90-A', '1V91-B', '1V92-B', '1V93-A', '1V94-A', '1V95-A', '1V96-A', '1V97-B', '1V98-A', '1V99-A', '1W10-A', '1W11-B', '1W12-A', '1W13-A', '1W14-A', '1W15-A', '1W16-A', '1W17-B', '1W18-B', '1W19-B', '1W20-B', '1W21-B', '1W22-A', '1W23-A', '1W24-A', '1W25-A', '1W26-A', '1W27-D', '1W28-A', '1W29-B', '1W30-C', '1W31-C', '1W32-C', '1W33-A', '1W34-A', '1W35-A', '1W36-A', '1W37-A', '1W38-A', '1W39-A', '1W40-A', '1W41-B', '1W42-A', '1W43-A', '1W44-A', '1W45-A', '1W46-B', '1W47-A', '1W48-A', '1W49-C', '1W50-B', '1W51-B', '1W52-B', '1W53-A', '1W54-A', '1W55-A', '1W56-A', '1W57-A', '1W58-B', '1W59-A', '1W60-A', '1W61-A', '1W62-B', '1W63-A', '1W64-B', '1W65-A', '1W66-B', '1W67-B', '1W68-C', '1W69-B', '1W70-A', '1W71-A', '1W72-B', '1W73-A', '1W74-C', '1W75-D', '1W76-A', '1W77-A', '1W78-A', '1W79-A', '1W80-B', '1W81-C', '1W82-A', '1W83-A', '1W84-A', '1W85-A', '1W86-B', '1W87-A', '1W88-B', '1W89-A', '1W90-A', '1W91-C', '1W92-B', '1W93-A', '1W94-A', '1W95-A', '1W96-B', '1W97-A', '1W98-A', '1W99-A', '1Y10-B', '1Y11-A', '1Y12-A', '1Y13-B', '1Y14-B', '1Y15-A', '1Y16-A', '1Y17-C', '1Y18-B', '1Y19-D', '1Y20-B', '1Y21-C', '1Y22-B', '1Y23-B', '1Y24-C', '1Y25-A', '1Y26-A', '1Y27-A', '1Y28-B', '1Y29-A', '1Y30-C', '1Y31-B', '1Y32-A', '1Y33-A', '1Y34-B', '1Y35-A', '1Y36-A', '1Y37-B', '1Y38-A', '1Y39-A', '1Y40-A', '1Y41-C', '1Y42-C', '1Y43-C', '1Y44-A', '1Y45-A', '1Y46-E', '1Y47-A', '1Y48-A', '1Y49-B', '1Y50-B', '1Y51-B', '1Y52-A', '1Y53-B', '1Y54-A', '1Y55-B', '1Y56-B', '1Y57-B', '1Y58-A', '1Y59-A', '1Y60-A', '1Y61-B', '1Y62-B', '1Y63-D', '1Y64-B', '1Y65-A', '1Y66-A', '1Y67-B', '1Y68-B', '1Y69-B', '1Y70-C', '1Y71-B', '1Y72-C', '1Y73-A', '1Y74-A', '1Y75-B', '1Y76-B', '1Y77-A', '1Y78-A', '1Y79-A', '1Y80-B', '1Y81-C', '1Y82-A', '1Y83-B', '1Y84-B', '1Y85-B', '1Y86-B', '1Y87-B', '1Y88-A', '1Y89-B', '1Y90-B', '1Y91-B', '1Y92-A', '1Y93-A', '1Y94-A', '1Y95-A', '1Y96-A', '1Y97-A', '1Y98-A', '1Y99-B', '208SBV-B', '21092LA', '210INTA', '212BLS', '214BLS', '214INTA', '21832LA', '21932LA', '21BLS', '22179LA', '222INTA', '227BLS', '22817LA', '22833LA', '229BLS', '234ELITE', '23529LA', '23642LA', '236INTA', '23757LA', '23827LA', '23FT', '24071LA', '240J', '24303LA', '24313LA', '24383LA', '244SBV-C', '24507LA', '245UTOG', '252DIAL', '25687LA', '256SBV-C', '25817LA', '25830LA', '25877LA', '25880LA', '25881LA', '25882LA', '25883LA', '25FC', '26009LA', '26011LA', '26017LA', '26018LA', '26053LA', '260SBV-B', '26257LA', '26416LA', '266SBV-B', '26859LA', '26876LA', '26877LA', '269ELITE', '269SBV-D', '270SBV-D', '27264LA', '27271LA', '280SBV-A', '281SBV-A', '28298LA', '282SBV-B', '28302LA', '28377LA', '28445LA', '28550LA', '28900X', '28996LA', '28BLS', '28QLS', '29138LA', '29149LA', '293SBV-B', '294SBVD', '296SBV-A', '29ALLSTR', '29BLS', '2A10-A', '2A11-B', '2A12-A', '2A13-B', '2A14-A', '2A15-C', '2A16-A', '2A17-A', '2A18-A', '2A19-C', '2A20-B', '2A21-C', '2A22-A', '2A23-B', '2A24-B', '2A25-A', '2A26-A', '2A27-B', '2A28-A', '2A29-C', '2A30-C', '2A31-C', '2A32-B', '2A33-A', '2A34-A', '2A35-B', '2A36-B', '2A37-A', '2A38-A', '2A39-B', '2A40-A', '2A41-A', '2A42-A', '2A43-C', '2A44-B', '2A45-A', '2A46-A', '2A47-A', '2A48-D', '2A49-C', '2A50-B', '2A51-A', '2A52-B', '2A53-A', '2A54-C', '2A55-B', '2A56-A', '2A57-B', '2A58-B', '2A59-C', '2A60-A', '2A61-A', '2A62-B', '2A63-A', '2A64-A', '2A65-C', '2A66-B', '2A67-A', '2A68-B', '2A69-B', '2A70-B', '2A71-D', '2A72-A', '2A73-A', '2A74-B', '2A75-B', '2A76-B', '2A77-B', '2A78-B', '2A79-B', '2A80-A', '2A81-A', '2A82-A', '2A83-A', '2A84-A', '2A85-C', '2A86-A', '2A87-A', '2A88-A', '2A89-A', '2A90-B', '2A91-A', '2A92-B', '2A93-A', '2A94-B', '2A95-A', '2A96-B', '2A97-B', '2A98-D', '2A99-B', '2B10-A', '2B11-A', '2B12-A', '2B13-D', '2B14-A', '2B15-C', '2B16-B', '2B17-A', '2B18-C', '2B19-C', '2B20-A', '2B21-C', '2B22=B', '2B23-D', '2B24-A', '2B25-B', '2B26-A', '2B27-B', '2B28-A', '2B29-A', '2B30-A', '2B31-A', '2B32-A', '2B33-A', '2B34-B', '2B35-B', '2B36-A', '2B37-A', '2B38-B', '2B39-A', '2B40-B', '2B41-B', '2B42-B', '2B43-A', '2B44-A', '2B45-A', '2B46-D', '2B47-A', '2B48--A', '2B49-B', '2B50-B', '2B51-A', '2B52-B', '2B53-A', '2B54-A', '2B55-B', '2B56-A', '2B57-A', '2B58-A', '2B59-B', '2B60-A', '2B61-A', '2B62-A', '2B63-C', '2B64-B', '2B65-A', '2B66-B', '2B67-B', '2B68-A', '2B69-A', '2B70-A', '2B71-B', '2B72-B', '2B73-A', '2B74-B', '2B75-B', '2B76-C', '2B77-A', '2B78-A', '2B79-B', '2B80-A', '2B81-C', '2B82-A', '2B83-B', '2B84-B', '2B85-A', '2B86-A', '2B87-A', '2B88-C', '2B89-B', '2B90-A', '2B91-B', '2B92-A', '2B93-B', '2B94-A', '2B95-B', '2B96-A', '2B97-A', '2B98-D', '2B99-B', '2BLESS', '2C10-A', '2C11-A', '2C12-B', '2C13-A', '2C14-A', '2C15-B', '2C16-C', '2C17-A', '2C18-A', '2C19-B', '2C20-A', '2C21-D', '2C22-B', '2C23-B', '2C24-B', '2C25-A', '2C26-B', '2C27-A', '2C28-A', '2C29-A', '2C30-B', '2C31-B', '2C32-B', '2C33-C', '2C34-A', '2C35-A', '2C36-B', '2C37-A', '2C38-A', '2C39-B', '2C40-B', '2C41-B', '2C42-A', '2C43-A', '2C44-A', '2C45-C', '2C46-A', '2C47-E', '2C48-A', '2C49-A', '2C50-B', '2C51-A', '2C53-B', '2C54-A', '2C55-A', '2C56-C', '2C57-A', '2C58-B', '2C59-B', '2C60-C', '2C61-A', '2C62-B', '2C63-B', '2C64-A', '2C65-A', '2C66-A', '2C67-A', '2C68-A', '2C69-A', '2C70-A', '2C71-B', '2C72-A', '2C73-A', '2C74-A', '2C75-A', '2C76-A', '2C77-B', '2C78-A', '2C79-A', '2C80-B', '2C81-B', '2C82-A', '2C83-A', '2C84-A', '2C85-B', '2C86-B', '2C87-A', '2C88-B', '2C89-A', '2C90-B', '2C91-B', '2C92-C', '2C93-B', '2C94-B', '2C95-D', '2C96-C', '2C97-A', '2C98-D', '2C99-A', '2D10-B', '2D12-A', '2D13-C', '2D14-A', '2D15-A', '2D16-A', '2D17-A', '2D18-B', '2D19-B', '2D20-A', '2D21-C', '2D22-B', '2D23-A', '2D24-A', '2D25-A', '2D26-A', '2D27-B', '2D28-A', '2D29-A', '2D30-A', '2D31-A', '2D32-A', '2D33-B', '2D34-A', '2D35-A', '2D36-B', '2D37-A', '2D38-B', '2D39-B', '2D40-B', '2D41-B', '2D42-B', '2D43-A', '2D44-A', '2D45-B', '2D46-A', '2D47-C', '2D48-A', '2D49-A', '2D50-B', '2D51-C', '2D52-A', '2D53-B', '2D54-A', '2D55-A', '2D56-D', '2D57-B', '2D58-C', '2D59-B', '2D60-A', '2D61-B', '2D62-B', '2D63-A', '2D64-A', '2D65-A', '2D66-A', '2D67-B', '2D68-B', '2D69-B', '2D70-C', '2D71-A', '2D72-A', '2D73-A', '2D74-C', '2D75-A', '2D76-B', '2D77-C', '2D78-B', '2D79-C', '2D80-A', '2D81-A', '2D82-A', '2D83-A', '2D85-A', '2D86-B', '2D87-A', '2D88-B', '2D89-A', '2D90-A', '2D91-A', '2D92-A', '2D93-B', '2D94-B', '2D95-B', '2D96-B', '2D97-B', '2D98-A', '2D99-B', '2E10-A', '2E11-A', '2E12-B', '2E13-B', '2E14-A', '2E15-A', '2E16-A', '2E17-A', '2E18-B', '2E19-A', '2E20-C', '2E21-A', '2E22-B', '2E23-A', '2E24-A', '2E25-A', '2E26-A', '2E27-C', '2E28-A', '2E29-C', '2E30-C', '2E31-A', '2E32-A', '2E33-D', '2E34-B', '2E35-A', '2E36-B', '2E37-B', '2E38-A', '2E39-A', '2E40-A', '2E41-A', '2E42-A', '2E43-B', '2E44-C', '2E45-A', '2E46-A', '2E47-B', '2E48-D', '2E49-B', '2E50-A', '2E51-A', '2E52-B', '2E53-A', '2E54-A', '2E55-B', '2E56-A', '2E57-A', '2E58-A', '2E59-B', '2E60-B', '2E61-B', '2E62-A', '2E63-B', '2E64-A', '2E65-C', '2E66-A', '2E67-D', '2E68-A', '2E69-C', '2E70-A', '2E71-A', '2E72-A', '2E73-A', '2E74-A', '2E75-A', '2E76-B', '2E77-B', '2E78-A', '2E79-A', '2E80-C', '2E81-B', '2E82-B', '2E83-A', '2E84-C', '2E85-A', '2E86-A', '2E87-B', '2E88-B', '2E89-A', '2E90-B', '2E91-B', '2E92-A', '2E93-A', '2E94-B', '2E95-A', '2E96-B', '2E97-B', '2E98-B', '2E99-B', '2F10-C', '2F11-B', '2F12-B', '2F13-B', '2F14-B', '2F15-A', '2F16-B', '2F17-B', '2F18-B', '2F19-B', '2F20-A', '2F21-A', '2F22-B', '2F23-A', '2F24-B', '2F25-A', '2F26-B', '2F27-B', '2F28-A', '2F29-A', '2F30-A', '2F31-D', '2F32-A', '2F33-A', '2F34-A', '2F35-C', '2F36-C', '2F37-D', '2F38-C', '2F39-A', '2F40-C', '2F41-B', '2F42-A', '2F43-B', '2F44-A', '2F45-B', '2F46-A', '2F47-B', '2F48-A', '2F49-B', '2F50-A', '2F51-B', '2F52-A', '2F53-A', '2F54-A', '2F55-A', '2F56-B', '2F57-B', '2F58-A', '2F59-B', '2F60-A', '2F61-A', '2F62-B', '2F63-B', '2F64-B', '2F65-A', '2F66-B', '2F67-A', '2F68-A', '2F69-C', '2F70-A', '2F71-C', '2F72-B', '2F73-A', '2F74-A', '2F75-A', '2F76-D', '2F77-B', '2F78-B', '2F79-C', '2F80-A', '2F81-B', '2F82-B', '2F83-A', '2F84-C', '2F85-A', '2F86-B', '2F87-A', '2F88-A', '2F89-B', '2F90-A', '2F91-B', '2F92-C', '2F93-A', '2F94-A', '2F95-B', '2F96-C', '2F97-B', '2F98-A', '2F99-B', '2G10-B', '2G11-A', '2G12-B', '2G13-B', '2G14-A', '2G15-C', '2G16-A', '2G17-A', '2G18-A', '2G19-A', '2G20-A', '2G21-A', '2G22-B', '2G23-A', '2G24-A', '2G25-A', '2G26-A', '2G27-A', '2G28-A', '2G29-B', '2G30-A', '2G31-A', '2G32-A', '2G33-B', '2G34-A', '2G35-A', '2G36-B', '2G37-A', '2G38-A', '2G39-B', '2G40-B', '2G41-B', '2G42-C', '2G43-A', '2G44-A', '2G45-C', '2G46-A', '2G47-A', '2G48-B', '2G49-B', '2G50-A', '2G51-C', '2G52-A', '2G53-A', '2G54-A', '2G55-B', '2G56-A', '2G57-A', '2G58-B', '2G59-B', '2G60-A', '2G61-B', '2G62-A', '2G63-A', '2G64-A', '2G65-A', '2G66-B', '2G67-A', '2G68-A', '2G69-C', '2G70-C', '2G71-B', '2G72-D', '2G73-A', '2G74-A', '2G75-A', '2G76-D', '2G77-C', '2G78-C', '2G79-B', '2G80-B', '2G81-B', '2G82-B', '2G83-B', '2G84-A', '2G85-B', '2G86-A', '2G87-A', '2G88-A', '2G89-A', '2G90-A', '2G91-D', '2G92-B', '2G93-A', '2G94-B', '2G95-A', '2G96-A', '2G97-A', '2G98-A', '2G99-B', '2H10-A', '2H11-C', '2H12-A', '2H13-B', '2H14-A', '2H15-A', '2H16-A', '2H17-B', '2H18-A', '2H19-C', '2H20-A', '2H21-A', '2H22-B', '2H23-A', '2H24-A', '2H25-B', '2H26-C', '2H27-A', '2H28-C', '2H29-B', '2H30-B', '2H31-C', '2H32-B', '2H33-A', '2H34-A', '2H35-A', '2H36-B', '2H37-A', '2H38-A', '2H39-A', '2H40-B', '2H41-B', '2H42-A', '2H43-A', '2H44-A', '2H45-B', '2H46-B', '2H47-C', '2H48-B', '2H49-C', '2H50-B', '2H51-B', '2H52-B', '2H53-C', '2H54-A', '2H55-A', '2H56-D', '2H57-B', '2H58-B', '2H59-B', '2H60-B', '2H61-B', '2H62-A', '2H63-A', '2H64-B', '2H65-B', '2H66-A', '2H67-A', '2H68-A', '2H69-C', '2H70-A', '2H71-B', '2H72-A', '2H73-B', '2H74-B', '2H75-B', '2H76-B', '2H77-B', '2H78-A', '2H79-B', '2H80-C', '2H81-B', '2H82-B', '2H83-B', '2H84-B', '2H85-A', '2H86-A', '2H87-A', '2H88-B', '2H89-B', '2H90-A', '2H91-A', '2H92-A', '2H93-C', '2H94-C', '2H95-B', '2H96-A', '2H97-A', '2H98-B', '2H99-A', '2J10-A', '2J11-A', '2J12-A', '2J13-A', '2J14-C', '2J15-D', '2J16-D', '2J17-B', '2J18-A', '2J19-A', '2J20-C', '2J21-A', '2J22-A', '2J23-A', '2J24-B', '2J25-A', '2J26-A', '2J27-B', '2J28-A', '2J29-B', '2J30-A', '2J31-B', '2J32-A', '2J33-B', '2J34-B', '2J35-B', '2J36-B', '2J37-A', '2J38A', '2J39-C', '2J40-B', '2J41-B', '2J42-A', '2J43-A', '2J44-A', '2J45-B', '2J46-A', '2J47-B', '2J48-B', '2J49-B', '2J50-B', '2J51-A', '2J52-A', '2J53-A', '2J54-A', '2J55-A', '2J56-A', '2J57-B', '2J58-A', '2J59-B', '2J60-A', '2J61-A', '2J62-B', '2J63-C', '2J64-B', '2J65-B', '2J66-A', '2J67-A', '2J68-A', '2J69-A', '2J70-C', '2J71-B', '2J72-C', '2J73-A', '2J74-B', '2J75-A', '2J76-B', '2J77-D', '2J78-A', '2J79-A', '2J80-A', '2J81-A', '2J82-B', '2J83-B', '2J84-B', '2J85-A', '2J86-B', '2J87-A', '2J88-A', '2J89-B', '2J90-A', '2J91-D', '2J92-B', '2J93-A', '2J94-A', '2J95-A', '2J96-A', '2J97-A', '2J98-A', '2J99-A', '2K10-A', '2K11-B', '2K12-B', '2K13-A', '2K14-B', '2K15-D', '2K16-B', '2K17-A', '2K18-A', '2K19-A', '2K20-A', '2K21-A', '2K22-A', '2K23-A', '2K24-A', '2K25-A', '2K26-B', '2K27-B', '2K28-C', '2K29-B', '2K30-A', '2K31-B', '2K32-B', '2K33-A', '2K34-B', '2K35-A', '2K36-B', '2K37-A', '2K38-C', '2K39-C', '2K40-A', '2K41-A', '2K42-A', '2K43-A', '2K44-B', '2K45-D', '2K46-C', '2K47-D', '2K48-A', '2K49-A', '2K50-A', '2K51-C', '2K52-A', '2K53-A', '2K54-B', '2K55-A', '2K56-A', '2K57A', '2K58-B', '2K59-B', '2K60-A', '2K61-B', '2K62-B', '2K63-A', '2K64-B', '2K65-B', '2K66-A', '2K68-B', '2K69-B', '2K70-B', '2K71-A', '2K72-A', '2K73-A', '2K74-A', '2K75-C', '2K76-A', '2K76-C', '2K77-C', '2K78-A', '2K79-C', '2K80-B', '2K81-C', '2K82-B', '2K83-B', '2K84-A', '2K85-B', '2K86-A', '2K87-A', '2K88-B', '2K89-B', '2K90-A', '2K91-B', '2K92-A', '2K93-C', '2K94-A', '2K95-A', '2K96-B', '2K97-B', '2K98-D', '2K99-A', '2L10-A', '2L11-A', '2L12-A', '2L13-D', '2L14-D', '2L15-A', '2L16-A', '2L17-B', '2L18-A', '2L19-A', '2L20-B', '2L21-B', '2L22-C', '2L23-A', '2L24-B', '2L25-B', '2L26-A', '2L27-D', '2L28-D', '2L29-D', '2L30-B', '2L31-B', '2L32-A', '2L33-A', '2L34-A', '2L35-A', '2L36-B', '2L37-B', '2L38-B', '2L39-A', '2L40-A', '2L41-B', '2L42-A', '2L43-A', '2L44-B', '2L45-C', '2L46-C', '2L47-A', '2L48-A', '2L49-A', '2L50-A', '2L51-A', '2L52-B', '2L53-A', '2L54-B', '2L55-B', '2L56-A', '2L57-C', '2L58-C', '2L59-A', '2L60-A', '2L61-A', '2L62-B', '2L63-B', '2L64-B', '2L65-A', '2L66-A', '2L67-B', '2L68-B', '2L69-B', '2L70-B', '2L71-C', '2L72-B', '2L73-D', '2L74-D', '2L75-B', '2L76-A', '2L77-A', '2L78-A', '2L79-A', '2L80-A', '2L81-B', '2L82-A', '2L83-C', '2L84-A', '2L85-C', '2L86-A', '2L87-B', '2L88-C', '2L89-C', '2L90-B', '2L91-A', '2L92-A', '2L93-A', '2L94-C', '2L95-B', '2L96-B', '2L97-B', '2L98-B', '2L99-B', '2M10-B', '2M11-E', '2M12-A', '2M13-A', '2M14-A', '2M15-B', '2M16-A', '2M17-B', '2M18-A', '2M19-A', '2M20-B', '2M21-B', '2M22-E', '2M23-C', '2M24-B', '2M25-B', '2M26-A', '2M27-A', '2M28-D', '2M29-C', '2M30-A', '2M31-A', '2M32-B', '2M33-B', '2M34-C', '2M35-B', '2M36-C', '2M37-C', '2M38-A', '2M39-A', '2M40-C', '2M41-B', '2M42-B', '2M43-A', '2M44-A', '2M45-A', '2M46-C', '2M47-B', '2M48-B', '2M49-B', '2M50-B', '2M51-A', '2M52-B', '2M53-A', '2M54-A', '2M55-C', '2M56-A', '2M57-A', '2M58-A', '2M59-A', '2M60-B', '2M61-B', '2M62-C', '2M63-B', '2M64-A', '2M65-B', '2M66-A', '2M67-B', '2M68-C', '2M69-C', '2M70-C', '2M71-B', '2M72-A', '2M73-A', '2M74-B', '2M75-B', '2M76-A', '2M77-A', '2M78-A', '2M79-A', '2M80-A', '2M81-A', '2M82-A', '2M83-A', '2M84-B', '2M85-A', '2M86-B', '2M87-A', '2M88-D', '2M89-B', '2M90-C', '2M91-C', '2M92-A', '2M93-A', '2M94-E', '2M95-E', '2M96-C', '2M97-C', '2M98-A', '2M99-B', '2N10-A', '2N11-A', '2N12-A', '2N13-B', '2N14-C', '2N15-A', '2N16-A', '2N17-A', '2N18-A', '2N19-B', '2N20-1', '2N21-A', '2N22-A', '2N23-A', '2N24-A', '2N25-A', '2N26-B', '2N27-B', '2N28-B', '2N29-B', '2N30-A', '2N31-B', '2N32-A', '2N33-B', '2N34-A', '2N35-B', '2N36-B', '2N37-A', '2N38-A', '2N39-B', '2N40-A', '2N41-A', '2N42-A', '2N43-A', '2N44-A', '2N45-A', '2N46-A', '2N47-A', '2N48-B', '2N49-A', '2N50-A', '2N51-A', '2N52-A', '2N53-D', '2N54-A', '2N55-D', '2N56-B', '2N57-A', '2N58-A', '2N59-B', '2N60-B', '2N61-B', '2N62-B', '2N63-B', '2N64-A', '2N65-C', '2N66-B', '2N67-B', '2N68-A', '2N69-A', '2N70-C', '2N71-B', '2N72-B', '2N73-A', '2N74-A', '2N75-A', '2N76-B', '2N77-A', '2N78-B', '2N79-B', '2N80-B', '2N81-D', '2N83-A', '2N84-B', '2N85-B', '2N86-C', '2N87-C', '2N88-D', '2N89-A', '2N90-B', '2N91-B', '2N92-C', '2N93-A', '2N94-A', '2N95-A', '2N96-A', '2N97-A', '2N98-B', '2N99-A', '2P10-A', '2P11-A', '2P12-B', '2P13-B', '2P14-A', '2P15-F', '2P16-C', '2P17-B', '2P18-A', '2P19-A', '2P20-B', '2P21-C', '2P22-B', '2P23-A', '2P24C', '2P25-C', '2P26-D', '2P27-C', '2P28-A', '2P29-B', '2P30-A', '2P31-B', '2P32=D', '2P33-A', '2P34-A', '2P35-A', '2P36-A', '2P37-A', '2P38-A', '2P39-A', '2P40-B', '2P41-A', '2P42-A', '2P43-A', '2P44-A', '2P45-A', '2P46-A', '2P47-A', '2P48-B', '2P49-C', '2P50-E', '2P51-A', '2P52-A', '2P53-A', '2P54-A', '2P55-A', '2P56-A', '2P57-A', '2P58-A', '2P59-A', '2P60-A', '2P61-A', '2P62-A', '2P63-A', '2P64-A', '2P65-A', '2P66-B', '2P67-B', '2P68-A', '2P69-A', '2P70-B', '2P71-A', '2P72-A', '2P73-C', '2P74-A', '2P75-A', '2P76-A', '2P77-A', '2P78-A', '2P79-A', '2P80-A', '2P81-A', '2P82-B', '2P83-B', '2P84-B', '2P85-A', '2P86-D', '2P87-C', '2P88-A', '2P89-A', '2P90-B', '2P91-B', '2P92-A', '2P93-B', '2P94-A', '2P95-B', '2P96-A', '2P97-B', '2P98-A', '2P99-B', '2T10-A', '2T11-B', '2T12-A', '2T13-A', '2T14-C', '2T15-A', '2T16-B', '2T17-A', '2T18-B', '2T19-A', '2T20-A', '2T21-A', '2T22-A', '2T23-B', '2T24-C', '2T25-B', '2T26-A', '2T27-A', '2T28-A', '2T29-A', '2T30-A', '2T31-A', '2T32-A', '2T33-A', '2T34-A', '2T35-B', '2T36-B6', '2T37-B', '2T38-A', '2T39-A', '2T40-B', '2T41-C', '2T42-A', '2T43-A', '2T44-A', '2T45-A', '2T46-A', '2T47-A', '2T48-A', '2T49-A', '2T50-B', '2T51-A', '2T52-B', '2T53-A', '2T54-B', '2T55-A', '2T56-A', '2T57-A', '2T58-A', '2T59-B', '2T60-A', '2T61-B', '2T62-A', '2T63-C', '2T64-A', '2T65-B', '2T66-A', '2T67-A', '2T68-B', '2T69-B', '2T70-A', '2T71-A', '2T72-A', '2T73-B', '2T74-B', '2T75-A', '2T76-A', '2T77-B', '2T78-A', '2T79-A', '2T80-A', '2T81-A', '2T82-B', '2T83-A', '2T84-B', '2T85-B', '2T86-A', '2T87-B', '2T88-A', '2T89-B', '2T90-A', '2T91-A', '2T92-B', '2T93-B', '2T94-B', '2T95-A', '2T96-A', '2T97-A', '2T98-A', '2T99-A', '2V10-B', '2V11-A', '2V12-A', '2V13-A', '2V14B', '2V15-A', '2V16-A', '2V17-A', '2V18-C', '2V19-A', '2V20-A', '2V21-A', '2V22-A', '2V23-A', '2V24-A', '2V25-A', '2V26-A', '2V27-B', '2V28-B', '2V29-A', '2V30A', '2V31-A', '2V32-A', '2V33-A', '2V34-A', '2V35-A', '2V36-B', '2V37-A', '2V38-A', '2V39-A', '2V40-B', '2V41-A', '2V42-A', '2V43-A', '2V44-A', '2V45-A', '2V46-A', '2V47-B', '2V48-A', '2V49-A', '2V50-A', '2V51-A', '2V52-A', '2V53-A', '2V54-A', '2V55-B', '2V56-A', '2V57-A', '2V58-A', '2V59-A', '2V60-B', '2</t>
         </is>
@@ -711,18 +725,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E5" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -770,12 +784,15 @@
         <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>949434</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>54691</v>
-      </c>
-      <c r="W5" t="inlineStr">
+        <v>949437</v>
+      </c>
+      <c r="W5" t="n">
+        <v>54692</v>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>['0000000000NY68155', '19UUA56893A033913', '1A4GJ45R07B187632', '1A4GJ45R77B240696', '1A4GP45R06B746271', '1A4GP45R26B734025', '1A4GP45R36B519477', '1A4GP45RX6B595505', '1B3HB28B37D270634', '1B3HB48B97D361015', '1B4GP24321B264012', '1B4GP24371B252079', '1B4GP243X2B676048', '1B4GP25302B510474', '1B4GP25311B176034', '1B4GP25352B648141', '1B4GP44322B619175', '1B4GP44331B205322', '1B4GP44332B625521', '1B4GP44G2XB836901', '1B4GP44G3XB894029', '1B4GP44G5YB691127', '1B4GP44G6YB754820', '1B4GP44R3YB540398', '1B4GP44R4YB797005', '1B4GP44R7XB540662', '1B4GP44R8YB753640', '1B4GP44R9XB852739', '1B4GP45382B503946', '1B4GP54L0VB412939', '1B4GP54L0YB634661', '1B4GT44L7XB894821', '1B4GT44L8YB583092', '1B4HS28Z1YF297474', '1B4HS48N92F179558', '1B8GP44381B210661', '1C3LC56K37N507437', '1C4GJ25301B153462', '1C4GJ25302B613964', '1C4GJ25372B736399', '1C4GJ25B22B553578', '1C4GJ44G3YB800754', '1C4GJ44R5YB674365', '1C4GP45R05B339829', '1C4GP54G3YB660449', '1C4GP54L0YB608287', '1C4GP54L1YB552487', '1C4GP54L4YB554542', '1C4GP54L7TB508146', '1C4GP54R3VB441424', '1C4GT64L6YB542801', '1C8GJ45321B144854', '1D46P25R46B728398', '1D4GP24313B215506', '1D4GP24313B259313', '1D4GP24323B287752', '1D4GP24333B233358', '1D4GP24333B266313', '1D4GP24353B184695', '1D4GP24363B157389', '1D4GP24383B154882', '1D4GP24383B242265', '1D4GP24R03B318677', '1D4GP24R04B586338', '1D4GP24R06B558414', '1D4GP24R07B212428', '1D4GP24R07B227804', '1D4GP24R07B227818', '1D4GP24R07B227897', '1D4GP24R07B227902', '1D4GP24R07B227933', '1D4GP24R07B227964', '1D4GP24R07B227978', '1D4GP24R07B227995', '1D4GP24R07B228029', '1D4GP24R07B228032', '1D4GP24R07B228046', '1D4GP24R07B228144', '1D4GP24R07B228161', '1D4GP24R07B228208', '1D4GP24R07B228211', '1D4GP24R07B228306', '1D4GP24R07B256929', '1D4GP24R17B227763', '1D4GP24R17B227777', '1D4GP24R17B227861', '1D4GP24R17B227875', '1D4GP24R17B227987', '1D4GP24R17B228010', '1D4GP24R17B228024', '1D4GP24R17B228055', '1D4GP24R17B228072', '1D4GP24R17B228086', '1D4GP24R17B228119', '1D4GP24R17B228217', '1D4GP24R17B228301', '1D4GP24R25B182278', '1D4GP24R26B506587', '1D4GP24R27B149185', '1D4GP24R27B227772', '1D4GP24R27B227805', '1D4GP24R27B227836', '1D4GP24R27B227853', '1D4GP24R27B227867', '1D4GP24R27B227948', '1D4GP24R27B227951', '1D4GP24R27B227965', '1D4GP24R27B227982', '1D4GP24R27B227996', '1D4GP24R27B228002', '1D4GP24R27B228016', '1D4GP24R27B228033', '1D4GP24R27B228100', '1D4GP24R27B228114', '1D4GP24R27B228162', '1D4GP24R27B228193', '1D4GP24R27B228212', '1D4GP24R27B228226', '1D4GP24R27B228307', '1D4GP24R27B228310', '1D4GP24R35B102809', '1D4GP24R35B163397', '1D4GP24R35B319423', '1D4GP24R37B104255', '1D4GP24R37B227764', '1D4GP24R37B227800', '1D4GP24R37B227814', '1D4GP24R37B227862', '1D4GP24R37B227974', '1D4GP24R37B227991', '1D4GP24R37B228140', '1D4GP24R37B228218', '1D4GP24R37B228302', '1D4GP24R45B247387', '1D4GP24R47B227790', '1D4GP24R47B227823', '1D4GP24R47B227885', '1D4GP24R47B227997', '1D4GP24R47B228028', '1D4GP24R47B228034', '1D4GP24R47B228101', '1D4GP24R47B228132', '1D4GP24R47B228227', '1D4GP24R47B228292', '1D4GP24R47B228311', '1D4GP24R54B500358', '1D4GP24R56B558537', '1D4GP24R57B172220', '1D4GP24R57B227796', '1D4GP24R57B227801', '1D4GP24R57B227815', '1D4GP24R57B227846', '1D4GP24R57B227913', '1D4GP24R57B227958', '1D4GP24R57B228012', '1D4GP24R57B228057', '1D4GP24R57B228219', '1D4GP24R57B228222', '1D4GP24R65B189122', '1D4GP24R66B557476', '1D4GP24R67B227774', '1D4GP24R67B227807', '1D4GP24R67B227824', '1D4GP24R67B227855', '1D4GP24R67B227970', '1D4GP24R67B228004', '1D4GP24R67B228018', '1D4GP24R67B228021', '1D4GP24R67B228049', '1D4GP24R67B228228', '1D4GP24R67B228309', '1D4GP24R74B514715', '1D4GP24R75B278875', '1D4GP24R77B227816', '1D4GP24R77B227864', '1D4GP24R77B227878', '1D4GP24R77B227959', '1D4GP24R77B228013', '1D4GP24R77B228027', '1D4GP24R77B228061', '1D4GP24R77B228092', '1D4GP24R77B228125', '1D4GP24R77B228299', '1D4GP24R77B228304', '1D4GP24R77B255647', '1D4GP24R86B554563', '1D4GP24R86B734464', '1D4GP24R87B227758', '1D4GP24R87B227792', '1D4GP24R87B227811', '1D4GP24R87B227954', '1D4GP24R87B227985', '1D4GP24R87B227999', '1D4GP24R87B228053', '1D4GP24R87B228103', '1D4GP24R87B228215', '1D4GP24R87B228294', '1D4GP24R96B691303', '1D4GP24R97B164606', '1D4GP24R97B187383', '1D4GP24R97B194561', '1D4GP24R97B227767', '1D4GP24R97B227817', '1D4GP24R97B227848', '1D4GP24R97B227901', '1D4GP24R97B227932', '1D4GP24R97B227980', '1D4GP24R97B228014', '1D4GP24R97B228093', '1D4GP24R97B228191', '1D4GP24R97B228207', '1D4GP24R97B228210', '1D4GP24R97B228224', '1D4GP24RX5B127352', '1D4GP24RX5B191651', '1D4GP24RX5B364665', '1D4GP24RX6B678964', '1D4GP24RX7B227759', '1D4GP24RX7B227793', '1D4GP24RX7B227809', '1D4GP24RX7B227826', '1D4GP24RX7B227843', '1D4GP24RX7B227860', '1D4GP24RX7B227941', '1D4GP24RX7B227955', '1D4GP24RX7B228023', '1D4GP24RX7B228037', '1D4GP24RX7B228085', '1D4GP24RX7B228104', '1D4GP24RX7B228121', '1D4GP24RX7B228295', '1D4GP25333B150432', '1D4GP25343B116676', '1D4GP25343B175193', '1D4GP25353B269969', '1D4GP25373B124674', '1D4GP25373B147971', '1D4GP25B05B257500', '1D4GP25B87B157034', '1D4GP25BX7B182145', '1D4GP25E75B237142', '1D4GP25E95B399287', '1D4GP25R06B662920', '1D4GP25R14B565092', '1D4GP25R26B678262', '1D4GP25R44B572229', '1D4GP25R47B237623', '1D4GP25R56B604673', '1D4GP25R85B310070', '1D4GP25R85B310652', '1D4GP25R96B542047', '1D4GP25RX3B320953', '1D4GP443X3B284688', '1D4GP45R15B270765', '1D4GP45R25B141997', '1D4GP45R25B410886', '1D4GP45R55B384008', '1D4GP45R75B305633', '1D4GP45R85B400010', '1D4GP45R95B420878', '1D4GP45RX6B742088', '1D4HB48N25F567497', '1D8GP25R35B184716', '1D8GU28K17W644698', '1D8HN44H88B171267', '1D8HN54P18B148443', '1D8HN54P68B109136', '1D8HN54P78B184962', '1DBHN44HX8B187969', '1F1FK15538LA15688', '1F1FK15568LA60592', '1F1FK15588LA60593', '1F1FK155X8LA51183', '1F1FK155X8LA62166', '1F1FK155X8LA79436', '1F1FM81W0XY709665', '1F1NU40S04EC36314', '1F1NU40S14EA22125', '1F1NU40S85ED46934', '1F1NU40S94ED61019', '1FAFP24185G188212', '1FAFP24187G109611', '1FAFP25105G179891', '1FAFP25116G183093', '1FAFP25126G169672', '1FAFP27126G129265', '1FAFP36341W245168', '1FAFP52241G251992', '1FAFP5227YG247347', '1FAFP53215A169936', '1FAFP53224A192107', '1FAFP53253A155356', '1FAFP532X5A147630', '1FAFP53U02A226544', '1FAFP53U11A176736', '1FAFP53U24A181402', '1FAFP53U33G206979', '1FAFP53U34G143965', '1FAFP53U4YG134133', '1FAFP53U56A175421', '1FAFP53U64G125315', '1FAFP53U75A109824', '1FAFP53U81A106859', '1FAFP53U85A285586', '1FAFP53U86A115830', '1FAFP53U92A152962', '1FAFP53UX5A153140', '1FAFP5520YA195526', '1FAFP55241A267477', '1FAFP55242A225019', '1FAFP55253A199676', '1FAFP55263A189657', '1FAFP5526YG146344', '1FAFP55281A266316', '1FAFP55S23G264934', '1FAFP55U41G205768', '1FAFP55U63G213146', '1FAFP55U64A116551', '1FAFP55U71A272447', '1FAFP55U93A213869', '1FAFP55UXYA276678', '1FAFP56U05A181007', '1FAFP57UXWA146362', '1FAFP58231A256367', '1FAFP58242A231107', '1FAFP58255A148497', '1FAFP5827YG184919', '1FAFP58281G221627', '1FAFP58S5XA257657', '1FAFP58S61A293297', '1FAFP58S6YA134516', '1FAFP58S6YG169294', '1FAFP58S7XA266053', '1FAFP58U03A229132', '1FAFP58U0XA231646', '1FAFP58U1YA136045', '1FAFP58U2XG141704', '1FAFP58U33A221140', '1FAFP58U35A197201', '1FAFP58U42A153459', '1FAFP58U52A229366', '1FAFP58U62G255312', '1FAFP58U63G118615', '1FAFP58U71A179469', '1FAFP58U81A176323', '1FAFP58U81A254907', '1FAFP59S63A138461', '1FAFP59U14A152268', '1FAHP24157G159567', '1FAHP24167G157164', '1FAHP24177G149056', '1FAHP27176G140562', '1FAHP28106G150123', '1FAHP28116G115204', '1FAHP28147G106658', '1FAHP28176G145453', '1FAHP281X6G161128', '1FAHP53U31G149026', '1FAHP53U33A199494', '1FAHP53U35A223635', '1FAHP55U03A124054', '1FAHP55U31G251486', '1FAHP55U32A249046', '1FAHP56S22A172070', '1FAHP56S42A145484', '1FAHP56S72A161310', '1FAHP58U64A125710', '1FBHE31L68DB19990', '1FBJS31H0THA29027', '1FBJS31H1THB57034', '1FBJS31H4SHA43169', '1FBJS31H5PHA69433', '1FBJS31H5SHB41305', '1FBJS31H6THA31784', '1FBJS31HXSHB24113', '1FBJS31L0VHC01175', '1FBJS31L1VHA11806', '1FBJS31L3VHA72848', '1FBJS31S0VHB34939', '1FBJS31S2VHB59860', '1FBJS31S9VHB82889', '1FBNE31L01HA28230', '1FBNE31L03HB38942', '1FBNE31L05HB18838', '1FBNE31L06DA02354', '1FBNE31L06DA77748', '1FBNE31L06DA78205', '1FBNE31L06DA82366', '1FBNE31L06HA72672', '1FBNE31L06HB31171', '1FBNE31L07DA26588', '1FBNE31L07DA75175', '1FBNE31L07DA91070', '1FBNE31L07DB42423', '1FBNE31L08DA77297', '1FBNE31L08DA80703', '1FBNE31L08DB11299', '1FBNE31L0XHB61482', '1FBNE31L11HA93104', '1FBNE31L13HA17837', '1FBNE31L14HB10911', '1FBNE31L14HB13033', '1FBNE31L14HB25781', '1FBNE31L15HA17694', '1FBNE31L15HA35080', '1FBNE31L15HB07394', '1FBNE31L16DB19019', '1FBNE31L16DB31851', '1FBNE31L16HA16899', '1FBNE31L16HA36876', '1FBNE31L17DA93135', '1FBNE31L17DB06126', '1FBNE31L17DB15361', '1FBNE31L18DA58970', '1FBNE31L18DB14972', '1FBNE31L18DB31724', '1FBNE31L1YHB79412', '1FBNE31L22HA72697', '1FBNE31L23HA73334', '1FBNE31L24HA81211', '1FBNE31L24HA90992', '1FBNE31L24HA95559', '1FBNE31L24HB06897', '1FBNE31L24HB20556', '1FBNE31L25HB07341', '1FBNE31L25HB30828', '1FBNE31L25HB47399', '1FBNE31L26DA19642', '1FBNE31L26DA20287', '1FBNE31L26DB21295', '1FBNE31L26DB27811', '1FBNE31L26HA02803', '1FBNE31L26HA03255', '1FBNE31L26HA98562', '1FBNE31L27DA62380', '1FBNE31L27DA75114', '1FBNE31L28DA77446', '1FBNE31L34HA59170', '1FBNE31L35HA99766', '1FBNE31L35HB47394', '1FBNE31L36DB14887', '1FBNE31L36HA15348', '1FBNE31L36HA54229', '1FBNE31L37DA12250', '1FBNE31L37DA46883', '1FBNE31L37DB02417', '1FBNE31L38DA20916', '1FBNE31L38DB31644', '1FBNE31L38DB39727', '1FBNE31L44HA17350', '1FBNE31L45HA17902', '1FBNE31L45HA67098', '1FBNE31L45HA99372', '1FBNE31L45HB12489', '1FBNE31L45HB26456', '1FBNE31L46DA28018', '1FBNE31L46DA82273', '1FBNE31L46HA02849', '1FBNE31L46HA25029', '1FBNE31L46HA96702', '1FBNE31L47DA55365', '1FBNE31L47DA62767', '1FBNE31L47DA91119', '1FBNE31L47DB06217', '1FBNE31L48DA73365', '1FBNE31L48DB00404', '1FBNE31L4XHB28436', '1FBNE31L51HB07957', '1FBNE31L52HA72886', '1FBNE31L54HB06893', '1FBNE31L56DA37763', '1FBNE31L56HA71887', '1FBNE31L57DA21211', '1FBNE31L57DA87287', '1FBNE31L57DA91095', '1FBNE31L57DB13192', '1FBNE31L58DA77392', '1FBNE31L58DB00444', '1FBNE31L58DB00542', '1FBNE31L58DB04624', '1FBNE31L58DB14876', '1FBNE31L61HA83684', '1FBNE31L62HA51013', '1FBNE31L63HA17834', '1FBNE31L63HA36500', '1FBNE31L63HB64106', '1FBNE31L64HA17351', '1FBNE31L65HB07410', '1FBNE31L65HB38141', '1FBNE31L66DA43152', '1FBNE31L66HA27025', '1FBNE31L66HA72661', '1FBNE31L67DA62768', '1FBNE31L67DB15355', '1FBNE31L68DA28525', '1FBNE31L68DA53165', '1FBNE31L68DB00422', '1FBNE31L68DB08066', '1FBNE31L69DA20989', '1FBNE31L72HB62394', '1FBNE31L74HA58068', '1FBNE31L74HB25784', '1FBNE31L74HB52760', '1FBNE31L75HA04383', '1FBNE31L75HA61568', '1FBNE31L75HB02085', '1FBNE31L75HB07383', '1FBNE31L75HB41727', '1FBNE31L76DA20107', '1FBNE31L76HA16244', '1FBNE31L77DA46918', '1FBNE31L77DB15316', '1FBNE31L78DA28517', '1FBNE31L78DA80438', '1FBNE31L78DA81220', '1FBNE31L78DB20064', '1FBNE31L78DB31629', '1FBNE31L83HA90025', '1FBNE31L85HA17899', '1FBNE31L87DA55367', '1FBNE31L87DB28415', '1FBNE31L88DA73434', '1FBNE31L93HA61844', '1FBNE31L93HA76537', '1FBNE31L93HA98716', '1FBNE31L93HB57599', '1FBNE31L94HA37755', '1FBNE31L94HA85384', '1FBNE31L95HA99819', '1FBNE31L95HB06865', '1FBNE31L95HB07384', '1FBNE31L95HB07398', '1FBNE31L96DA39144', '1FBNE31L96HA02927', '1FBNE31L96HA16407', '1FBNE31L96HA25012', '1FBNE31L97DA26590', '1FBNE31L97DA34205', '1FBNE31L97DA75093', '1FBNE31L97DB15348', '1FBNE31L98DA45853', '1FBNE31L98DA50390', '1FBNE31L98DB42146', '1FBNE31LX4HB13726', '1FBNE31LX5HB42693', '1FBNE31LX5HB47246', '1FBNE31LX6DA19632', '1FBNE31LX6DA28010', '1FBNE31LX6DB26356', '1FBNE31LX6HA72646', '1FBNE31LX8DA28477', '1FBNE31LXXHC00143', '1FBNE31S45HA33427', '1FBSS31L01HA33780', '1FBSS31L01HA48263', '1FBSS31L01HA48697', '1FBSS31L01HA54256', '1FBSS31L01HA60008', '1FBSS31L01HB58343', '1FBSS31L02HA68207', '1FBSS31L02HB26784', '1FBSS31L02HB34500', '1FBSS31L02HB58182', '1FBSS31L03HA97918', '1FBSS31L03HB26916', '1FBSS31L03HB44140', '1FBSS31L04HA05501', '1FBSS31L04HA13419', '1FBSS31L04HA59414', '1FBSS31L04HB24410', '1FBSS31L06DA96683', '1FBSS31L06DA96943', '1FBSS31L06DB43002', '1FBSS31L06HA01290', '1FBSS31L06HA08904', '1FBSS31L06HA15951', '1FBSS31L06HA63305', '1FBSS31L06HA73820', '1FBSS31L06HB36186', '1FBSS31L07DA04246', '1FBSS31L07DA38493', '1FBSS31L07DA42303', '1FBSS31L07DA55312', '1FBSS31L07DA59490', '1FBSS31L07DB01575', '1FBSS31L07DB05576', '1FBSS31L08DA02739', '1FBSS31L08DA49477', '1FBSS31L0XHA10086', '1FBSS31L0XHA22867', '1FBSS31L0XHA70059', '1FBSS31L0XHB28462', '1FBSS31L0XHC20252', '1FBSS31L0YHA05214', '1FBSS31L11HA00853', '1FBSS31L11HA04465', '1FBSS31L11HA18138', '1FBSS31L11HA49079', '1FBSS31L11HB18188', '1FBSS31L11HB33869', '1FBSS31L12HA12373', '1FBSS31L12HA75375', '1FBSS31L12HB10478', '1FBSS31L12HB19259', '1FBSS31L12HB31783', '1FBSS31L12HB46428', '1FBSS31L13HB04469', '1FBSS31L14HA17575', '1FBSS31L14HA46266', '1FBSS31L14HB33486', '1FBSS31L14HB52622', '1FBSS31L15HB14437', '1FBSS31L16DA34550', '1FBSS31L16DB09036', '1FBSS31L16DB38150', '1FBSS31L16HA46707', '1FBSS31L16HA54175', '1FBSS31L16HA54256', '1FBSS31L16HA63491', '1FBSS31L16HB17940', '1FBSS31L17DA01324', '1FBSS31L17DA32735', '1FBSS31L17DA55237', '1FBSS31L17DA65962', '1FBSS31L18DA09392', '1FBSS31L18DA28914', '1FBSS31L18DA76350', '1FBSS31L18DA92595', '1FBSS31L18DB44520', '1FBSS31L1XHA03521', '1FBSS31L1XHA70006', '1FBSS31L1XHB21262', '1FBSS31L1XHC07400', '1FBSS31L1YHB02423', '1FBSS31L21HB23612', '1FBSS31L21HB37400', '1FBSS31L21HB61227', '1FBSS31L22HA38870', '1FBSS31L22HA44085', '1FBSS31L22HB22803', '1FBSS31L22HB26740', '1FBSS31L22HB31792', '1FBSS31L23HA18071', '1FBSS31L23HB04464', '1FBSS31L23HB35794', '1FBSS31L25HB14432', '1FBSS31L25HB17198', '1FBSS31L26DA07857', '1FBSS31L26DA35514', '1FBSS31L26DA38896', '1FBSS31L26DA95308', '1FBSS31L26DB33491', '1FBSS31L26HA50216', '1FBSS31L26HA70062', '1FBSS31L27DA33764', '1FBSS31L27DA38480', '1FBSS31L27DB34626', '1FBSS31L28DA09370', '1FBSS31L28DA11166', '1FBSS31L28DA25648', '1FBSS31L28DA38366', '1FBSS31L28DA38383', '1FBSS31L28DB01448', '1FBSS31L28DB36829', '1FBSS31L2WHA47705', '1FBSS31L2XHA10087', '1FBSS31L2XHA11482', '1FBSS31L2XHA22868', '1FBSS31L2XHA39010', '1FBSS31L2XHA78647', '1FBSS31L2XHB46106', '1FBSS31L2XHB54772', '1FBSS31L2XHC19765', '1FBSS31L2YHA02332', '1FBSS31L2YHA06848', '1FBSS31L2YHA35637', '1FBSS31L31HA33689', '1FBSS31L31HA49276', '1FBSS31L31HA71326', '1FBSS31L31HA84416', '1FBSS31L31HB06799', '1FBSS31L31HB06981', '1FBSS31L31HB70602', '1FBSS31L32HA98740', '1FBSS31L32HB05444', '1FBSS31L33HA89876', '1FBSS31L33HB21922', '1FBSS31L33HB23847', '1FBSS31L33HB26957', '1FBSS31L33HB35397', '1FBSS31L33HB64110', '1FBSS31L34HA20378', '1FBSS31L34HA46270', '1FBSS31L34HB02370', '1FBSS31L34HB02708', '1FBSS31L34HB24434', '1FBSS31L35HB17243', '1FBSS31L36DA81014', '1FBSS31L36DA95298', '1FBSS31L36DB40059', '1FBSS31L36DB40062', '1FBSS31L36HA04619', '1FBSS31L36HA15877', '1FBSS31L36HA50208', '1FBSS31L36HA54257', '1FBSS31L36HB40295', '1FBSS31L37DA01292', '1FBSS31L37DA02300', '1FBSS31L37DA12258', '1FBSS31L37DA25723', '1FBSS31L37DA86389', '1FBSS31L37DA97425', '1FBSS31L38DA66113', '1FBSS31L38DA76348', '1FBSS31L38DA76351', '1FBSS31L38DB00387', '1FBSS31L38DB32773', '1FBSS31L3WHA12249', '1FBSS31L3WHB61180', '1FBSS31L3XHA58746', '1FBSS31L3XHA89561', '1FBSS31L3XHC13926', '1FBSS31L3XHC19807', '1FBSS31L3YHA15557', '1FBSS31L3YHA21097', '1FBSS31L3YHA31435', '1FBSS31L3YHA49787', '1FBSS31L3YHA55900', '1FBSS31L3YHA99489', '1FBSS31L41HA27903', '1FBSS31L41HA39565', '1FBSS31L41HA68905', '1FBSS31L41HA73084', '1FBSS31L41HA87826', '1FBSS31L41HA89317', '1FBSS31L41HB14734', '1FBSS31L41HB23479', '1FBSS31L41HB37396', '1FBSS31L41HB61228', '1FBSS31L42HA21049', '1FBSS31L42HA29362', '1FBSS31L42HB26769', '1FBSS31L43HA06956', '1FBSS31L43HA18072', '1FBSS31L43HA48673', '1FBSS31L43HA48821', '1FBSS31L43HA73590', '1FBSS31L43HA99705', '1FBSS31L43HB26921', '1FBSS31L43HB26935', '1FBSS31L43HB44092', '1FBSS31L44HB08792', '1FBSS31L44HB52758', '1FBSS31L45HB25108', '1FBSS31L46DA04605', '1FBSS31L46DB26347', '1FBSS31L46HA08906', '1FBSS31L46HA11031', '1FBSS31L46HB41245', '1FBSS31L47DA61890', '1FBSS31L47DA86949', '1FBSS31L47DA97451', '1FBSS31L48DA02629', '1FBSS31L48DB04819', '1FBSS31L49DA30190', '1FBSS31L4XHA22869', '1FBSS31L4XHB37651', '1FBSS31L4XHC07469', '1FBSS31L4XHC24207', '1FBSS31L4YHA33873', '1FBSS31L4YHA70275', '1FBSS31L4YHA77047', '1FBSS31L4YHB90982', '1FBSS31L51HA18126', '1FBSS31L51HB14712', '1FBSS31L51HB51680', '1FBSS31L51HB70603', '1FBSS31L52HA03384', '1FBSS31L52HA07502', '1FBSS31L52HA17351', '1FBSS31L52HA75797', '1FBSS31L52HB05509', '1FBSS31L52HB19491', '1FBSS31L52HB24075', '1FBSS31L53HA52389', '1FBSS31L53HA64302', '1FBSS31L53HB10422', '1FBSS31L53HB26958', '1FBSS31L54HB17517', '1FBSS31L54HB33488', '1FBSS31L54HB47469', '1FBSS31L55HB17230', '1FBSS31L55HB17244', '1FBSS31L55HB30723', '1FBSS31L56DA34518', '1FBSS31L56DA39329', '1FBSS31L56DB24395', '1FBSS31L56DB35641', '1FBSS31L56DB40144', '1FBSS31L56HA04637', '1FBSS31L56HA30493', '1FBSS31L56HA50212', '1FBSS31L56HA94193', '1FBSS31L57DA06543', '1FBSS31L57DA07045', '1FBSS31L57DA08521', '1FBSS31L57DA55239', '1FBSS31L57DB40601', '1FBSS31L58DA09363', '1FBSS31L58DA38250', '1FBSS31L58DA41052', '1FBSS31L5WHA99216', '1FBSS31L5WHB72861', '1FBSS31L5WHC09911', '1FBSS31L5XHA03599', '1FBSS31L5XHA07474', '1FBSS31L5YHA31680', '1FBSS31L5YHB41855', '1FBSS31L5YHB70935', '1FBSS31L61HA00685', '1FBSS31L61HA11279', '1FBSS31L61HA44038', '1FBSS31L61HA75581', '1FBSS31L61HA83194', '1FBSS31L61HA92588', '1FBSS31L61HA92994', '1FBSS31L61HB33866', '1FBSS31L61HB46391', '1FBSS31L62HA91765', '1FBSS31L63HA18073', '1FBSS31L63HA48674', '1FBSS31L63HA49520', '1FBSS31L63HA81268', '1FBSS31L63HA92643', '1FBSS31L63HA99723', '1FBSS31L63HB04466', '1FBSS31L63HB21252', '1FBSS31L63HB26967', '1FBSS31L63HB31327', '1FBSS31L63HB97490', '1FBSS31L64HB02377', '1FBSS31L64HB02413', '1FBSS31L64HB32916', '1FBSS31L65HB17222', '1FBSS31L66DA34737', '1FBSS31L66DA42742', '1FBSS31L66DA81069', '1FBSS31L66DB06374', '1FBSS31L66DB24406', '1FBSS31L66HA54169', '1FBSS31L66HB21742', '1FBSS31L66HB34748', '1FBSS31L66HB38511', '1FBSS31L67DA14246', '1FBSS31L67DA87083', '1FBSS31L68DA41058', '1FBSS31L68DA79891', '1FBSS31L68DB06054', '1FBSS31L6XHB12170', '1FBSS31L6YHA15553', '1FBSS31L6YHA68396', '1FBSS31L71HB20477', '1FBSS31L71HB34377', '1FBSS31L71HB41331', '1FBSS31L72HA45877', '1FBSS31L72HA98787', '1FBSS31L73HA31852', '1FBSS31L73HA35089', '1FBSS31L73HA92635', '1FBSS31L73HB21308', '1FBSS31L73HB62103', '1FBSS31L73HB95733', '1FBSS31L74HA24840', '1FBSS31L74HB02369', '1FBSS31L75HA92802', '1FBSS31L75HA98132', '1FBSS31L75HB17925', '1FBSS31L76DA18594', '1FBSS31L76DA76866', '1FBSS31L76DA77600', '1FBSS31L76DB24401', '1FBSS31L76HA30429', '1FBSS31L76HA31869', '1FBSS31L76HA33282', '1FBSS31L76HA50213', '1FBSS31L76HA66377', '1FBSS31L76HB25346', '1FBSS31L76HB41224', '1FBSS31L77DA02302', '1FBSS31L78DA06867', '1FBSS31L78DA07002', '1FBSS31L78DA09249', '1FBSS31L78DA20171', '1FBSS31L7WHA02713', '1FBSS31L7WHA24081', '1FBSS31L7XHA10084', '1FBSS31L7XHA22865', '1FBSS31L7XHB08404', '1FBSS31L7XHB35182', '1FBSS31L7XHB80882', '1FBSS31L7XHC01827', '1FBSS31L7XHC13962', '1FBSS31L81HA07931', '1FBSS31L81HA11283', '1FBSS31L81HA13857', '1FBSS31L81HA49080', '1FBSS31L81HB23453', '1FBSS31L81HB35201', '1FBSS31L81HB41323', '1FBSS31L81HB54573', '1FBSS31L82HA25654', '1FBSS31L82HB19260', '1FBSS31L82HB63792', '1FBSS31L83HA60762', '1FBSS31L83HA73589', '1FBSS31L83HA73625', '1FBSS31L83HB04467', '1FBSS31L83HB26923', '1FBSS31L83HB95255', '1FBSS31L84HA00305', '1FBSS31L84HA18349', '1FBSS31L84HA68605', '1FBSS31L84HA89602', '1FBSS31L84HB24428', '1FBSS31L85HB29503', '1FBSS31L85HB40212', '1FBSS31L86DB09034', '1FBSS31L86DB42809', '1FBSS31L86HA11405', '1FBSS31L86HA13686', '1FBSS31L86HA31279', '1FBSS31L86HA52858', '1FBSS31L86HB41345', '1FBSS31L87DA38502', '1FBSS31L87DA41819', '1FBSS31L87DA61830', '1FBSS31L87DA78143', '1FBSS31L87DA81754', '1FBSS31L87DA86145', '1FBSS31L87DA97548', '1FBSS31L88DA09244', '1FBSS31L88DA22446', '1FBSS31L88DA38386', '1FBSS31L88DA76345', '1FBSS31L88DA79892', '1FBSS31L88DA99334', '1FBSS31L88DB26578', '1FBSS31L88DB32767', '1FBSS31L8WHC01107', '1FBSS31L8XHA04911', '1FBSS31L8XHA51663', '1FBSS31L8XHB41850', '1FBSS31L8XHC19916', '1FBSS31L8YHA24514', '1FBSS31L8YHA78055', '1FBSS31L8YHB40568', '1FBSS31L91HA12992', '1FBSS31L91HA18131', '1FBSS31L91HA87093', '1FBSS31L91HB61225', '1FBSS31L92HA28515', '1FBSS31L92HA38848', '1FBSS31L92HB04721', '1FBSS31L93HA10436', '1FBSS31L93HA29570', '1FBSS31L93HA32422', '1FBSS31L93HA41315', '1FBSS31L93HA59569', '1FBSS31L93HB26929', '1FBSS31L93HC06182', '1FBSS31L94HB02177', '1FBSS31L94HB20565', '1FBSS31L95HB29462', '1FBSS31L96DA03353', '1FBSS31L96DA50690', '1FBSS31L96DB02562', '1FBSS31L96DB38011', '1FBSS31L96DB38140', '1FBSS31L96HA46695', '1FBSS31L96HA62122', '1FBSS31L96HA73959', '1FBSS31L96HB41290', '1FBSS31L97DA04245', '1FBSS31L97DA61822', '1FBSS31L98DA16705', '1FBSS31L98DA38381', '1FBSS31L98DB23737', '1FBSS31L9XHA51669', '1FBSS31L9XHB35409', '1FBSS31L9XHB52159', '1FBSS31L9YHA14722', '1FBSS31L9YHA82678', '1FBSS31LOWHA29283', '1FBSS31LOXHC00311', '1FBSS31LX1HA04464', '1FBSS31LX1HA12998', '1FBSS31LX1HA47752', '1FBSS31LX1HB22496', '1FBSS31LX1HB76767', '1FBSS31LX2HA25915', '1FBSS31LX2HA28510', '1FBSS31LX2HA29592', '1FBSS31LX2HA48112', '1FBSS31LX2HA98752', '1FBSS31LX2HB54107', '1FBSS31LX2HB55564', '1FBSS31LX3HB77100', '1FBSS31LX4HA46427', '1FBSS31LX4HA47433', '1FBSS31LX4HA56438', '1FBSS31LX4HA66144', '1FBSS31LX4HA67925', '1FBSS31LX4HA77970', '1FBSS31LX4HB37343', '1FBSS31LX5HB10984', '1FBSS31LX6DA23787', '1FBSS31LX6DA35583', '1FBSS31LX6DB07771', '1FBSS31LX6DB40141', '1FBSS31LX6HB28886', '1FBSS31LX7DA01290', '1FBSS31LX7DA52241', '1FBSS31LX7DA58038', '1FBSS31LX7DA59433', '1FBSS31LX7DB12454', '1FBSS31LX8DB05795', '1FBSS31LX8DB18126', '1FBSS31LXWHB01381', '1FBSS31LXWHB75951', '1FBSS31LXXHA11505', '1FBSS31LXXHA23346', '1FBSS31LXXHC01689', '1FBSS31LXYHA26653', '1FBSS31S03HA02930', '1FBSS31S03HB99310', '1FBSS31S05HA27636', '1FBSS31S05HA64816', '1FBSS31S05HA98593', '1FBSS31S0YHB84653', '1FBSS31S13HB67353', '1FBSS31S1XHA16177', '1FBSS31S21HA23551', '1FBSS31S21HB41146', '1FBSS31S2YHB46454', '1FBSS31S2YHB89529', '1FBSS31S31HB30396', '1FBSS31S41HAO5410', '1FBSS31S41HB11193', '1FBSS31S41HB62726', '1FBSS31S43HA02848', '1FBSS31S45HA22732', '1FBSS31S45HA79075', '1FBSS31S45HA83403', '1FBSS31S51HA43986', '1FBSS31S51HB10053', '1FBSS31S53HA26866', '1FBSS31S5WHB76335', '1FBSS31S61HB18372', '1FBSS31S71HB52935', '1FBSS31S71HB58167', '1FBSS31S71HB62770', '1FBSS31S75HA34969', '1FBSS31S75HA88563', '1FBSS31S7XHB85006', '1FBSS31S8XHA73315', '1FBSS31S93HA10282', '1FBSS31SX1HB41279', '1FBSS31SX5HA20368', '1FDEE1468VHA23445', '1FDEE14H4THB17028', '1FDLE40FXVHB76391', '1FDNS24L07DB36465', '1FDNS24L11HB23692', '1FDNS24L17DB36300', '1FDNS24L31HA79596', '1FDNS24L36HA65706', '1FDNS24L48DA01202', '1FDNS24L51HA36216', '1FDNS24L53HA60146', '1FDNS24L56DB42194', '1FDNS24L5YHA85958', '1FDNS24L67DB03342', '1FDNS24L68DA32600', '1FDNS24L6YHA90800', '1FDNS24L76HB19606', '1FDNS24L77DB36463', '1FDNS24L7YHB57291', '1FDNS24L85HA27550', '1FDNS24L87DB03343', '1FDNS24L8YHB58563', '1FDNS24L91HB75006', '1FDNS24L96HB19607', '1FDNS24L97DB36464', '1FDNS24LX2HA99667', '1FDNS24LX4HA70513', '1FDNS24LX6DA49946', '1FDNS24LX7DA58986', '1FDNS24LX7DB36439', '1FDNS24LXYHB32854', '1FDPE24L63HA62035', '1FDRE11W03HB71480', '1FDRE11W93HB26019', '1FDRE11W93HB44679', '1FDRE14L42HA32274', '1FDRE14L64HA88851', '1FDRE14W1XHA44464', '1FDRE14W1XHB48890', '1FDRE14W2XHC10409', '1FDRE14W41HA31814', '1FDRE14W82HA49606', '1FDRE14W83HB17453', '1FDSE35L16DA54158', '1FDSE35L17DB32598', '1FDSE35L2YHA37896', '1FDSS31L08DB44161', '1FDSS31L15HA96237', '1FDSS31L15HA96240', '1FDSS31L16HA59965', '1FDSS31L24HA01649', '1FDSS31L25HA96232', '1FDSS31L28DB44159', '1FDSS31L28DB44162', '1FDSS31L34HA17696', '1FDSS31L48DB44163', '1FDSS31L53HB08306', '1FDSS31L54HA17697', '1FDSS31L68DB44164', '1FDSS31L74HB12343', '1FDSS31L76HA59968', '1FDSS31L77DA03621', '1FDSS31L77DA57467', '1FDSS31L98DB44160', '1FDSS31S64HA07476', '1FDSS31S65HA20746', '1FDSS31SX5HA20751', '1FDSS31SX5HB14807', '1FDSS34L16DA40612', '1FDSS34L31HA38880', '1FDSS34L36DA36075', '1FDSS34L52HB15346', '1FDSS34L74HB21636', '1FDSS34L86DA47461', '1FDSS34S9YHB88283', '1FDWE30F1XHB99200', '1FDWE30F5XHB99202', '1FDWE30F5XHB99247', '1FDWE30F8XHB99257', '1FDWE35F0YHA27122', '1FDWE35F0YHB65033', '1FDWE35F0YHB68854', '1FDWE35F11HA54691', '1FDWE35F1YHA36167', '1FDWE35F1YHB68863', '1FDWE35F2YHA36159', '1FDWE35F3YHA36171', '1FDWE35F41HA65829', '1FDWE35F4YHA36163', '1FDWE35F61HA65833', '1FDWE35F6YHB65036', '1FDWE35F91HA65826', '1FDWE35F9YHB65029', '1FDWE35FX1HA65835', '1FDWE35FXYHB68862', '1FDWE35L15HA60907', '1FDWE35L17DB36832', '1FDWE35L26DA68569', '1FDWE35L27DB36838', '1FDWE35L46DB00387', '1FDWE35L47DB36825', '1FDWE35L86DB00389', '1FDWE35L87DB36827', '1FDWE35LXYHA37436', '1FDWE35S06DB33068', '1FDWE35S46HB30280', '1FDWE35S65HA52230', '1FDWE35S96DB03955', '1FDWE35SX7DA99397', '1FDWE45F13HB05647', '1FDWE45F13HB58199', '1FDWE45F23HB94547', '1FDWE45F33HB05651', '1FDWE45F33HB58205', '1FDWE45F43HB58200', '1FDWE45F61HA31574', '1FDWE45F63HB39972', '1FDWE45F73HB58207', '1FDWE45F83HB39973', '1FDWE45FX3HB05646', '1FDWE45FXYHA97300', '1FDXE40F0XHA25046', '1FDXE40F0XHC24372', '1FDXE40F2WHA11518', '1FDXE40F3WHA61554', '1FDXE40F4WHC05905', '1FDXE40F4XHB63270', '1FDXE40S7XHC10448', '1FDXE45F03HB11024', '1FDXE45F03HB90114', '1FDXE45F13HA06511', '1FDXE45F1YHA99599', '1FDXE45F22HA01316', '1FDXE45F22HA60303', '1FDXE45F23HB90115', '1FDXE45F2YHB42685', '1FDXE45F31HA36252', '1FDXE45F3YHA20076', '1FDXE45F42HB33154', '1FDXE45F53HB85166', '1FDXE45F53HB90111', '1FDXE45F62HA44850', '1FDXE45F63HB28426', '1FDXE45F6YHA75198', '1FDXE45F81HA24923', '1FDXE45F82HA44851', '1FDXE45F83HB10719', '1FDXE45F8YHA30330', '1FDXE45FX2HA44852', '1FDXE45FX3HA46053', '1FDXE45P24HA84015', '1FDXE45P26HA51339', '1FDXE45P26HB07232', '1FDXE45P34HA84024', '1FDXE45P34HA86730', '1FDXE45P44HA84016', '1FDXE45P56HA51352', '1FDXE45P65HB08821', '1FDXE45P74HA58736', '1FDXE45P75HB13901', '1FDXE45P86HA97533', '1FDXE45P95HA19082', '1FDXE45PX5HA32696', '1FDXE45PX5HB01449', '1FDXE45PX5HB08837', '1FDXE45PX6DA72656', '1FDXE45S22HB74086', '1FDXE45S24HA08427', '1FDXE45S92HB74084', '1FMCU49309KA54059', '1FMCU49309KA54062', '1FMCU49309KA54076', '1FMCU49309KA54093', '1FMCU49309KA54109', '1FMCU49309KA54112', '1FMCU49309KA54126', '1FMCU49309KA71573', '1FMCU49309KA71587', '1FMCU49309KA71590', '1FMCU49309KA71606', '1FMCU49309KA71623', '1FMCU49309KA71637', '1FMCU49309KA71640', '1FMCU49309KA71654', '1FMCU49309KA89717', '1FMCU49309KA89720', '1FMCU49309KA89734', '1FMCU49309KA89748', '1FMCU49309KA89751', '1FMCU49309KA89765', '1FMCU49309KA89779', '1FMCU49309KA89782', '1FMCU49309KA89796', '1FMCU49309KA89801', '1FMCU49309KB30976', '1FMCU49309KB31013', '1FMCU49309KB31027', '1FMCU49309KB31030', '1FMCU49309KB31447', '1FMCU49309KB31450', '1FMCU49309KB31464', '1FMCU49309KB31478', '1FMCU49309KB31495', '1FMCU49309KB31500', '1FMCU49309KB31514', '1FMCU49309KB31528', '1FMCU49309KB31531', '1FMCU49309KB34235', '1FMCU49309KB34252', '1FMCU49309KB41038', '1FMCU49309KB41041', '1FMCU49309KB41055', '1FMCU49309KB41069', '1FMCU49309KB41072', '1FMCU49309KB41248', '1FMCU49309KB41251', '1FMCU49309KB41265', '1FMCU49309KB41279', '1FMCU49309KB41282', '1FMCU49309KB81023', '1FMCU49309KB81040', '1FMCU49309KC15686', '1FMCU49319KA54068', '1FMCU49319KA54071', '1FMCU49319KA54085', '1FMCU49319KA54099', '1FMCU49319KA54104', '1FMCU49319KA54118', '1FMCU49319KA54121', '1FMCU49319KA54135', '1FMCU49319KA71579', '1FMCU49319KA71582', '1FMCU49319KA71596', '1FMCU49319KA71601', '1FMCU49319KA71615', '1FMCU49319KA71629', '1FMCU49319KA71632', '1FMCU49319KA71646', '1FMCU49319KA89726', '1FMCU49319KA89743', '1FMCU49319KA89757', '1FMCU49319KA89760', '1FMCU49319KA89788', '1FMCU49319KA89791', '1FMCU49319KA89807', '1FMCU49319KA89810', '1FMCU49319KB30985', '1FMCU49319KB30999', '1FMCU49319KB31022', '1FMCU49319KB31036', '1FMCU49319KB31439', '1FMCU49319KB31442', '1FMCU49319KB31456', '1FMCU49319KB31473', '1FMCU49319KB31487', '1FMCU49319KB31490', '1FMCU49319KB31506', '1FMCU49319KB31523', '1FMCU49319KB34227', '1FMCU49319KB34230', '1FMCU49319KB34244', '1FMCU49319KB41047', '1FMCU49319KB41050', '1FMCU49319KB41078', '1FMCU49319KB41257', '1FMCU49319KB41260', '1FMCU49319KB41274', '1FMCU49319KB56650', '1FMCU49319KB56664', '1FMCU49319KB81029', '1FMCU49319KB81032', '1FMCU49319KB81046', '1FMCU49319KC15664', '1FMCU49319KC15678', '1FMCU49319KC15681', '1FMCU49329KA54063', '1FMCU49329KA54077', '1FMCU49329KA54080', '1FMCU49329KA54094', '1FMCU49329KA54113', '1FMCU49329KA54127', '1FMCU49329KA54130', '1FMCU49329KA71574', '1FMCU49329KA71588', '1FMCU49329KA71591', '1FMCU49329KA71607', '1FMCU49329KA71624', '1FMCU49329KA71638', '1FMCU49329KA71641', '1FMCU49329KA71655', '1FMCU49329KA89718', '1FMCU49329KA89721', '1FMCU49329KA89735', '1FMCU49329KA89749', '1FMCU49329KA89752', '1FMCU49329KA89783', '1FMCU49329KA89797', '1FMCU49329KA89802', '1FMCU49329KB30977', '1FMCU49329KB31014', '1FMCU49329KB31031', '1FMCU49329KB31448', '1FMCU49329KB31451', '1FMCU49329KB31465', '1FMCU49329KB31479', '1FMCU49329KB31482', '1FMCU49329KB31496', '1FMCU49329KB31501', '1FMCU49329KB31515', '1FMCU49329KB31529', '1FMCU49329KB31532', '1FMCU49329KB34236', '1FMCU49329KB41039', '1FMCU49329KB41042', '1FMCU49329KB41056', '1FMCU49329KB41073', '1FMCU49329KB41249', '1FMCU49329KB41252', '1FMCU49329KB41266', '1FMCU49329KB41283', '1FMCU49329KB56642', '1FMCU49329KB56656', '1FMCU49329KB81024', '1FMCU49329KB81038', '1FMCU49329KB81041', '1FMCU49329KC15673', '1FMCU49329KC15687', '1FMCU49329KC15690', '1FMCU49339KA54055', '1FMCU49339KA54069', '1FMCU49339KA54072', '1FMCU49339KA54086', '1FMCU49339KA54105', '1FMCU49339KA54119', '1FMCU49339KA54122', '1FMCU49339KA54136', '1FMCU49339KA71583', '1FMCU49339KA71597', '1FMCU49339KA71602', '1FMCU49339KA71616', '1FMCU49339KA71633', '1FMCU49339KA71647', '1FMCU49339KA71650', '1FMCU49339KA76167', '1FMCU49339KA76170', '1FMCU49339KA89713', '1FMCU49339KA89727', '1FMCU49339KA89730', '1FMCU49339KA89744', '1FMCU49339KA89758', '1FMCU49339KA89761', '1FMCU49339KA89789', '1FMCU49339KA89792', '1FMCU49339KA89808', '1FMCU49339KA89811', '1FMCU49339KB30986', '1FMCU49339KB31023', '1FMCU49339KB31443', '1FMCU49339KB31457', '1FMCU49339KB31460', '1FMCU49339KB31474', '1FMCU49339KB31488', '1FMCU49339KB31491', '1FMCU49339KB31507', '1FMCU49339KB31510', '1FMCU49339KB31524', '1FMCU49339KB34228', '1FMCU49339KB34231', '1FMCU49339KB34245', '1FMCU49339KB41034', '1FMCU49339KB41048', '1FMCU49339KB41051', '1FMCU49339KB41065', '1FMCU49339KB41082', '1FMCU49339KB41258', '1FMCU49339KB41261', '1FMCU49339KB41275', '1FMCU49339KB56648', '1FMCU49339KB56651', '1FMCU49339KB81033', '1FMCU49339KB81047', '1FMCU49339KB81050', '1FMCU49339KC15665', '1FMCU49339KC15679', '1FMCU49349KA54064', '1FMCU49349KA54078', '1FMCU49349KA54081', '1FMCU49349KA54095', '1FMCU49349KA54100', '1FMCU49349KA54114', '1FMCU49349KA54128', '1FMCU49349KA54131', '1FMCU49349KA71575', '1FMCU49349KA71589', '1FMCU49349KA71592', '1FMCU49349KA71608', '1FMCU49349KA71611', '1FMCU49349KA71625', '1FMCU49349KA71639', '1FMCU49349KA71642', '1FMCU49349KA71656', '1FMCU49349KA89719', '1FMCU49349KA89722', '1FMCU49349KA89736', '1FMCU49349KA89753', '1FMCU49349KA89767', '1FMCU49349KA89770', '1FMCU49349KA89784', '1FMCU49349KA89798', '1FMCU49349KA89803', '1FMCU49349KB30978', '1FMCU49349KB30981', '1FMCU49349KB30995', '1FMCU49349KB31001', '1FMCU49349KB31015', '1FMCU49349KB31032', '1FMCU49349KB31449', '1FMCU49349KB31452', '1FMCU49349KB31466', '1FMCU49349KB31483', '1FMCU49349KB31497', '1FMCU49349KB31502', '1FMCU49349KB31516', '1FMCU49349KB34237', '1FMCU49349KB34240', '1FMCU49349KB41043', '1FMCU49349KB41057', '1FMCU49349KB41060', '1FMCU49349KB41074', '1FMCU49349KB41088', '1FMCU49349KB41253', '1FMCU49349KB41267', '1FMCU49349KB41270', '1FMCU49349KB56657', '1FMCU49349KB81025', '1FMCU49349KB81039', '1FMCU49349KC15657', '1FMCU49349KC15660', '1FMCU49349KC15688', '1FMCU49349KC15691', '1FMCU49359KA54056', '1FMCU49359KA54073', '1FMCU49359KA54087', '1FMCU49359KA54090', '1FMCU49359KA54106', '1FMCU49359KA54123', '1FMCU49359KA54137', '1FMCU49359KA54140', '1FMCU49359KA71584', '1FMCU49359KA71598', '1FMCU49359KA71603', '1FMCU49359KA71617', '1FMCU49359KA71620', '1FMCU49359KA71634', '1FMCU49359KA71648', '1FMCU49359KA71651', '1FMCU49359KA76168', '1FMCU49359KA76171', '1FMCU49359KA89714', '1FMCU49359KA89728', '1FMCU49359KA89731', '1FMCU49359KA89745', '1FMCU49359KA89759', '1FMCU49359KA89762', '1FMCU49359KA89776', '1FMCU49359KA89793', '1FMCU49359KA89809', '1FMCU49359KA89812', '1FMCU49359KB30987', '1FMCU49359KB30990', '1FMCU49359KB31010', '1FMCU49359KB31024', '1FMCU49359KB31458', '1FMCU49359KB31461', '1FMCU49359KB31475', '1FMCU49359KB31489', '1FMCU49359KB31492', '1FMCU49359KB31508', '1FMCU49359KB31511', '1FMCU49359KB31525', '1FMCU49359KB34229', '1FMCU49359KB34232', '1FMCU49359KB34246', '1FMCU49359KB41035', '1FMCU49359KB41049', '1FMCU49359KB41052', '1FMCU49359KB41083', '1FMCU49359KB41259', '1FMCU49359KB41262', '1FMCU49359KB41276', '1FMCU49359KB56652', '1FMCU49359KB81017', '1FMCU</t>
         </is>
@@ -788,18 +805,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E6" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -826,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -851,14 +868,17 @@
         <v>20356</v>
       </c>
       <c r="U6" t="n">
-        <v>145567</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>142</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>['0', '1', '107', '108', '11', '111', '12', '120', '124', '125', '131', '135', '140', '15', '151', '158', '162', '182', '183', '190', '199', '200', '203', '22', '226', '228', '229', '23', '233', '235', '236', '237', '239', '24', '247', '25', '255', '259', '26', '261', '263', '267', '27', '272', '280', '285', '289', '3', '30', '300', '301', '302', '303', '306', '307', '309', '31', '313', '321', '322', '324', '325', '326', '328', '329', '330', '332', '335', '336', '338', '339', '34', '341', '344', '347', '350', '358', '359', '36', '360', '361', '364', '365', '366', '371', '372', '374', '377', '379', '38', '389', '39', '401', '403', '404', '41', '413', '419', '42', '444', '465', '466', '473', '475', '48', '487', '512', '53', '54', '56', '59', '60', '628', '63', '631', '636', '637', '644', '646', '647', '648', '65', '655', '660', '664', '665', '68', '684', '687', '688', '7', '701', '706', '75', '82', '84', '89', '936', '95', '972', '991', '999']</t>
+        <v>145592</v>
+      </c>
+      <c r="W6" t="n">
+        <v>143</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>['0', '1', '107', '108', '11', '111', '12', '120', '124', '125', '131', '135', '140', '15', '151', '158', '162', '182', '183', '190', '199', '200', '203', '22', '226', '228', '229', '23', '233', '235', '236', '237', '239', '24', '247', '25', '255', '259', '26', '261', '263', '267', '27', '272', '280', '285', '289', '3', '30', '300', '301', '302', '303', '306', '307', '309', '31', '313', '321', '322', '324', '325', '326', '328', '329', '330', '332', '335', '336', '338', '339', '34', '341', '344', '347', '350', '358', '359', '36', '360', '361', '364', '365', '366', '371', '372', '374', '377', '379', '38', '389', '39', '401', '403', '404', '41', '413', '419', '42', '444', '465', '466', '473', '475', '48', '487', '512', '53', '54', '56', '59', '60', '628', '63', '631', '636', '637', '644', '646', '647', '648', '65', '655', '660', '664', '665', '68', '684', '687', '688', '7', '701', '706', '75', '82', '84', '89', '936', '95', '972', '991', '999', 'Automobile_Insurance_Code']</t>
         </is>
       </c>
     </row>
@@ -869,18 +889,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E7" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -907,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -932,14 +952,17 @@
         <v>237</v>
       </c>
       <c r="U7" t="n">
-        <v>613890</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>44249</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>['(6)7351-61-73', '(8) 7351-61-73', '(8)7351-61-73', '-11689', '0', '000-7099-910-8', '0010008-0', '002UUNQB9853', '008CO00009-00', '008CP 00015', '008CP-00022', '008CP00009-0', '008CP00009-0-', '008CP00009-00', '008CP00012', '008CP00015', '008CP0001500', '01-CH-743536-1', '01-CH-743536-10', '01-CH-7829751', '01CA015847104000', '01CA0158471040000', '01CA01584710400000', '01CA0158476461000', '01CA0196560830000', '01CA158476461000', '01CAO158471040000', '01CAO15871040000', '01CH5783022', '01CH743536-1', '01CH743536-10', '01CH7435361', '01CH7829751', '01UECTK5890', '02 UNN QB9853', '02 UUN QB9853', '02CA015847029000', '02CA0158470290000', '02CA0158477810000', '02CA015847O290000', '02CAO01585470290000', '02CAO1584702900000', '02HHUQB9412', '02MCPQB9411', '02MCPQB9412', '02P1CAU116-09', '02P1CAU133-09', '02P1CAU55-08', '02P8CAU085-09', '02PICAU024-08', '02PICAU027-08', '02PICAU03308', '02PICAU043-08', '02PICAU055-08', '02PICAU057-08', '02PICAU083-09', '02PICAU084-09', '02PICAU084-098', '02PICAU086-09', '02PICAU090-09', '02PICAU092-09', '02PICAU09209', '02PICAU098-09', '02PICAU099-09', '02PICAU09909', '02PICAU127-09', '02PICAU130-10', '02PICAU82-09', '02PICU056-08', '02UENQB9412', '02UENQB9835', '02UNNQB9853', '02UUNQB5953', '02UUNQB89853', '02UUNQB9553', '02UUNQB9853', '05-ATIC0166', '05655553-0', '06-7351-61-73', '06025818-1', '06080905-0', '06504065-0', '067351-61-73', '06CA015847436000', '06CA0158474360000', '07-ATIC0206', '07-ATIC0206/CA235540', '07-ATIC0206/CA235541', '07-ATIC0206/CA235542', '07-ATIC0206/CA235569', '07-ATIC0206/CA235572', '07-ATIC0206/CA235573', '07-ATIC0206/CA235576', '07-ATIC0206/CA235591', '07-ATIC0206/CA235593', '07-ATIC0206/CA235934', '07-ATIC0206/CA235935', '07/ATIC0217/DBC3300', '07351-61-73', '07ATIC0197/CA2326852', '07ATIC0206/CA2355701', '07ATIC0206/CA2355711', '07ATIC0206/CA235607', '07ATIC0206/CA235833', '07AYIC0206/CA235835', '07AYIC0206/CA235836', '08122009BUU0006067', '087351-61-73', '08ATIC0237', '1 11 023276', '1 MA004375', '1-11-0034143', '1-M002102', '1-M003644', '1-MA000039', '1-MA000074', '1-MA000076-1', '1-MA000120', '1-MA000131/BA6J5793', '1-MA000155', '1-MA000187', '1-MA0002124', '1-MA000215', '1-MA0002254-1', '1-MA000248', '1-MA000249', '1-MA000280', '1-MA000301', '1-MA0003071', '1-MA000319', '1-MA0003208', '1-MA0003493', '1-MA000355', '1-MA0003758', '1-MA0004308', '1-MA000448', '1-MA000514', '1-MA000680', '1-MA000688', '1-MA000802', '1-MA000819', '1-MA000835', '1-MA000837', '1-MA000839', '1-MA000840', '1-MA000852', '1-MA000855', '1-MA000861', '1-MA000888', '1-MA000895', '1-MA000921', '1-MA000940', '1-MA000950', '1-MA000966', '1-MA001000', '1-MA001008', '1-MA001011', '1-MA001025', '1-MA001031', '1-MA001042', '1-MA001043', '1-MA001044', '1-MA001056', '1-MA001075', '1-MA001134', '1-MA001139', '1-MA001145', '1-MA001169', '1-MA001173', '1-MA001178', '1-MA001231', '1-MA001235', '1-MA001254', '1-MA001315', '1-MA001317', '1-MA001318', '1-MA001323', '1-MA001327', '1-MA001332', '1-MA001335', '1-MA001336', '1-MA001337', '1-MA001344', '1-MA001355', '1-MA001359', '1-MA001363', '1-MA001373', '1-MA001378', '1-MA001388', '1-MA001389', '1-MA001390', '1-MA001392', '1-MA001404', '1-MA001406', '1-MA001415', '1-MA001418', '1-MA001420', '1-MA001425', '1-MA001426', '1-MA001427', '1-MA001428', '1-MA001433', '1-MA001435', '1-MA001436', '1-MA001442', '1-MA001445', '1-MA001446', '1-MA001457', '1-MA0014607', '1-MA001486', '1-MA001487', '1-MA001489', '1-MA001494', '1-MA001495', '1-MA001496', '1-MA001501', '1-MA001507', '1-MA001516', '1-MA001523', '1-MA001527', '1-MA001528', '1-MA001529', '1-MA001534', '1-MA001536', '1-MA001539', '1-MA001547', '1-MA001552', '1-MA001553', '1-MA001555', '1-MA001557', '1-MA001574', '1-MA001591', '1-MA001606', '1-MA001742', '1-MA001768', '1-MA002002', '1-MA002011', '1-MA002127', '1-MA002187', '1-MA002188', '1-MA002204', '1-MA002214', '1-MA002215', '1-MA002220', '1-MA002234', '1-MA002239', '1-MA002240', '1-MA002252', '1-MA002277', '1-MA002282', '1-MA002316', '1-MA002321', '1-MA002328', '1-MA002333', '1-MA002336', '1-MA002358', '1-MA002362', '1-MA002390', '1-MA002394', '1-MA002415', '1-MA002444', '1-MA002460', '1-MA002472', '1-MA002474', '1-MA002503', '1-MA002505', '1-MA002510', '1-MA002516', '1-MA002602', '1-MA002605', '1-MA002721', '1-MA002724', '1-MA002738', '1-MA002742', '1-MA002751', '1-MA002774', '1-MA002790', '1-MA002813', '1-MA002881', '1-MA002885', '1-MA002925', '1-MA002953', '1-MA002954', '1-MA002966', '1-MA002969', '1-MA002976', '1-MA002977', '1-MA002986', '1-MA003031', '1-MA003055', '1-MA003068', '1-MA003084', '1-MA003088', '1-MA003107', '1-MA003114', '1-MA003214', '1-MA003248', '1-MA003253', '1-MA003267-1', '1-MA003290', '1-MA003295', '1-MA003296', '1-MA003326', '1-MA003340', '1-MA003343', '1-MA003351', '1-MA003365', '1-MA003376', '1-MA003396', '1-MA003420', '1-MA003429', '1-MA003430', '1-MA003436', '1-MA003440', '1-MA003441', '1-MA003443', '1-MA003445', '1-MA003459', '1-MA003460', '1-MA003464-1', '1-MA003470', '1-MA003472', '1-MA003485', '1-MA003487', '1-MA003488', '1-MA003490', '1-MA003492', '1-MA003494', '1-MA003496', '1-MA003499', '1-MA003501', '1-MA003505', '1-MA003507', '1-MA003517', '1-MA003518', '1-MA003519', '1-MA003522', '1-MA003534', '1-MA003536', '1-MA003537', '1-MA003539', '1-MA003543', '1-MA003544-1', '1-MA003547', '1-MA003548-1', '1-MA003549-1', '1-MA003552', '1-MA003555', '1-MA003565', '1-MA003567', '1-MA003574', '1-MA003579-1', '1-MA003582', '1-MA003596', '1-MA003597-1', '1-MA003602', '1-MA003623', '1-MA003632', '1-MA003636', '1-MA003637', '1-MA003649/CPP410149', '1-MA003656', '1-MA003657', '1-MA003661', '1-MA003663', '1-MA003672', '1-MA003674', '1-MA003676', '1-MA003677', '1-MA003684', '1-MA003687', '1-MA003693', '1-MA003694', '1-MA0036996-1', '1-MA003700', '1-MA003701', '1-MA003713', '1-MA003714', '1-MA003715', '1-MA003718', '1-MA003719', '1-MA003722', '1-MA003723-1', '1-MA003726', '1-MA0037321', '1-MA003734-1', '1-MA003735-1', '1-MA003736', '1-MA003737', '1-MA003739-1', '1-MA003746', '1-MA003747', '1-MA003761', '1-MA003769', '1-MA003770', '1-MA003781', '1-MA003784', '1-MA003786', '1-MA003791', '1-MA003797', '1-MA003800', '1-MA003804', '1-MA003807', '1-MA003816', '1-MA003819', '1-MA003836', '1-MA003841', '1-MA003842', '1-MA003846', '1-MA003859', '1-MA003860', '1-MA003861', '1-MA003866-2', '1-MA003871', '1-MA003880', '1-MA003881', '1-MA003883', '1-MA003893', '1-MA003896', '1-MA003903-2', '1-MA003905', '1-MA003909', '1-MA003913', '1-MA003914', '1-MA003915', '1-MA003917', '1-MA003923', '1-MA003926', '1-MA003931', '1-MA003932', '1-MA003947', '1-MA003948', '1-MA003955', '1-MA003961', '1-MA0039616', '1-MA003964', '1-MA003968', '1-MA003971', '1-MA003981', '1-MA003984', '1-MA003987', '1-MA003996', '1-MA003998', '1-MA003999', '1-MA004000', '1-MA004002', '1-MA004005', '1-MA004006', '1-MA004011', '1-MA004013', '1-MA004016', '1-MA004027', '1-MA004028', '1-MA004036', '1-MA004040', '1-MA004047', '1-MA004051', '1-MA004053', '1-MA004056', '1-MA004071', '1-MA004073', '1-MA004076', '1-MA004080', '1-MA004082', '1-MA004084', '1-MA004086', '1-MA004106', '1-MA004113', '1-MA004115', '1-MA004126', '1-MA004129', '1-MA004131', '1-MA004133', '1-MA004144', '1-MA004160', '1-MA004161', '1-MA004178', '1-MA004182', '1-MA004186', '1-MA004187', '1-MA004193/COMNO0012', '1-MA0042087-08-01', '1-MA004210', '1-MA004214', '1-MA004215', '1-MA004225', '1-MA004229', '1-MA004232', '1-MA004233', '1-MA004237', '1-MA004238', '1-MA004246', '1-MA004249', '1-MA004251', '1-MA004252-1', '1-MA004253', '1-MA004255', '1-MA004258', '1-MA004260', '1-MA004262', '1-MA004264', '1-MA004272', '1-MA004273', '1-MA004279', '1-MA004280', '1-MA004282-1', '1-MA004285', '1-MA004286', '1-MA004287', '1-MA004291-1', '1-MA004292', '1-MA004303', '1-MA004307-1', '1-MA004311', '1-MA004312', '1-MA004315', '1-MA004316', '1-MA004317', '1-MA004320', '1-MA004324', '1-MA004333', '1-MA004334', '1-MA004335', '1-MA004336', '1-MA004337', '1-MA004339', '1-MA004344', '1-MA004345', '1-MA004347', '1-MA004351', '1-MA004352', '1-MA004353', '1-MA004353/COMNO-002', '1-MA004354', '1-MA004355', '1-MA004359', '1-MA004362', '1-MA004364', '1-MA004365', '1-MA004367', '1-MA004368', '1-MA004369', '1-MA004370', '1-MA004371', '1-MA004373', '1-MA004380', '1-MA004382', '1-MA004383', '1-MA004385', '1-MA004387', '1-MA004390', '1-MA004391', '1-MA004397', '1-MA004401', '1-MA004402', '1-MA004404', '1-MA004405', '1-MA004406', '1-MA004407', '1-MA004408', '1-MA004409', '1-MA004412', '1-MA004415', '1-MA004418', '1-MA004420', '1-MA004423', '1-MA004428', '1-MA004429', '1-MA004435', '1-MA004438', '1-MA004439', '1-MA004440', '1-MA004441', '1-MA004444', '1-MA004445', '1-MA004446', '1-MA004448', '1-MA004450', '1-MA004453', '1-MA004454', '1-MA004459', '1-MA004462', '1-MA004470', '1-MA004472', '1-MA004474', '1-MA004478', '1-MA004480', '1-MA004495', '1-MA004505', '1-MA004513', '1-MA004516', '1-MA004517', '1-MA004519', '1-MA004523', '1-MA004526', '1-MA004529', '1-MA004533', '1-MA004534', '1-MA004538', '1-MA004543', '1-MA004544', '1-MA004546', '1-MA004547', '1-MA004548', '1-MA004560', '1-MA004561', '1-MA004569', '1-MA004570', '1-MA004571', '1-MA004572', '1-MA004574', '1-MA004576', '1-MA004581', '1-MA004582', '1-MA004592', '1-MA004602', '1-MA004611', '1-MA004623', '1-MA004637', '1-MA004638', '1-MA033561', '1-MA03832', '1-MA0C3032', '1-MA223774', '1-NA003359', '1.01E+11', '10 UEN QB9186', '10 UEN QB9310', '10 UEN QB9891', '10 UEN QZ 9083', '10 UEN QZ9083', '10 UEN QZ9886', '100*8457-29027', '100-1020-10808', '100-1082-12271', '100-344-11840', '100-344-11863', '100-3440-11381', '100-3440-11399', '100-3440-11400', '100-3440-11405', '100-3440-11406', '100-3440-11407', '100-3440-11408', '100-3440-11409', '100-3440-11410', '100-3440-11411', '100-3440-11412', '100-3440-11413', '100-3440-11414', '100-3440-11422', '100-3440-11428', '100-3440-11432', '100-3440-11433', '100-3440-11444', '100-3440-11445', '100-3440-11464', '100-3440-11474', '100-3440-26006', '100-3440-26007', '100-3440-26008', '100-3440-26009', '100-3440-26010', '100-3440-26011', '100-3440-26012', '100-3440-26013', '100-3440-26014', '100-3440-26015', '100-3440-26016', '100-3440-26019', '100-3440-26020', '100-3440-26031', '100-3440-26032', '100-3440-26033', '100-3440-26039', '100-3440-26040', '100-3440-26041', '100-3440-26042', '100-3440-26046', '100-3440-26047', '100-3440-26062', '100-3440-26063', '100-3440-26071', '100-3440-26072', '100-3441-11739', '100-3441-11748', '100-3441-11750', '100-3441-11755', '100-3441-11757', '100-3441-11758', '100-3441-11762', '100-3441-11763', '100-3441-11765', '100-3441-11768', '100-3441-11772', '100-3441-11778', '100-3441-11781', '100-3441-11786', '100-3441-11787', '100-3441-11789', '100-3441-11792', '100-3441-11796', '100-3441-11811', '100-3441-11816', '100-3441-11821', '100-3441-11824', '100-3441-11916', '100-3441-12475', '100-3441-12690', '100-3442-10432', '100-3442-10433', '100-3442-10434', '100-3442-10438', '100-3442-10444', '100-3442-10445', '100-3442-10446', '100-3442-10450', '100-3442-10455', '100-3442-10458', '100-3442-10459', '100-3442-10460', '100-3442-10462', '100-3442-10465', '100-3442-10468', '100-3442-10469', '100-3442-10470', '100-3442-10472', '100-3442-10473', '100-3442-10475', '100-3442-10479', '100-3442-10489', '100-3442-10490', '100-3442-10491', '100-3444-11649', '100-3444-11826', '100-3444-11829', '100-3444-11835', '100-3444-11838', '100-3444-11851', '100-3444-11854', '100-3444-11855', '100-3444-11858', '100-3444-11860', '100-3444-11876', '100-3444-11880', '100-3444-11883', '100-3444-11887', '100-3445-10821', '100-3445-10829', '100-3445-10836', '100-3445-10840', '100-3445-10857', '100-3445-10873', '100-3445-10885', '100-3445-13908', '100-3445-13909', '100-3445-13910', '100-3445-13911', '100-3446-11535', '100-3446-11537', '100-3446-11538', '100-3446-11539', '100-3446-11543', '100-3446-11547', '100-3446-11550', '100-3446-11552', '100-3446-12025', '100-3446-12026', '100-3446-13153', '100-3446-13154', '100-3446-13170', '100-3446-13179', '100-4924-10510', '100-4924-10519', '100-4924-10527', '100-4924-10528', '100-4924-10529', '100-4924-10542', '100-4924-10548', '100-4924-10567', '100-4924-10568', '100-4924-10576', '100-4924-10577', '100-4924-10599', '100-4924-10612', '100-4924-10662', '100-4924-10670', '100-4924-10676', '100-4924-10696', '100-4924-10748', '100-4924-10762', '100-4924-10767', '100-4924-10797', '100-4924-10798', '100-4924-10805', '100-4924-31015', '100-4924-31039', '100-6192-11265', '100-6192-11266', '100-6192-11267', '100-6192-11268', '100-6192-11269', '100-6192-11270', '100-6192-11271', '100-6192-11272', '100-6192-11273', '100-6192-11274', '100-6192-11275', '100-6192-11276', '100-6192-11277', '100-6192-11278', '100-6192-11279', '100-6192-11280', '100-6192-11281', '100-6192-11282', '100-6192-11295', '100-6192-11296', '100-6192-11298', '100-6192-11299', '100-6192-11300', '100-6192-11301', '100-6192-11311', '100-6192-11312', '100-6192-11313', '100-6192-11317', '100-6192-11319', '100-6192-11320', '100-6192-11322', '100-6192-11323', '100-6192-11324', '100-6192-11325', '100-6192-11326', '100-6192-11330', '100-6192-11331', '100-6192-11332', '100-6192-11335', '100-6192-11336', '100-6192-11337', '100-6192-11338', '100-6192-11339', '100-6192-11340', '100-6192-11341', '100-6192-11342', '100-6192-11343', '100-6192-11344', '100-6192-11345', '100-6192-11346', '100-6192-11347', '100-6192-11348', '100-6192-11349', '100-6192-11350', '100-6192-11351', '100-6192-11355', '100-6192-11356', '100-6192-11357', '100-6192-11361', '100-6192-11362', '100-6192-11363', '100-6192-11364', '100-6192-11365', '100-6192-11366', '100-6192-11367', '100-6192-11368', '100-6192-11370', '100-6192-11371', '100-6192-11372', '100-6192-11373', '100-6192-11374', '100-6192-11377', '100-6192-11378', '100-6192-11379', '100-6192-11903', '100-6192-12349', '100-6192-12350', '100-6192-12351', '100-6192-12354', '100-6192-12355', '100-6192-12356', '100-6192-12581', '100-6192-12582', '100-6192-12592', '100-6192-12593', '100-6192-12594', '100-6192-12600', '100-6192-12601', '100-6192-12602', '100-6192-12619', '100-6192-12620', '100-6192-12734', '100-6192-12735', '100-6192-12736', '100-6192-12737', '100-6192-13901', '100-6192-13902', '100-7115-11930', '100-8457-10292', '100-8457-10293', '100-8457-10294', '100-8457-10295', '100-8457-10296', '100-8457-10297', '100-8457-10298', '100-8457-10300', '100-8457-10301', '100-8457-10302', '100-8457-10304', '100-8457-10306', '100-8457-10308', '100-8457-10309', '100-8457-10310', '100-8457-10311', '100-8457-10316', '100-8457-10317', '100-8457-10320', '100-8457-10321', '100-8457-10322', '100-8457-10327', '100-8457-29008', '100-8457-29013', '100-8457-29014', '100-8457-29016', '100-8457-29024', '100-8457-29028', '100-903-7542', '10098457-10313', '10MA004338', '10MA004346-1', '10QUENQ02017', '10QUENQ02286', '10QUENQZ9773', '10UE-QZ9528-257085', '10UEBQ02281', '10UENBQ9839', '10UENBQ9893', '10UENBQ9899', '10UENQ02008', '10UENQ02013', '10UENQ02017', '10UENQ02019', '10UENQ02019/CA226359', '10UENQ02055', '10UENQ02088', '10UENQ02092', '10UENQ02112', '10UENQ02228', '10UENQ02241', '10UENQ02243', '10UENQ02245', '10UENQ02268', '10UENQ02269', '10UENQ02271', '10UENQ02274', '10UENQ0228', '10UENQ02287', '10UENQ02335', '10UENQ02357', '10UENQ2337', '10UENQ29083', '10UENQ9821', '10UENQB9167', '10UENQB9183', '10UENQB9199', '10UENQB9308', '10UENQB9310', '10UENQB9317', '10UENQB9321', '10UENQB9322', '10UENQB9328', '10UENQB9333', '10UENQB9335', '10UENQB9336', '10UENQB9439', '10UENQB9440', '10UENQB9441', '10UENQB9453', '10UENQB9464', '10UENQB9512', '10UENQB9522', '10UENQB9522/', '10UENQB9570', '10UENQB9656', '10UENQB9658', '10UENQB9696', '10UENQB9726', '10UENQB9836', '10UENQB9839', '10UENQB9842', '10UENQB9893', '10UENQB9899', '10UENQO0217', '10UENQO02314', '10UENQO2004', '10UENQO2010', '10UENQO2014', '10UENQO2017', '10UENQO2018', '10UENQO2020', '10UENQO2024', '10UENQO2037', '10UENQO2039', '10UENQO2044', '10UENQO2048', '10UENQO2049', '10UENQO2055', '10UENQO2057', '10UENQO2064', '10UENQO2068', '10UENQO2073', '10UENQO2075', '10UENQO2091', '10UENQO2092', '10UENQO2098', '10UENQO2103', '10UENQO2106', '10UENQO2109', '10UENQO2111', '10UENQO2220', '10UENQO2222', '10UENQO2228', '10UENQO2231', '10UENQO2256', '10UENQO2260', '10UENQO2267', '10UENQO2271', '10UENQO2282', '10UENQO2284', '10UENQO2286', '10UENQO2289', '10UENQO2291', '10UENQO2292', '10UENQO2294', '10UENQO2295', '10UENQO2314', '10UENQO2317', '10UENQO2318', '10UENQO2319', '10UENQO2320', '10UENQO2327', '10UENQO2329', '10UENQO2330', '10UENQO2332', '10UENQO2334', '10UENQO2337', '10UENQO2340', '10UENQO2346', '10UENQO2350', '10UENQO2355', '10UENQO2357', '10UENQO2364', '10UENQO2372', '10UENQO2374', '10UENQO2376', '10UENQO2378', '10UENQO2384', '10UENQO2402', '10UENQO2405', '10UENQO2406', '10UENQO2408', '10UENQO2415', '10UENQO2420', '10UENQO2427', '10UENQQ2017', '10UENQZ8705', '10UENQZ9025', '10UENQZ9029', '10UENQZ9031', '10UENQZ9040', '10UENQZ9075', '10UENQZ9083', '10UENQZ9183', '10UENQZ9203', '10UENQZ9354', '10UENQZ9355', '10UENQZ9356', '10UENQZ9364', '10UENQZ9366', '10UENQZ9370', '10UENQZ9406', '10UENQZ9414', '10UENQZ9439', '10UENQZ9452', '10UENQZ9468', '10UENQZ9469', '10UENQZ9485', '10UENQZ9535', '10UENQZ9541', '10UENQZ9543', '10UENQZ9550', '10UENQZ9558', '10UENQZ9565', '10UENQZ9569', '10UENQZ9574', '10UENQZ9581', '10UENQZ9590', '10UENQZ9592', '10UENQZ9611', '10UENQZ9613', '10UENQZ9614', '10UENQZ9620', '10UENQZ9636', '10UENQZ9640', '10UENQZ9642', '10UENQZ9643', '10UENQZ9645', '10UENQZ9646', '10UENQZ9654', '10UENQZ9656', '10UENQZ9662', '10UENQZ9664', '10UENQZ9666', '10UENQZ9667', '10UENQZ9668', '10UENQZ9672', '10UENQZ9673', '10UENQZ9675', '10UENQZ9676', '10UENQZ9678', '10UENQZ9689', '10UENQZ9691', '10UENQZ9692', '10UENQZ9694', '10UENQZ9698', '10UENQZ9699', '10UENQZ9704', '10UENQZ9706', '10UENQZ9707', '10UENQZ9708', '10UENQZ9712', '10UENQZ9714', '10UENQZ9715', '10UENQZ9732', '10UENQZ9739', '10UENQZ9742', '10UENQZ9748', '10UENQZ9749', '10UENQZ9752', '10UENQZ9768', '10UENQZ9770', '10UENQZ9774', '10UENQZ9777', '10UENQZ9778', '10UENQZ9781', '10UENQZ9782', '10UENQZ9783', '10UENQZ9791', '10UENQZ9792', '10UENQZ9810', '10UENQZ9821', '10UENQZ9825', '10UENQZ9826', '10UENQZ9835', '10UENQZ9836', '10UENQZ9851', '10UENQZ9857', '10UENQZ9875', '10UENQZ9880', '10UENQZ9881', '10UENQZ9886', '10UENQZ9895', '10UEQZ9364', '10UEQZ9665', '10UNENQZ9040', '10UNEQB9464', '10UUNQB9160', '10UUNQZ9370', '10UUNQZ9859', '10UUQB9160', '10UUQNB9160', '11111', '111386', '12178', '1234', '123456', '138-028082', '138-030082', '1387300815', '1387301202', '150357-05-04', '150359-05-04', '150395-05-04', '150407 08 02', '150442-05-05', '150466-05-04', '150515 05 02', '150682-05-05', '150956-06-03', '151057-06-03', '151162 06 02', '151399-06-03', '151418-06-03', '151427 06 03', '151445-06-03', '151447-06-03', '151448-06-03', '151451-06-04', '151564-06-03', '151565-06-03', '151575-06-03', '151866-06-03', '151927 06 02', '152075-06-03', '152491-06-04', '152511-07-03', '152569-07-03', '152600-', '152605-07-02', '152618-07-03', '152642-07-01', '152739', '152741', '152742', '152746', '152774', '152778 07 02', '152784', '152788', '152789', '152795', '152812', '152884 07 03', '153316-07-03', '153407-07-01', '153408-07-02', '153519', '153770-07-02', '1537960701', '15393307-01', '153943', '153976-08-01', '153977-08-01', '153978-08-01', '154064', '154092-08-02', '154265-08-02', '154364 07 02', '154367 07 02', '154404-08-02', '154489-08-01', '154495-08-02', '154660-08-01', '154694-08', '154757 09-01', '155190-06-01', '155279 08 01', '155610-08-02', '155633 08 01', '155886-08-01', '155938 08 01', '156219-08-01', '1562470901', '156286-09-01', '156518', '156579-09-01', '156748-09-01', '1567670802', '1567800901', '15691709-01', '157088-09-01', '1570930901', '157109-09-01', '1597063', '15970639', '1FBNE31L08DA80703', '1LJ-01-10084', '1LNFM81W3WY712718', '1LNHM82W21Y697063', '1LNLM82W7YY809754', '1LNLM82W9VY704218', '1LUENQZ9040', '1M42 9900823', '1M42LR-8801810', '1M42LR-A301323', '1M42R-A403417', '1M52-9900846', '1M52-9901013', '1M52-9901029', '1M52-9901069', '1M52-9901102', '1M52-9901106', '1M52-9901111', '1M52LR-9401938', '1M52LR-A107665', '1M52LR-A111162', '1M52LR-A111455', '1M52LR-A205907', '1M52LR-A402293', '1M52LR-A402453', '1M52LR-A500718', '1M52R-A204924', '1M52RLR-A402626', '1M54LR-9606297', '1M54LR-A401876', '1M72LR-A302798', '1M72LR-A305406', '1M72R A107134', '1M72R-A110332', '1M72R-A402043', '1M73LR-A600821', '1M74LR-A215950', '1MA000140', '1MA0003438', '1MA000370', '1MA0004372', '1MA000640', '1MA000816', '1MA000822', '1MA000853', '1MA000889', '1MA000892', '1MA001192', '1MA001386', '1MA001396', '1MA001408', '1MA001422', '1MA001503', '1MA001504', '1MA001512', '1MA001522', '1MA001524', '1MA001525', '1MA001540', '1MA001867', '1MA002027', '1MA002218', '1MA002238', '1MA002312', '1MA002318', '1MA002322', '1MA002330', '1MA002335', '1MA002338', '1MA002342', '1MA002831', '1MA002836', '1MA002861', '1MA002968', '1MA003273', '1MA003287', '1MA003309', '1MA003323', '1MA003330', '1MA003357', '1MA003424', '1MA003474', '1MA003500-1', '1MA003509', '1MA003520', '1MA003556', '1MA003557', '1MA003558', '1MA003566', '1MA003651', '1MA003667', '1MA003691', '1MA003742', '1MA003755', '1MA003775', '1MA003801', '1MA003802', '1MA003805', '1MA003821', '1MA003824', '1MA003834', '1MA003845', '1MA003853', '1MA003878', '1MA003885', '1MA003961', '1MA003961/05ATIC0166', '1MA003961/ATIC0166', '1MA003996/05ATIC0166', '1MA004013/05ATIC0166', '1MA004227', '1MA004235', '1MA004254', '1MA004274', '1MA004309', '1MA004327', '1MA004400', '1MA004419', '1MA004426', '1MA004457', '1MA004460', '1MA004481', '1MA004541', '1MA004563', '1MA004588', '1MA004593', '1MAQ03294', '1OUENQ02261', '1OUENQ02417', '1OUENQB9183', '1OUENQO2075', '1OUENQO2266', '1OUENQZ9091', '1OUENQZ9211', '1OUENQZ9634', '1OUENQZ9645', '1OUENQZ9678', '1OUENQZ9682-257085', '1OUENQZ9693', '1OUENQZ9780', '1QUENQ02017', '1QUENQO2014', '1QUENQO2017', '1QUENQZ29752', '1QUENQZ9645', '1QUENQZ9752', '1QUENQZ9777', '1QUUNQB9160', '2-200-4988-11219', '2.01E+11', '2.01E+14', '2.01E+15', '20-000003-0', '20-000010', '20-000021-0', '20-000037', '20-000047-0', '200 4988 12955', '200 4988 12956', '200-4988-11128', '200-4988-11129', '200-4988-11130', '200-4988-11131', '200-4988-11133', '200-4988-11134', '200-4988-11135', '200-4988-11136', '200-4988-11137', '200-4988-11139', '200-4988-11140', '200-4988-11141', '200-4988-11142', '200-4988-11144', '200-4988-11145', '200-4988-11146', '200-4988-11147', '200-4988-11148', '200-4988-11149', '200-4988-11150', '200-4988-11151', '200-4988-11152', '200-4988-11153', '200-4988-11157', '200-4988-11158', '200-4988-11159', '200-4988-11160', '200-4988-11161', '200-4988-11162', '200-4988-11163', '200-4988-11164', '200-4988-11165', '200-4988-11167', '200-4988-11168', '200-4988-11170', '200-4988-11171', '200-4988-11172', '200-4988-11173', '200-4988-11174', '200-4988-11176', '200-4988-11177', '200-4988-11179', '200-4988-11180', '200-4988-11181', '200-4988-11182', '200-4988-11183', '200-4988-11184', '200-4988-11185', '200-4988-11186', '200-4988-11187', '200-4988-11188', '200-4988-11189', '200-4988-11190', '200-4988-11191', '200-4988-11192', '200-4988-11193', '200-4988-11194', '200-4988-11195', '200-4988-11196', '200-4988-11197', '200-4988-11200', '200-4988-11201', '200-4988-11202', '200-4988-11204', '200-4988-11207', '200-4988-11208', '200-4988-11210', '200-4988-11211', '200-4988-11212', '200-4988-11213', '200-4988-11214', '200-4988-11215', '200-4988-1209', '200-4988-12527', '200-4988-12529', '200-4988-12530', '200-4988-12531', '200-4988-12532', '200-4988-12533', '200-4988-12534', '200-4988-12535', '200-4988-12536', '200-4988-12537', '200-4988-12538', '200-4988-12539', '200-4988-12540', '200-4988-12541', '200-4988-12542', '200-4988-12848', '200-4988-12850', '200-4988-12851', '200-4988-12852', '200-4988-12853', '200-4988-12857', '200-4988-12861', '200-4988-12887', '200-4988-12888', '200-4988-12889', '200-4988-12890', '200-4988-12899', '200-4988-12900', '200-4988-12925', '200-4988-12926', '200-4988-12929', '200-4988-12930', '200-4988-12931', '200-4988-12950', '200-4988-12954', '200-4988-12960', '200-4988-13014', '200-4988-13166', '200-4988-13168', '200-4988-13171', '200-4988-13172', '200-4988-13561', '200-4988-13562', '200-4988-13655', '200-4988-13656', '200-4988-13706', '200-4988-13707', '200-4988-13835', '200-4988-13836', '200-4988-13837', '200-4988-13838', '200-4988-13839', '200-4988-13840', '200-4988-4922', '20000005', '20000017', '2000267', '200143', '200235', '200611278', '2009-152710-07-03', '2009NQB9322', '201730', '205960', '206058', '206299', '206599', '206726', '207087', '208889', '210650', '213678', '216048', '21713', '220125909', '220138709', '2227', '235604-1', '24-CC-170649-1', '24CC1706491', '2LR-A500693', '3.00E+11', '300 8342', '300-1044-11610', '300-1044-11611', '300-1044-11613', '300-1044-11616', '300-1044-11618', '300-1044-11620', '300-1044-11622', '300-1044-11626', '300-1044-11627', '300-1044-11628', '300-1044-11629', '300-1044-11630', '300-1044-11637', '300-1044-11638', '300-1044-11639', '300-1044-11640', '300-1044-11641', '300-1044-11649', '300-1044-11650', '300-1044-12479', '300-1044-12480', '300-1045-10112', '300-1045-10114', '300-1045-10118', '300-1045-10120', '300-1045-10121', '300-1045-10122', '300-1045-10123', '300-1045-10127', '300-1045-10128', '300-1045-10129', '300-1045-10130', '300-1045-10136', '300-1045-10138', '300-1045-10143', '300-1045-10145', '300-1045-10146', '300-1045-11497', '300-1045-13490', '300-1045-13491', '300-1047-10275', '300-1047-10288', '300-1047-10335', '300-1047-10344', '300-1047-10345', '300-1047-10346', '300-1047-10349', '300-1047-10354', '300-1047-10363', '300-1047-10365', '300-1047-10377', '300-1047-10378', '300-1047-10380', '300-1047-10381', '300-1047-10382', '300-1047-10385', '300-1047-10390', '300-1047-10411', '300-1047-10416', '300-1047-10417', '300-1047-10418', '300-1047-10419', '300-1047-10420', '300-1047-10421', '300-1047-10428', '300-1047-12227', '300-1047-12228', '300-1047-12525', '300-1047-12539', '300-1047-12554', '300-1047-12691', '300-1047-12692', '300-1047-12738', '300-1047-12739', '300-1047-12831', '300-1047-13088', '300-1047-13209', '300-1047-13210', '300-1047-13211', '300-1047-1341', '300-1047-13569', '300-1047-13570', '300-1082-11476', '300-1082-11477', '300-1082-11479', '300-1082-11484', '300-1082-11485', '300-1082-11486', '300-1082-11487', '300-1082-11488', '300-1082-11489', '300-1082-11490', '300-1082-11491', '300-1082-11492', '300-1082-11495', '300-1082-11499', '300-1082-11500', '300-1082-11501', '300-1082-11502', '300-1082-11503', '300-1082-11504', '300-1082-11505', '300-1082-11506', '300-1082-11508', '300-1082-11509', '300-1082-11510', '300-1082-11511', '300-1082-11518', '300-1082-11520', '300-1082-11521', '300-1082-11524', '300-1082-11526', '300-1082-11527', '300-1082-11528', '300-1082-11532', '300-1082-12263', '300-1082-12268', '300-1082-1529', '300-1082-17038', '300-3440-2600', '300-4054-11653', '300-4054-11654', '300-4054-11656', '300-4054-11662', '300-4054-11663', '300-4054-11664', '300-4054-11671', '300-6238-13041', '300-6239-12990', '300-8342', '300-8342-', '300-8342-11559', '300-8342-11564', '300-8342-11565', '300-8342-11574', '300-8342-11579', '300-8342-11580', '300-8342-11589', '300-8342-11593', '300-8342-11594', '300-8342-11599', '300-8342-11600', '300-8342-11605', '300-8342-11717', '300-8342-1178', '300-8342-12209', '300-8342-12210', '300-8342-12366', '300-8342-12367', '300-8342-12368', '300-8342-12565', '300406', '300412', '3006008', '301004557', '301161', '304626', '326CA238279-0', '339MA002389-0', '3455', '38261-0', '390904284', '391000230', '391000891', '391001093', '391001276', '391001379', '391001670', '391001747', '391002080', '391002161', '391002601', '391002962', '3910030370', '391004557', '391004901', '391004981', '391006356', '391006543', '391006870', '391007034', '391007156', '397006895', '402135', '403247', '41709', '48887294', '48919499', '48919500', '4892217', '48922217', '4892221763', '48922898', '48927902', '50-000003', '50-000003-0', '50-000007-0', '50-000007-00', '50-000008-0', '50-000013-0', '50-00003-0', '50-00013-0', '500-4100', '500-4100-10894', '500-4100-10895', '500-4100-10896', '500-4100-10897', '500-4100-10898', '500-4100-10900', '500-4100-10901', '500-4100-10904', '500-4100-10905', '500-4100-10907', '500-4100-10909', '500-4100-10910', '500-4100-10912', '500-4100-10913', '500-4100-10914', '500-4100-10915', '500-4100-10916', '500-4100-10918', '500-4100-10919', '500-4100-10920', '500-4100-10921', '500-4100-10922', '500-4100-10924', '500-4100-10925', '500-4100-10926', '500-4100-10927', '500-4100-10930', '500-4100-10931', '500-4100-10932', '500-4100-10935', '500-4100-10936', '500-4100-10937', '500-4100-10938', '500-4100-10939', '500-4100-10940', '500-4100-10941', '500-4100-10942', '500-4100-10943', '500-4100-10944', '500-4100-10945', '500-4100-10946', '500-4100-10947', '500-4100-10948', '500-4100-10949', '500-4100-10950', '500-4100-10951', '500-4100-10952', '500-4100-10953', '500-4100-10954', '500-4100-10955', '500-4100-10956', '500-4100-10957', '500-4100-10958', '500-4100-10959', '500-4100-10960', '500-4100-10964', '500-4100-10965', '500-4100-10966', '500-4100-10967', '500-4100-10968', '500-4100-10969', '500-4100-10970', '500-4100-10972', '500-4100-10973', '500-4100-10974', '500-4100-10975', '500-4100-10976', '500-4100-10977', '500-4100-10978', '500-4100-10979', '500-4100-10980', '500-4100-10981', '500-4100-10982', '500-4100-10983', '500-4100-10984', '500-4100-10985', '500-4100-10986', '500-4100-10988', '500-4100-10989', '500-4100-10990', '500-4100-10991', '500-4100-10992', '500-4100-10993', '500-4100-10994', '500-4100-10995', '500-4100-10996', '500-4100-10997', '500-4100-10998', '500-4100-10999', '500-4100-11000', '500-4100-11001', '500-4100-11002', '500-4100-11003', '500-4100-11004', '500-4100-11005', '500-4100-11006', '500-4100-11007', '500-4100-11010', '500-4100-11011', '500-4100-11012', '500-4100-11013', '500-4100-11014', '500-4100-11015', '500-4100-11016', '500-4100-11017', '500-4100-11018', '500-4100-11019', '500-4100-11020', '500-4100-11021', '500-4100-11022', '500-4100-11025', '500-4100-11027', '500-4100-11028', '500-4100-11032', '500-4100-11033', '500-4100-11034', '500-4100-11035', '500-4100-11036', '500-4100-11037', '500-4100-11038', '500-4100-11039', '500-4100-11040', '500-4100-11041', '500-4100-11042', '500-4100-11043', '500-4100-11044', '500-4100-11045', '500-4100-11046', '500-4100-11047', '500-4100-11048', '500-4100-11049', '500-4100-11050', '500-4100-11051', '500-4100-11052', '500-4100-11053', '500-4100-11054', '500-4100-11055', '500-4100-11056', '500-4100-11057', '500-4100-11058', '500-4100-11059', '500-4100-11060', '500-4100-11061', '500-4100-11062', '500-4100-11063', '500-4100-11064', '500-4100-11065', '500-4100-11066', '500-4100-11067', '500-4100-11068', '500-4100-11070', '500-4100-11071', '500-4100-11072', '500-4100-11073', '500-4100-11074', '500-4100-11075', '500-4100-11081', '500-4100-11083', '500-4100-11084', '500-4100-11086', '500-4100-11087', '500-4100-11088', '500-4100-11089', '500-4100-11090', '500-4100-11091', '500-4100-11092', '500-4100-11093', '500-4100-11094', '500-4100-11095', '500-4100-11096', '500-4100-11098', '500-4100-11099', '500-4100-11100', '500-4100-11101', '500-4100-11102', '500-4100-11103', '500-4100-11104', '500-4100-11105', '500-4100-11106', '500-4100-11107', '500-4100-11109', '500-4100-11110', '500-4100-11111', '500-4100-11112', '500-4100-11113', '500-4100-11114', '500-4100-11115', '500-4100-11116', '500-4100-11117', '500-4100-11118', '500-4100-11122', '500-4100-11123', '500-4100-11124', '500-4100-11125', '500-4100-11126', '500-4100-11902', '500-4100-11904', '500-4100-12249', '500-4100-12250', '500-4100-12251', '500-4100-12252', '500-7319-11675', '500-7319-11677', '500-7319-11681', '500-7319-11683', '500-7319-11684', '500-7319-11686', '500-7319-11689', '500-7319-11690', '500-7319-11693', '50000001', '50000003', '500732', '500818', '5015048', '501799', '512BW13409FHP0711534', '51782-06-03', '52LR9400638', '53667030', '536670330', '573516173', '5ATIC0166/CA232147-2', '601797', '607705/CPP-41-0038', '673516173', '67516173', '6800433', '6CA240549-0', '705345', '7095455', '7099666', '70997160', '70997169', '70APR217513', '71008948', '712700012', '730900019', '7320001471', '7351-061-73', '7351-61-73', '73516173', '7451-61-73', '747944', '77826020666', '77829816651', '800 6239 13312', '800549', '807100021', '8077001203', '810-4006M7690', '812800002', '813300620', '8133006200', '815100012', '819800018', '821100009', '8300270-26', '8300476', '8300506', '8300530', '8300576', '8300593', '8300725', '8301060', '8302218', '8302261', '8303745', '8304291', '8304313', '8304318', '8304345', '8304444', '8304451', '8305250', '8305296', '8305424', '8305425', '8305683', '8305735', '8307117', '8307808', '8367776', '8410288', '8410289', '8410618', '8411110</t>
+        <v>613996</v>
+      </c>
+      <c r="W7" t="n">
+        <v>44252</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">['(6)7351-61-73', '(8) 7351-61-73', '(8)7351-61-73', '-11689', '0', '000-7099-910-8', '0010008-0', '002UUNQB9853', '008CO00009-00', '008CP 00015', '008CP-00022', '008CP00009-0', '008CP00009-0-', '008CP00009-00', '008CP00012', '008CP00015', '008CP0001500', '01-CH-743536-1', '01-CH-743536-10', '01-CH-7829751', '01CA015847104000', '01CA0158471040000', '01CA01584710400000', '01CA0158476461000', '01CA0196560830000', '01CA158476461000', '01CAO158471040000', '01CAO15871040000', '01CH5783022', '01CH743536-1', '01CH743536-10', '01CH7435361', '01CH7829751', '01UECTK5890', '02 UNN QB9853', '02 UUN QB9853', '02CA015847029000', '02CA0158470290000', '02CA0158477810000', '02CA015847O290000', '02CAO01585470290000', '02CAO1584702900000', '02HHUQB9412', '02MCPQB9411', '02MCPQB9412', '02P1CAU116-09', '02P1CAU133-09', '02P1CAU55-08', '02P8CAU085-09', '02PICAU024-08', '02PICAU027-08', '02PICAU03308', '02PICAU043-08', '02PICAU055-08', '02PICAU057-08', '02PICAU083-09', '02PICAU084-09', '02PICAU084-098', '02PICAU086-09', '02PICAU090-09', '02PICAU092-09', '02PICAU09209', '02PICAU098-09', '02PICAU099-09', '02PICAU09909', '02PICAU127-09', '02PICAU130-10', '02PICAU82-09', '02PICU056-08', '02UENQB9412', '02UENQB9835', '02UNNQB9853', '02UUNQB5953', '02UUNQB89853', '02UUNQB9553', '02UUNQB9853', '05-ATIC0166', '05655553-0', '06-7351-61-73', '06025818-1', '06080905-0', '06504065-0', '067351-61-73', '06CA015847436000', '06CA0158474360000', '07-ATIC0206', '07-ATIC0206/CA235540', '07-ATIC0206/CA235541', '07-ATIC0206/CA235542', '07-ATIC0206/CA235569', '07-ATIC0206/CA235572', '07-ATIC0206/CA235573', '07-ATIC0206/CA235576', '07-ATIC0206/CA235591', '07-ATIC0206/CA235593', '07-ATIC0206/CA235934', '07-ATIC0206/CA235935', '07/ATIC0217/DBC3300', '07351-61-73', '07ATIC0197/CA2326852', '07ATIC0206/CA2355701', '07ATIC0206/CA2355711', '07ATIC0206/CA235607', '07ATIC0206/CA235833', '07AYIC0206/CA235835', '07AYIC0206/CA235836', '08122009BUU0006067', '087351-61-73', '08ATIC0237', '1 11 023276', '1 MA004375', '1-11-0034143', '1-M002102', '1-M003644', '1-MA000039', '1-MA000074', '1-MA000076-1', '1-MA000120', '1-MA000131/BA6J5793', '1-MA000155', '1-MA000187', '1-MA0002124', '1-MA000215', '1-MA0002254-1', '1-MA000248', '1-MA000249', '1-MA000280', '1-MA000301', '1-MA0003071', '1-MA000319', '1-MA0003208', '1-MA0003493', '1-MA000355', '1-MA0003758', '1-MA0004308', '1-MA000448', '1-MA000514', '1-MA000680', '1-MA000688', '1-MA000802', '1-MA000819', '1-MA000835', '1-MA000837', '1-MA000839', '1-MA000840', '1-MA000852', '1-MA000855', '1-MA000861', '1-MA000888', '1-MA000895', '1-MA000921', '1-MA000940', '1-MA000950', '1-MA000966', '1-MA001000', '1-MA001008', '1-MA001011', '1-MA001025', '1-MA001031', '1-MA001042', '1-MA001043', '1-MA001044', '1-MA001056', '1-MA001075', '1-MA001134', '1-MA001139', '1-MA001145', '1-MA001169', '1-MA001173', '1-MA001178', '1-MA001231', '1-MA001235', '1-MA001254', '1-MA001315', '1-MA001317', '1-MA001318', '1-MA001323', '1-MA001327', '1-MA001332', '1-MA001335', '1-MA001336', '1-MA001337', '1-MA001344', '1-MA001355', '1-MA001359', '1-MA001363', '1-MA001373', '1-MA001378', '1-MA001388', '1-MA001389', '1-MA001390', '1-MA001392', '1-MA001404', '1-MA001406', '1-MA001415', '1-MA001418', '1-MA001420', '1-MA001425', '1-MA001426', '1-MA001427', '1-MA001428', '1-MA001433', '1-MA001435', '1-MA001436', '1-MA001442', '1-MA001445', '1-MA001446', '1-MA001457', '1-MA0014607', '1-MA001486', '1-MA001487', '1-MA001489', '1-MA001494', '1-MA001495', '1-MA001496', '1-MA001501', '1-MA001507', '1-MA001516', '1-MA001523', '1-MA001527', '1-MA001528', '1-MA001529', '1-MA001534', '1-MA001536', '1-MA001539', '1-MA001547', '1-MA001552', '1-MA001553', '1-MA001555', '1-MA001557', '1-MA001574', '1-MA001591', '1-MA001606', '1-MA001742', '1-MA001768', '1-MA002002', '1-MA002011', '1-MA002127', '1-MA002187', '1-MA002188', '1-MA002204', '1-MA002214', '1-MA002215', '1-MA002220', '1-MA002234', '1-MA002239', '1-MA002240', '1-MA002252', '1-MA002277', '1-MA002282', '1-MA002316', '1-MA002321', '1-MA002328', '1-MA002333', '1-MA002336', '1-MA002358', '1-MA002362', '1-MA002390', '1-MA002394', '1-MA002415', '1-MA002444', '1-MA002460', '1-MA002472', '1-MA002474', '1-MA002503', '1-MA002505', '1-MA002510', '1-MA002516', '1-MA002602', '1-MA002605', '1-MA002721', '1-MA002724', '1-MA002738', '1-MA002742', '1-MA002751', '1-MA002774', '1-MA002790', '1-MA002813', '1-MA002881', '1-MA002885', '1-MA002925', '1-MA002953', '1-MA002954', '1-MA002966', '1-MA002969', '1-MA002976', '1-MA002977', '1-MA002986', '1-MA003031', '1-MA003055', '1-MA003068', '1-MA003084', '1-MA003088', '1-MA003107', '1-MA003114', '1-MA003214', '1-MA003248', '1-MA003253', '1-MA003267-1', '1-MA003290', '1-MA003295', '1-MA003296', '1-MA003326', '1-MA003340', '1-MA003343', '1-MA003351', '1-MA003365', '1-MA003376', '1-MA003396', '1-MA003420', '1-MA003429', '1-MA003430', '1-MA003436', '1-MA003440', '1-MA003441', '1-MA003443', '1-MA003445', '1-MA003459', '1-MA003460', '1-MA003464-1', '1-MA003470', '1-MA003472', '1-MA003485', '1-MA003487', '1-MA003488', '1-MA003490', '1-MA003492', '1-MA003494', '1-MA003496', '1-MA003499', '1-MA003501', '1-MA003505', '1-MA003507', '1-MA003517', '1-MA003518', '1-MA003519', '1-MA003522', '1-MA003534', '1-MA003536', '1-MA003537', '1-MA003539', '1-MA003543', '1-MA003544-1', '1-MA003547', '1-MA003548-1', '1-MA003549-1', '1-MA003552', '1-MA003555', '1-MA003565', '1-MA003567', '1-MA003574', '1-MA003579-1', '1-MA003582', '1-MA003596', '1-MA003597-1', '1-MA003602', '1-MA003623', '1-MA003632', '1-MA003636', '1-MA003637', '1-MA003649/CPP410149', '1-MA003656', '1-MA003657', '1-MA003661', '1-MA003663', '1-MA003672', '1-MA003674', '1-MA003676', '1-MA003677', '1-MA003684', '1-MA003687', '1-MA003693', '1-MA003694', '1-MA0036996-1', '1-MA003700', '1-MA003701', '1-MA003713', '1-MA003714', '1-MA003715', '1-MA003718', '1-MA003719', '1-MA003722', '1-MA003723-1', '1-MA003726', '1-MA0037321', '1-MA003734-1', '1-MA003735-1', '1-MA003736', '1-MA003737', '1-MA003739-1', '1-MA003746', '1-MA003747', '1-MA003761', '1-MA003769', '1-MA003770', '1-MA003781', '1-MA003784', '1-MA003786', '1-MA003791', '1-MA003797', '1-MA003800', '1-MA003804', '1-MA003807', '1-MA003816', '1-MA003819', '1-MA003836', '1-MA003841', '1-MA003842', '1-MA003846', '1-MA003859', '1-MA003860', '1-MA003861', '1-MA003866-2', '1-MA003871', '1-MA003880', '1-MA003881', '1-MA003883', '1-MA003893', '1-MA003896', '1-MA003903-2', '1-MA003905', '1-MA003909', '1-MA003913', '1-MA003914', '1-MA003915', '1-MA003917', '1-MA003923', '1-MA003926', '1-MA003931', '1-MA003932', '1-MA003947', '1-MA003948', '1-MA003955', '1-MA003961', '1-MA0039616', '1-MA003964', '1-MA003968', '1-MA003971', '1-MA003981', '1-MA003984', '1-MA003987', '1-MA003996', '1-MA003998', '1-MA003999', '1-MA004000', '1-MA004002', '1-MA004005', '1-MA004006', '1-MA004011', '1-MA004013', '1-MA004016', '1-MA004027', '1-MA004028', '1-MA004036', '1-MA004040', '1-MA004047', '1-MA004051', '1-MA004053', '1-MA004056', '1-MA004071', '1-MA004073', '1-MA004076', '1-MA004080', '1-MA004082', '1-MA004084', '1-MA004086', '1-MA004106', '1-MA004113', '1-MA004115', '1-MA004126', '1-MA004129', '1-MA004131', '1-MA004133', '1-MA004144', '1-MA004160', '1-MA004161', '1-MA004178', '1-MA004182', '1-MA004186', '1-MA004187', '1-MA004193/COMNO0012', '1-MA0042087-08-01', '1-MA004210', '1-MA004214', '1-MA004215', '1-MA004225', '1-MA004229', '1-MA004232', '1-MA004233', '1-MA004237', '1-MA004238', '1-MA004246', '1-MA004249', '1-MA004251', '1-MA004252-1', '1-MA004253', '1-MA004255', '1-MA004258', '1-MA004260', '1-MA004262', '1-MA004264', '1-MA004272', '1-MA004273', '1-MA004279', '1-MA004280', '1-MA004282-1', '1-MA004285', '1-MA004286', '1-MA004287', '1-MA004291-1', '1-MA004292', '1-MA004303', '1-MA004307-1', '1-MA004311', '1-MA004312', '1-MA004315', '1-MA004316', '1-MA004317', '1-MA004320', '1-MA004324', '1-MA004333', '1-MA004334', '1-MA004335', '1-MA004336', '1-MA004337', '1-MA004339', '1-MA004344', '1-MA004345', '1-MA004347', '1-MA004351', '1-MA004352', '1-MA004353', '1-MA004353/COMNO-002', '1-MA004354', '1-MA004355', '1-MA004359', '1-MA004362', '1-MA004364', '1-MA004365', '1-MA004367', '1-MA004368', '1-MA004369', '1-MA004370', '1-MA004371', '1-MA004373', '1-MA004380', '1-MA004382', '1-MA004383', '1-MA004385', '1-MA004387', '1-MA004390', '1-MA004391', '1-MA004397', '1-MA004401', '1-MA004402', '1-MA004404', '1-MA004405', '1-MA004406', '1-MA004407', '1-MA004408', '1-MA004409', '1-MA004412', '1-MA004415', '1-MA004418', '1-MA004420', '1-MA004423', '1-MA004428', '1-MA004429', '1-MA004435', '1-MA004438', '1-MA004439', '1-MA004440', '1-MA004441', '1-MA004444', '1-MA004445', '1-MA004446', '1-MA004448', '1-MA004450', '1-MA004453', '1-MA004454', '1-MA004459', '1-MA004462', '1-MA004470', '1-MA004472', '1-MA004474', '1-MA004478', '1-MA004480', '1-MA004495', '1-MA004505', '1-MA004513', '1-MA004516', '1-MA004517', '1-MA004519', '1-MA004523', '1-MA004526', '1-MA004529', '1-MA004533', '1-MA004534', '1-MA004538', '1-MA004543', '1-MA004544', '1-MA004546', '1-MA004547', '1-MA004548', '1-MA004560', '1-MA004561', '1-MA004569', '1-MA004570', '1-MA004571', '1-MA004572', '1-MA004574', '1-MA004576', '1-MA004581', '1-MA004582', '1-MA004592', '1-MA004602', '1-MA004611', '1-MA004623', '1-MA004637', '1-MA004638', '1-MA033561', '1-MA03832', '1-MA0C3032', '1-MA223774', '1-NA003359', '1.00711E+11', '1.00846E+11', '10 UEN QB9186', '10 UEN QB9310', '10 UEN QB9891', '10 UEN QZ 9083', '10 UEN QZ9083', '10 UEN QZ9886', '100*8457-29027', '100-1020-10808', '100-1082-12271', '100-344-11840', '100-344-11863', '100-3440-11381', '100-3440-11399', '100-3440-11400', '100-3440-11405', '100-3440-11406', '100-3440-11407', '100-3440-11408', '100-3440-11409', '100-3440-11410', '100-3440-11411', '100-3440-11412', '100-3440-11413', '100-3440-11414', '100-3440-11422', '100-3440-11428', '100-3440-11432', '100-3440-11433', '100-3440-11444', '100-3440-11445', '100-3440-11464', '100-3440-11474', '100-3440-26006', '100-3440-26007', '100-3440-26008', '100-3440-26009', '100-3440-26010', '100-3440-26011', '100-3440-26012', '100-3440-26013', '100-3440-26014', '100-3440-26015', '100-3440-26016', '100-3440-26019', '100-3440-26020', '100-3440-26031', '100-3440-26032', '100-3440-26033', '100-3440-26039', '100-3440-26040', '100-3440-26041', '100-3440-26042', '100-3440-26046', '100-3440-26047', '100-3440-26062', '100-3440-26063', '100-3440-26071', '100-3440-26072', '100-3441-11739', '100-3441-11748', '100-3441-11750', '100-3441-11755', '100-3441-11757', '100-3441-11758', '100-3441-11762', '100-3441-11763', '100-3441-11765', '100-3441-11768', '100-3441-11772', '100-3441-11778', '100-3441-11781', '100-3441-11786', '100-3441-11787', '100-3441-11789', '100-3441-11792', '100-3441-11796', '100-3441-11811', '100-3441-11816', '100-3441-11821', '100-3441-11824', '100-3441-11916', '100-3441-12475', '100-3441-12690', '100-3442-10432', '100-3442-10433', '100-3442-10434', '100-3442-10438', '100-3442-10444', '100-3442-10445', '100-3442-10446', '100-3442-10450', '100-3442-10455', '100-3442-10458', '100-3442-10459', '100-3442-10460', '100-3442-10462', '100-3442-10465', '100-3442-10468', '100-3442-10469', '100-3442-10470', '100-3442-10472', '100-3442-10473', '100-3442-10475', '100-3442-10479', '100-3442-10489', '100-3442-10490', '100-3442-10491', '100-3444-11649', '100-3444-11826', '100-3444-11829', '100-3444-11835', '100-3444-11838', '100-3444-11851', '100-3444-11854', '100-3444-11855', '100-3444-11858', '100-3444-11860', '100-3444-11876', '100-3444-11880', '100-3444-11883', '100-3444-11887', '100-3445-10821', '100-3445-10829', '100-3445-10836', '100-3445-10840', '100-3445-10857', '100-3445-10873', '100-3445-10885', '100-3445-13908', '100-3445-13909', '100-3445-13910', '100-3445-13911', '100-3446-11535', '100-3446-11537', '100-3446-11538', '100-3446-11539', '100-3446-11543', '100-3446-11547', '100-3446-11550', '100-3446-11552', '100-3446-12025', '100-3446-12026', '100-3446-13153', '100-3446-13154', '100-3446-13170', '100-3446-13179', '100-4924-10510', '100-4924-10519', '100-4924-10527', '100-4924-10528', '100-4924-10529', '100-4924-10542', '100-4924-10548', '100-4924-10567', '100-4924-10568', '100-4924-10576', '100-4924-10577', '100-4924-10599', '100-4924-10612', '100-4924-10662', '100-4924-10670', '100-4924-10676', '100-4924-10696', '100-4924-10748', '100-4924-10762', '100-4924-10767', '100-4924-10797', '100-4924-10798', '100-4924-10805', '100-4924-31015', '100-4924-31039', '100-6192-11265', '100-6192-11266', '100-6192-11267', '100-6192-11268', '100-6192-11269', '100-6192-11270', '100-6192-11271', '100-6192-11272', '100-6192-11273', '100-6192-11274', '100-6192-11275', '100-6192-11276', '100-6192-11277', '100-6192-11278', '100-6192-11279', '100-6192-11280', '100-6192-11281', '100-6192-11282', '100-6192-11295', '100-6192-11296', '100-6192-11298', '100-6192-11299', '100-6192-11300', '100-6192-11301', '100-6192-11311', '100-6192-11312', '100-6192-11313', '100-6192-11317', '100-6192-11319', '100-6192-11320', '100-6192-11322', '100-6192-11323', '100-6192-11324', '100-6192-11325', '100-6192-11326', '100-6192-11330', '100-6192-11331', '100-6192-11332', '100-6192-11335', '100-6192-11336', '100-6192-11337', '100-6192-11338', '100-6192-11339', '100-6192-11340', '100-6192-11341', '100-6192-11342', '100-6192-11343', '100-6192-11344', '100-6192-11345', '100-6192-11346', '100-6192-11347', '100-6192-11348', '100-6192-11349', '100-6192-11350', '100-6192-11351', '100-6192-11355', '100-6192-11356', '100-6192-11357', '100-6192-11361', '100-6192-11362', '100-6192-11363', '100-6192-11364', '100-6192-11365', '100-6192-11366', '100-6192-11367', '100-6192-11368', '100-6192-11370', '100-6192-11371', '100-6192-11372', '100-6192-11373', '100-6192-11374', '100-6192-11377', '100-6192-11378', '100-6192-11379', '100-6192-11903', '100-6192-12349', '100-6192-12350', '100-6192-12351', '100-6192-12354', '100-6192-12355', '100-6192-12356', '100-6192-12581', '100-6192-12582', '100-6192-12592', '100-6192-12593', '100-6192-12594', '100-6192-12600', '100-6192-12601', '100-6192-12602', '100-6192-12619', '100-6192-12620', '100-6192-12734', '100-6192-12735', '100-6192-12736', '100-6192-12737', '100-6192-13901', '100-6192-13902', '100-7115-11930', '100-8457-10292', '100-8457-10293', '100-8457-10294', '100-8457-10295', '100-8457-10296', '100-8457-10297', '100-8457-10298', '100-8457-10300', '100-8457-10301', '100-8457-10302', '100-8457-10304', '100-8457-10306', '100-8457-10308', '100-8457-10309', '100-8457-10310', '100-8457-10311', '100-8457-10316', '100-8457-10317', '100-8457-10320', '100-8457-10321', '100-8457-10322', '100-8457-10327', '100-8457-29008', '100-8457-29013', '100-8457-29014', '100-8457-29016', '100-8457-29024', '100-8457-29028', '100-903-7542', '10098457-10313', '10MA004338', '10MA004346-1', '10QUENQ02017', '10QUENQ02286', '10QUENQZ9773', '10UE-QZ9528-257085', '10UEBQ02281', '10UENBQ9839', '10UENBQ9893', '10UENBQ9899', '10UENQ02008', '10UENQ02013', '10UENQ02017', '10UENQ02019', '10UENQ02019/CA226359', '10UENQ02055', '10UENQ02088', '10UENQ02092', '10UENQ02112', '10UENQ02228', '10UENQ02241', '10UENQ02243', '10UENQ02245', '10UENQ02268', '10UENQ02269', '10UENQ02271', '10UENQ02274', '10UENQ0228', '10UENQ02287', '10UENQ02335', '10UENQ02357', '10UENQ2337', '10UENQ29083', '10UENQ9821', '10UENQB9167', '10UENQB9183', '10UENQB9199', '10UENQB9308', '10UENQB9310', '10UENQB9317', '10UENQB9321', '10UENQB9322', '10UENQB9328', '10UENQB9333', '10UENQB9335', '10UENQB9336', '10UENQB9439', '10UENQB9440', '10UENQB9441', '10UENQB9453', '10UENQB9464', '10UENQB9512', '10UENQB9522', '10UENQB9522/', '10UENQB9570', '10UENQB9656', '10UENQB9658', '10UENQB9696', '10UENQB9726', '10UENQB9836', '10UENQB9839', '10UENQB9842', '10UENQB9893', '10UENQB9899', '10UENQO0217', '10UENQO02314', '10UENQO2004', '10UENQO2010', '10UENQO2014', '10UENQO2017', '10UENQO2018', '10UENQO2020', '10UENQO2024', '10UENQO2037', '10UENQO2039', '10UENQO2044', '10UENQO2048', '10UENQO2049', '10UENQO2055', '10UENQO2057', '10UENQO2064', '10UENQO2068', '10UENQO2073', '10UENQO2075', '10UENQO2091', '10UENQO2092', '10UENQO2098', '10UENQO2103', '10UENQO2106', '10UENQO2109', '10UENQO2111', '10UENQO2220', '10UENQO2222', '10UENQO2228', '10UENQO2231', '10UENQO2256', '10UENQO2260', '10UENQO2267', '10UENQO2271', '10UENQO2282', '10UENQO2284', '10UENQO2286', '10UENQO2289', '10UENQO2291', '10UENQO2292', '10UENQO2294', '10UENQO2295', '10UENQO2314', '10UENQO2317', '10UENQO2318', '10UENQO2319', '10UENQO2320', '10UENQO2327', '10UENQO2329', '10UENQO2330', '10UENQO2332', '10UENQO2334', '10UENQO2337', '10UENQO2340', '10UENQO2346', '10UENQO2350', '10UENQO2355', '10UENQO2357', '10UENQO2364', '10UENQO2372', '10UENQO2374', '10UENQO2376', '10UENQO2378', '10UENQO2384', '10UENQO2402', '10UENQO2405', '10UENQO2406', '10UENQO2408', '10UENQO2415', '10UENQO2420', '10UENQO2427', '10UENQQ2017', '10UENQZ8705', '10UENQZ9025', '10UENQZ9029', '10UENQZ9031', '10UENQZ9040', '10UENQZ9075', '10UENQZ9083', '10UENQZ9183', '10UENQZ9203', '10UENQZ9354', '10UENQZ9355', '10UENQZ9356', '10UENQZ9364', '10UENQZ9366', '10UENQZ9370', '10UENQZ9406', '10UENQZ9414', '10UENQZ9439', '10UENQZ9452', '10UENQZ9468', '10UENQZ9469', '10UENQZ9485', '10UENQZ9535', '10UENQZ9541', '10UENQZ9543', '10UENQZ9550', '10UENQZ9558', '10UENQZ9565', '10UENQZ9569', '10UENQZ9574', '10UENQZ9581', '10UENQZ9590', '10UENQZ9592', '10UENQZ9611', '10UENQZ9613', '10UENQZ9614', '10UENQZ9620', '10UENQZ9636', '10UENQZ9640', '10UENQZ9642', '10UENQZ9643', '10UENQZ9645', '10UENQZ9646', '10UENQZ9654', '10UENQZ9656', '10UENQZ9662', '10UENQZ9664', '10UENQZ9666', '10UENQZ9667', '10UENQZ9668', '10UENQZ9672', '10UENQZ9673', '10UENQZ9675', '10UENQZ9676', '10UENQZ9678', '10UENQZ9689', '10UENQZ9691', '10UENQZ9692', '10UENQZ9694', '10UENQZ9698', '10UENQZ9699', '10UENQZ9704', '10UENQZ9706', '10UENQZ9707', '10UENQZ9708', '10UENQZ9712', '10UENQZ9714', '10UENQZ9715', '10UENQZ9732', '10UENQZ9739', '10UENQZ9742', '10UENQZ9748', '10UENQZ9749', '10UENQZ9752', '10UENQZ9768', '10UENQZ9770', '10UENQZ9774', '10UENQZ9777', '10UENQZ9778', '10UENQZ9781', '10UENQZ9782', '10UENQZ9783', '10UENQZ9791', '10UENQZ9792', '10UENQZ9810', '10UENQZ9821', '10UENQZ9825', '10UENQZ9826', '10UENQZ9835', '10UENQZ9836', '10UENQZ9851', '10UENQZ9857', '10UENQZ9875', '10UENQZ9880', '10UENQZ9881', '10UENQZ9886', '10UENQZ9895', '10UEQZ9364', '10UEQZ9665', '10UNENQZ9040', '10UNEQB9464', '10UUNQB9160', '10UUNQZ9370', '10UUNQZ9859', '10UUQB9160', '10UUQNB9160', '11111', '111386', '12178', '1234', '123456', '138-028082', '138-030082', '1387300815', '1387301202', '150357-05-04', '150359-05-04', '150395-05-04', '150407 08 02', '150442-05-05', '150466-05-04', '150515 05 02', '150682-05-05', '150956-06-03', '151057-06-03', '151162 06 02', '151399-06-03', '151418-06-03', '151427 06 03', '151445-06-03', '151447-06-03', '151448-06-03', '151451-06-04', '151564-06-03', '151565-06-03', '151575-06-03', '151866-06-03', '151927 06 02', '152075-06-03', '152491-06-04', '152511-07-03', '152569-07-03', '152600-', '152605-07-02', '152618-07-03', '152642-07-01', '152739', '152741', '152742', '152746', '152774', '152778 07 02', '152784', '152788', '152789', '152795', '152812', '152884 07 03', '153316-07-03', '153407-07-01', '153408-07-02', '153519', '153770-07-02', '1537960701', '15393307-01', '153943', '153976-08-01', '153977-08-01', '153978-08-01', '154064', '154092-08-02', '154265-08-02', '154364 07 02', '154367 07 02', '154404-08-02', '154489-08-01', '154495-08-02', '154660-08-01', '154694-08', '154757 09-01', '155190-06-01', '155279 08 01', '155610-08-02', '155633 08 01', '155886-08-01', '155938 08 01', '156219-08-01', '1562470901', '156286-09-01', '156518', '156579-09-01', '156748-09-01', '1567670802', '1567800901', '15691709-01', '157088-09-01', '1570930901', '157109-09-01', '1597063', '15970639', '1FBNE31L08DA80703', '1LJ-01-10084', '1LNFM81W3WY712718', '1LNHM82W21Y697063', '1LNLM82W7YY809754', '1LNLM82W9VY704218', '1LUENQZ9040', '1M42 9900823', '1M42LR-8801810', '1M42LR-A301323', '1M42R-A403417', '1M52-9900846', '1M52-9901013', '1M52-9901029', '1M52-9901069', '1M52-9901102', '1M52-9901106', '1M52-9901111', '1M52LR-9401938', '1M52LR-A107665', '1M52LR-A111162', '1M52LR-A111455', '1M52LR-A205907', '1M52LR-A402293', '1M52LR-A402453', '1M52LR-A500718', '1M52R-A204924', '1M52RLR-A402626', '1M54LR-9606297', '1M54LR-A401876', '1M72LR-A302798', '1M72LR-A305406', '1M72R A107134', '1M72R-A110332', '1M72R-A402043', '1M73LR-A600821', '1M74LR-A215950', '1MA000140', '1MA0003438', '1MA000370', '1MA0004372', '1MA000640', '1MA000816', '1MA000822', '1MA000853', '1MA000889', '1MA000892', '1MA001192', '1MA001386', '1MA001396', '1MA001408', '1MA001422', '1MA001503', '1MA001504', '1MA001512', '1MA001522', '1MA001524', '1MA001525', '1MA001540', '1MA001867', '1MA002027', '1MA002218', '1MA002238', '1MA002312', '1MA002318', '1MA002322', '1MA002330', '1MA002335', '1MA002338', '1MA002342', '1MA002831', '1MA002836', '1MA002861', '1MA002968', '1MA003273', '1MA003287', '1MA003309', '1MA003323', '1MA003330', '1MA003357', '1MA003424', '1MA003474', '1MA003500-1', '1MA003509', '1MA003520', '1MA003556', '1MA003557', '1MA003558', '1MA003566', '1MA003651', '1MA003667', '1MA003691', '1MA003742', '1MA003755', '1MA003775', '1MA003801', '1MA003802', '1MA003805', '1MA003821', '1MA003824', '1MA003834', '1MA003845', '1MA003853', '1MA003878', '1MA003885', '1MA003961', '1MA003961/05ATIC0166', '1MA003961/ATIC0166', '1MA003996/05ATIC0166', '1MA004013/05ATIC0166', '1MA004227', '1MA004235', '1MA004254', '1MA004274', '1MA004309', '1MA004327', '1MA004400', '1MA004419', '1MA004426', '1MA004457', '1MA004460', '1MA004481', '1MA004541', '1MA004563', '1MA004588', '1MA004593', '1MAQ03294', '1OUENQ02261', '1OUENQ02417', '1OUENQB9183', '1OUENQO2075', '1OUENQO2266', '1OUENQZ9091', '1OUENQZ9211', '1OUENQZ9634', '1OUENQZ9645', '1OUENQZ9678', '1OUENQZ9682-257085', '1OUENQZ9693', '1OUENQZ9780', '1QUENQ02017', '1QUENQO2014', '1QUENQO2017', '1QUENQZ29752', '1QUENQZ9645', '1QUENQZ9752', '1QUENQZ9777', '1QUUNQB9160', '2-200-4988-11219', '2.00703E+15', '2.00808E+11', '2.00904E+14', '20-000003-0', '20-000010', '20-000021-0', '20-000037', '20-000047-0', '200 4988 12955', '200 4988 12956', '200-4988-11128', '200-4988-11129', '200-4988-11130', '200-4988-11131', '200-4988-11133', '200-4988-11134', '200-4988-11135', '200-4988-11136', '200-4988-11137', '200-4988-11139', '200-4988-11140', '200-4988-11141', '200-4988-11142', '200-4988-11144', '200-4988-11145', '200-4988-11146', '200-4988-11147', '200-4988-11148', '200-4988-11149', '200-4988-11150', '200-4988-11151', '200-4988-11152', '200-4988-11153', '200-4988-11157', '200-4988-11158', '200-4988-11159', '200-4988-11160', '200-4988-11161', '200-4988-11162', '200-4988-11163', '200-4988-11164', '200-4988-11165', '200-4988-11167', '200-4988-11168', '200-4988-11170', '200-4988-11171', '200-4988-11172', '200-4988-11173', '200-4988-11174', '200-4988-11176', '200-4988-11177', '200-4988-11179', '200-4988-11180', '200-4988-11181', '200-4988-11182', '200-4988-11183', '200-4988-11184', '200-4988-11185', '200-4988-11186', '200-4988-11187', '200-4988-11188', '200-4988-11189', '200-4988-11190', '200-4988-11191', '200-4988-11192', '200-4988-11193', '200-4988-11194', '200-4988-11195', '200-4988-11196', '200-4988-11197', '200-4988-11200', '200-4988-11201', '200-4988-11202', '200-4988-11204', '200-4988-11207', '200-4988-11208', '200-4988-11210', '200-4988-11211', '200-4988-11212', '200-4988-11213', '200-4988-11214', '200-4988-11215', '200-4988-1209', '200-4988-12527', '200-4988-12529', '200-4988-12530', '200-4988-12531', '200-4988-12532', '200-4988-12533', '200-4988-12534', '200-4988-12535', '200-4988-12536', '200-4988-12537', '200-4988-12538', '200-4988-12539', '200-4988-12540', '200-4988-12541', '200-4988-12542', '200-4988-12848', '200-4988-12850', '200-4988-12851', '200-4988-12852', '200-4988-12853', '200-4988-12857', '200-4988-12861', '200-4988-12887', '200-4988-12888', '200-4988-12889', '200-4988-12890', '200-4988-12899', '200-4988-12900', '200-4988-12925', '200-4988-12926', '200-4988-12929', '200-4988-12930', '200-4988-12931', '200-4988-12950', '200-4988-12954', '200-4988-12960', '200-4988-13014', '200-4988-13166', '200-4988-13168', '200-4988-13171', '200-4988-13172', '200-4988-13561', '200-4988-13562', '200-4988-13655', '200-4988-13656', '200-4988-13706', '200-4988-13707', '200-4988-13835', '200-4988-13836', '200-4988-13837', '200-4988-13838', '200-4988-13839', '200-4988-13840', '200-4988-4922', '20000005', '20000017', '2000267', '200143', '200235', '200611278', '2009-152710-07-03', '2009NQB9322', '201730', '205960', '206058', '206299', '206599', '206726', '207087', '208889', '210650', '213678', '216048', '21713', '220125909', '220138709', '2227', '235604-1', '24-CC-170649-1', '24CC1706491', '2LR-A500693', '3.00105E+11', '300 8342', '300-1044-11610', '300-1044-11611', '300-1044-11613', '300-1044-11616', '300-1044-11618', '300-1044-11620', '300-1044-11622', '300-1044-11626', '300-1044-11627', '300-1044-11628', '300-1044-11629', '300-1044-11630', '300-1044-11637', '300-1044-11638', '300-1044-11639', '300-1044-11640', '300-1044-11641', '300-1044-11649', '300-1044-11650', '300-1044-12479', '300-1044-12480', '300-1045-10112', '300-1045-10114', '300-1045-10118', '300-1045-10120', '300-1045-10121', '300-1045-10122', '300-1045-10123', '300-1045-10127', '300-1045-10128', '300-1045-10129', '300-1045-10130', '300-1045-10136', '300-1045-10138', '300-1045-10143', '300-1045-10145', '300-1045-10146', '300-1045-11497', '300-1045-13490', '300-1045-13491', '300-1047-10275', '300-1047-10288', '300-1047-10335', '300-1047-10344', '300-1047-10345', '300-1047-10346', '300-1047-10349', '300-1047-10354', '300-1047-10363', '300-1047-10365', '300-1047-10377', '300-1047-10378', '300-1047-10380', '300-1047-10381', '300-1047-10382', '300-1047-10385', '300-1047-10390', '300-1047-10411', '300-1047-10416', '300-1047-10417', '300-1047-10418', '300-1047-10419', '300-1047-10420', '300-1047-10421', '300-1047-10428', '300-1047-12227', '300-1047-12228', '300-1047-12525', '300-1047-12539', '300-1047-12554', '300-1047-12691', '300-1047-12692', '300-1047-12738', '300-1047-12739', '300-1047-12831', '300-1047-13088', '300-1047-13209', '300-1047-13210', '300-1047-13211', '300-1047-1341', '300-1047-13569', '300-1047-13570', '300-1082-11476', '300-1082-11477', '300-1082-11479', '300-1082-11484', '300-1082-11485', '300-1082-11486', '300-1082-11487', '300-1082-11488', '300-1082-11489', '300-1082-11490', '300-1082-11491', '300-1082-11492', '300-1082-11495', '300-1082-11499', '300-1082-11500', '300-1082-11501', '300-1082-11502', '300-1082-11503', '300-1082-11504', '300-1082-11505', '300-1082-11506', '300-1082-11508', '300-1082-11509', '300-1082-11510', '300-1082-11511', '300-1082-11518', '300-1082-11520', '300-1082-11521', '300-1082-11524', '300-1082-11526', '300-1082-11527', '300-1082-11528', '300-1082-11532', '300-1082-12263', '300-1082-12268', '300-1082-1529', '300-1082-17038', '300-3440-2600', '300-4054-11653', '300-4054-11654', '300-4054-11656', '300-4054-11662', '300-4054-11663', '300-4054-11664', '300-4054-11671', '300-6238-13041', '300-6239-12990', '300-8342', '300-8342-', '300-8342-11559', '300-8342-11564', '300-8342-11565', '300-8342-11574', '300-8342-11579', '300-8342-11580', '300-8342-11589', '300-8342-11593', '300-8342-11594', '300-8342-11599', '300-8342-11600', '300-8342-11605', '300-8342-11717', '300-8342-1178', '300-8342-12209', '300-8342-12210', '300-8342-12366', '300-8342-12367', '300-8342-12368', '300-8342-12565', '300406', '300412', '3006008', '301004557', '301161', '304626', '326CA238279-0', '339MA002389-0', '3455', '38261-0', '390904284', '391000230', '391000891', '391001093', '391001276', '391001379', '391001670', '391001747', '391002080', '391002161', '391002601', '391002962', '3910030370', '391004557', '391004901', '391004981', '391006356', '391006543', '391006870', '391007034', '391007156', '397006895', '402135', '403247', '41709', '48887294', '48919499', '48919500', '4892217', '48922217', '4892221763', '48922898', '48927902', '50-000003', '50-000003-0', '50-000007-0', '50-000007-00', '50-000008-0', '50-000013-0', '50-00003-0', '50-00013-0', '500-4100', '500-4100-10894', '500-4100-10895', '500-4100-10896', '500-4100-10897', '500-4100-10898', '500-4100-10900', '500-4100-10901', '500-4100-10904', '500-4100-10905', '500-4100-10907', '500-4100-10909', '500-4100-10910', '500-4100-10912', '500-4100-10913', '500-4100-10914', '500-4100-10915', '500-4100-10916', '500-4100-10918', '500-4100-10919', '500-4100-10920', '500-4100-10921', '500-4100-10922', '500-4100-10924', '500-4100-10925', '500-4100-10926', '500-4100-10927', '500-4100-10930', '500-4100-10931', '500-4100-10932', '500-4100-10935', '500-4100-10936', '500-4100-10937', '500-4100-10938', '500-4100-10939', '500-4100-10940', '500-4100-10941', '500-4100-10942', '500-4100-10943', '500-4100-10944', '500-4100-10945', '500-4100-10946', '500-4100-10947', '500-4100-10948', '500-4100-10949', '500-4100-10950', '500-4100-10951', '500-4100-10952', '500-4100-10953', '500-4100-10954', '500-4100-10955', '500-4100-10956', '500-4100-10957', '500-4100-10958', '500-4100-10959', '500-4100-10960', '500-4100-10964', '500-4100-10965', '500-4100-10966', '500-4100-10967', '500-4100-10968', '500-4100-10969', '500-4100-10970', '500-4100-10972', '500-4100-10973', '500-4100-10974', '500-4100-10975', '500-4100-10976', '500-4100-10977', '500-4100-10978', '500-4100-10979', '500-4100-10980', '500-4100-10981', '500-4100-10982', '500-4100-10983', '500-4100-10984', '500-4100-10985', '500-4100-10986', '500-4100-10988', '500-4100-10989', '500-4100-10990', '500-4100-10991', '500-4100-10992', '500-4100-10993', '500-4100-10994', '500-4100-10995', '500-4100-10996', '500-4100-10997', '500-4100-10998', '500-4100-10999', '500-4100-11000', '500-4100-11001', '500-4100-11002', '500-4100-11003', '500-4100-11004', '500-4100-11005', '500-4100-11006', '500-4100-11007', '500-4100-11010', '500-4100-11011', '500-4100-11012', '500-4100-11013', '500-4100-11014', '500-4100-11015', '500-4100-11016', '500-4100-11017', '500-4100-11018', '500-4100-11019', '500-4100-11020', '500-4100-11021', '500-4100-11022', '500-4100-11025', '500-4100-11027', '500-4100-11028', '500-4100-11032', '500-4100-11033', '500-4100-11034', '500-4100-11035', '500-4100-11036', '500-4100-11037', '500-4100-11038', '500-4100-11039', '500-4100-11040', '500-4100-11041', '500-4100-11042', '500-4100-11043', '500-4100-11044', '500-4100-11045', '500-4100-11046', '500-4100-11047', '500-4100-11048', '500-4100-11049', '500-4100-11050', '500-4100-11051', '500-4100-11052', '500-4100-11053', '500-4100-11054', '500-4100-11055', '500-4100-11056', '500-4100-11057', '500-4100-11058', '500-4100-11059', '500-4100-11060', '500-4100-11061', '500-4100-11062', '500-4100-11063', '500-4100-11064', '500-4100-11065', '500-4100-11066', '500-4100-11067', '500-4100-11068', '500-4100-11070', '500-4100-11071', '500-4100-11072', '500-4100-11073', '500-4100-11074', '500-4100-11075', '500-4100-11081', '500-4100-11083', '500-4100-11084', '500-4100-11086', '500-4100-11087', '500-4100-11088', '500-4100-11089', '500-4100-11090', '500-4100-11091', '500-4100-11092', '500-4100-11093', '500-4100-11094', '500-4100-11095', '500-4100-11096', '500-4100-11098', '500-4100-11099', '500-4100-11100', '500-4100-11101', '500-4100-11102', '500-4100-11103', '500-4100-11104', '500-4100-11105', '500-4100-11106', '500-4100-11107', '500-4100-11109', '500-4100-11110', '500-4100-11111', '500-4100-11112', '500-4100-11113', '500-4100-11114', '500-4100-11115', '500-4100-11116', '500-4100-11117', '500-4100-11118', '500-4100-11122', '500-4100-11123', '500-4100-11124', '500-4100-11125', '500-4100-11126', '500-4100-11902', '500-4100-11904', '500-4100-12249', '500-4100-12250', '500-4100-12251', '500-4100-12252', '500-7319-11675', '500-7319-11677', '500-7319-11681', '500-7319-11683', '500-7319-11684', '500-7319-11686', '500-7319-11689', '500-7319-11690', '500-7319-11693', '50000001', '50000003', '500732', '500818', '5015048', '501799', '512BW13409FHP0711534', '51782-06-03', '52LR9400638', '53667030', '536670330', '573516173', '5ATIC0166/CA232147-2', '601797', '607705/CPP-41-0038', '673516173', '67516173', '6800433', '6CA240549-0', '705345', '7095455', '7099666', '70997160', '70997169', '70APR217513', '71008948', '712700012', '730900019', '7320001471', '7351-061-73', '7351-61-73', '73516173', '7451-61-73', '747944', '77826020666', '77829816651', '800 6239 13312', '800549', '807100021', '8077001203', '810-4006M7690', '812800002', '813300620', '8133006200', '815100012', '819800018', '821100009', '8300270-26', '8300476', '8300506', '8300530', '8300576', '8300593', '8300725', '8301060', '8302218', '8302261', '8303745', '8304291', '8304313', '8304318', '8304345', '8304444', '8304451', '8305250', '8305296', '8305424', '8305425', '8305683', '8305735', '8307117', '8307808', '8367776', '8410288', </t>
         </is>
       </c>
     </row>
@@ -950,18 +973,18 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E8" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1013,12 +1036,15 @@
         <v>290</v>
       </c>
       <c r="U8" t="n">
-        <v>962494</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>36487</v>
-      </c>
-      <c r="W8" t="inlineStr">
+        <v>962512</v>
+      </c>
+      <c r="W8" t="n">
+        <v>36488</v>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>['.ASTILLO,JESUS', '.ELAYA,MARILU,B', '.USSAIN,FIAZ', '0LIVO LIMO SERVICE', '1212 TAXI LLC', '123 LIMOUSINE INC', '123 LIVERY SERVICES INC', '123 LIVERY SERVICES,INC', '168 CAB CORP', '178 CAB CORP', '18 AVENUE LIMITED', '18 AVENUE LIMITED.', '18TH AVENUE LIMITED', '18TH STREET HACKING CORP', '194 WYCKOFF CORP', '194 WYCKOFF CORP.', '2 BROTHERS CAB CORP', '20 EVANS CORP', '217 MANAGEMENT INC', '217 MANAGEMENT INC.', '22 EXPRESS INC', '222 EAST CORP', '24 AVE CAR SERVICE INC', '2622 LLC', '2YOUB CAR SERVICE INC', '3 FRIENDS LEASING LLC', '31 NORTHERN  BLVD INC', '31 NORTHERN BLVD INC', '31 NORTHERN BLVD, INC.', '31 NORTHERN BLVD,INC.', '31 NORTHERN BLVD. INC.', '31 NORTHERN BLVD.INC.', '31 NORTHERN BOULEVARD INC', '31 NORTHERN BOULEVARD,INC', '31 NORTHERN BOULEVARD,INC.', '333 CAB CORP.', '349 CAR CORP', '3511 SYSTEMS INC', '3511 SYSTEMS INC.', '36 EXPRESS INC', '38 AIRPORT SERVICE INC', '38 AIRPORT SERVICE INC.', '38-17 HOLDING CORP', '381 BRONX CORP.', '3SHRAF,MOHAMMAD', '409 TAXI CORP', '422 DND CORP', '422 DND CORP  D/B/A REGAL BRIDAL', '422 DND CORP D/B/A REGAL BRIDAL', '4435 PARK AVENUE CORP', '44TH ROAD TRANS INC.', '4MT INC', '4MT,INC PRIDE LIMO', '4S CAB CORP.', "5 D'S TAXI INC", '5 STAR LIMO LEASING LLC', '555 TAXI INC', '56TRON,SERGIO,H', '58 CORP', '58 CORP.', '60TH STREET CAR SERVICE INC', '60TH STREET CAR SERVICE INC.', '60TH. STREET CAR SERVICE INC.', '63 EXPRESS INC', '66 CAB CORP.', '6688 GROUP LLC', '6LAUGERRESTITUYO,J,A', '6OTH STREET CAR SERVICE INC', '7 HEAVEN TAXI INC', '7 KP INC', '7 STAR LIMO INC', '77 ELECTRONICS INC', '78 EXPRESS INC', '804 CORP', '888 TAXI INC', '92 EXPRESS INC', '962 TRANS INC.', '971 ONLY U INC', '971 ONLY U,INC.', '99 CAB CORP.', '999 TRANSPORTATION CORP', 'A &amp; A TRADING CORP', 'A &amp; A TRADING CORP.', 'A &amp; C PRIVATE SERVICE', 'A &amp; D TRANSPORTATION CORP', 'A &amp; E TRANSPORTATION INC', 'A &amp; E TRANSPORTATION INC.', 'A &amp; E TRANSPORTATION, INC.', 'A &amp; F TAXI INC', 'A &amp; J CAB CORP', 'A &amp; J MOTA AUTO CORP.', 'A &amp; K TAXI CORP', 'A &amp; K TRANSPORTATION LLC', 'A &amp; R GOLDEN EXPRESS INC', 'A &amp; R GOLDEN EXPRESS,INC.', 'A 1 MOTOR MADE INC', 'A AV SERVICE CORP', 'A CASUAL AMN LIMO SVC LLC', 'A CLASS LIMOUSINE TRAVEL &amp; TOURS INC', 'A CUSTOM COACH LIMO INC.', 'A CUSTOM COACH LIMOUSINE INC', 'A G C LIMO CORP', 'A J A LIMOUSINE SERVICE INC', 'A J A LIMOUSINE SERVICE, INC', 'A J A LIMOUSINE SERVICE, INC.', 'A J LEASING SERVICES LTD', 'A J LEASING SERVICES,LTD.', 'A K K INC', 'A NEW HERITAGE LTD', 'A NEW HERITAGE LTD.', 'A P W AYESH INC', 'A P W AYESH INC.', 'A PLUS LIMOUSINE CORP', 'A S LIMO SERVICE INC', 'A S LIMOUSINE', 'A S LIMOUSINE INC', 'A STAR LIMOUSINE INC.', 'A T CAB CORP', 'A TO Z TRANSPORTATION LLC', 'A VA SERVICE CORP', 'A&amp;A RIDES,INC', 'A&amp;A TRADING CORP', 'A&amp;B LIMOUSINE CORP', 'A&amp;D TRANSPORTATION CORP', 'A&amp;E TRANSPORTATION,INC.', 'A&amp;R GOLDEN EXPRESS INC', 'A&amp;R GOLDEN EXPRESS INC.', 'A&amp;R GOLDEN EXPRESS,INC', 'A&amp;S LIMOUSINE', 'A+LIMOUSINE CORP.', 'A-1 AMBULETTE INC DBA SENIORRIDE', 'A-1 AMBULETTE INC DBA: SENIOR RIDE TRANSP', 'A-1 MOTOR MADE INC', 'A-1 MOTOR MADE,INC.', 'A-EXPRESS LIMO INC', 'A-EXPRESS LIMO INC.', 'A. DUMAS TRANSIT INC', 'A. G. CAB CORP', 'A. W. TRANSIT INC.', 'A.A.T. TRANS INC', 'A.B.S. TRANSIT INC.', 'A.C.A.CAB CORP', 'A.N. SERVICES INC.', 'A.P. TRANSIT INC', 'A.P.W AYESH INC.', 'A.P.W. AYESH INC.', 'A.R.S.CAB CORP', 'A.Z.D ENTERPRISE INC', 'A/VA SERVICE CORP', 'A/VA SERVICE CORP.', 'A1 ATLANTIC CORPORATION', 'A156EIGUO', 'A2Z SERVICE LLC', 'A;VA;SERVICE;CORP', 'AA BLACK CARS INC.', 'AA WEDDING PHOTOGRAPHY CORP', 'AAA AMERICAN ENTERPRISE INC', 'AAA AMERICAN ENTERPRISE INC.', 'AAA AMERICAN ENTERPRISE,INC', 'AAA AMERICAN ENTERPRISE,INC.', 'AAKARSH TRANSPORTS INC.', 'AAMAAR &amp; MAANNIKARAN TRANSIT CORP', 'AAMIR,HAFIZ,M', 'AANISA INC', 'AARON TAXI INC', 'AARON TRANS INC', 'AARON,LOUIS,A', 'AAYALOLO HACKING CORP.', 'AB ICHAKA', 'ABA TRANSPORT CORP', 'ABACUS INDUSTRIES LLC', 'ABACUS INDUSTRIES LLC.', 'ABACUS INDUSTRIES,LLC', 'ABACUS INDUSTRIES,LLC.', 'ABADI,ABDELNASSER,M.', 'ABAEV YURY', 'ABAEV, YAFA', 'ABAEV,EDWARD', 'ABAIDULLA,ANSARI', 'ABAIDULLAH,MUHAMMAD', 'ABARCA, MARIO', 'ABASOV,ZAID,K', 'ABASS,ABASS,E', 'ABAYEV TRANSIT CORP', 'ABAYEV TRANSIT CORP.', 'ABAYEV, MIKHAIL', 'ABAYEV,ILOVU', 'ABAYEV,LEONID', 'ABAYEV,STANISLAV', 'ABAYEV,TRANSIT CORP', 'ABAZA HANI M', 'ABBA TAXI INC', 'ABBAD,AYMAN,ISSA', 'ABBAS MIRZA G', 'ABBAS SYED Q', 'ABBAS, FARHAT', 'ABBAS,AMJAD', 'ABBAS,FAIZ,CHOUDHARY', 'ABBAS,MIAN,TARIQ', 'ABBAS,MOHAMAD', 'ABBAS,MOHAMED,M', 'ABBAS,MUHAMMAD', 'ABBAS,QALAB', 'ABBAS,RAZA', 'ABBAS,SAJAD', 'ABBAS,SHABBIR', 'ABBAS,SHUJAAT', 'ABBAS,SYED,G', 'ABBAS,SYED,HASAN', 'ABBAS,SYED,N', 'ABBAS,SYED,QULLAB', 'ABBAS,SYED,T', 'ABBAS,TAHER', 'ABBAS,YASIR', 'ABBASI,MOHAMMAD,I', 'ABBASI,MOHAMMED,Y.', 'ABBASI,RAFAZ,M', 'ABBASI,SHABBIR,M', 'ABBASI,TAHIR', 'ABBASI,WAQAR', 'ABBATE,SALVATORE', 'ABBEL CAB CORP.', 'ABBELARD,JEAN,EDZER', 'ABBOTT LIMOUSINE SERVICE INC', 'ABBOTT,VALLEN,S', 'ABC GLOBAL LIMO CORP', 'ABC INTL LIMO CORP', 'ABC LIMOUSINE INC', 'ABD-ELHAFEZ,KAREM,M', 'ABD-ELSYED,MENA,M', 'ABDALKADAR,MOHAMED,A', 'ABDALKWY,ABDALLA,A', 'ABDALLA,ALYAS,E', 'ABDALLA,ELSAYED,A,B', 'ABDALLA,FATMA,M', 'ABDALLA,HAZEM,M', 'ABDALLA,SALEH,A', 'ABDALLA,SAMIR,H', 'ABDEL,RANDA', 'ABDEL-AZIZ,MOHSEN', 'ABDEL-DIAB,YAMIN', 'ABDEL-HAMID,HATEM', 'ABDEL-SALAM,MOHAMED', 'ABDELAAL,MAMDOUH', 'ABDELAAL,MOHSEN', 'ABDELAAL,MOUSTAFA,E', 'ABDELALIM,GAMAL', 'ABDELATTI,AHMED,R', 'ABDELATY,IBRAHIM,S', 'ABDELAZIZ,AHMED,E', 'ABDELDAYEM, EHAB, H', 'ABDELGAFOUR,SAFAA,A', 'ABDELGAIED ADEL F', 'ABDELGAWAD,ALAA,M', 'ABDELHADY G MAHMOUD', 'ABDELHALEM,MOHAMED,A', 'ABDELHAMEED,HELMY,M', 'ABDELHAMEID,M,S', 'ABDELHAMID MOHAMED H', 'ABDELHAMID,ABDELELAH', 'ABDELHAMID,ESSAM A.', 'ABDELHAMID,IBRAHIM', 'ABDELHAMID,MOHAMED,M', 'ABDELHAMID,WAJDE,A', 'ABDELHAY,ESMAT,A', 'ABDELJAWAD,ABDEL,R', 'ABDELKADER,ATEF,M', 'ABDELKHALEQ,MOZEH,K', 'ABDELLAH ELBASITE', 'ABDELLAOUI,BOUBKER', 'ABDELLATIF,AHMED,M', 'ABDELLATIF,SAID,M', 'ABDELMAGED,AHMED', 'ABDELMALAK,EMEIL,S', 'ABDELMESIEH,MAGDI,S', 'ABDELMONEIM,MAGDI,S', 'ABDELMOTALEB,AHMED,I', 'ABDELNABY,MOHAMED,A', 'ABDELRAHIM,MAHMOUD,A', 'ABDELRAHMAN, HAMDY, M.', 'ABDELRAHMAN,MOH,D,D', 'ABDELSALAM,EZALDIN', 'ABDELSALAM,MAHMOUD,A', 'ABDELWAHED,AMR,A', 'ABDELWAHED,MOHAMED', 'ABDERRAHMANE,ZAAF', 'ABDIL  SAY', 'ABDO,ASFAW,M', 'ABDO,HAFITH,M', 'ABDOOL,FARIED', 'ABDOU,EHAB,A', 'ABDOU,MOUSTAFA,K', 'ABDOULAYE,BAGAYOGO', 'ABDOULAYE,SOUMAHORO', 'ABDOULAYE,SYLLA', 'ABDOURAHM BAH', 'ABDU,MOHAMMED,N &amp; HEDRU,HABTEAB,S', 'ABDUL GHAFOOR', 'ABDUL LLC', 'ABDUL Q.KAYANI', 'ABDUL RAHIM', 'ABDUL,MUGEEB,AKBARR', 'ABDUL,SAMAD', 'ABDUL-HALIM,LOTFI,M', 'ABDUL-HAQ,GHALEB', 'ABDULHAQ,SAMEEH,H', 'ABDULLA,SADEK,A', 'ABDULLAH, HAROON', 'ABDULLAH,IMRAN', 'ABDULLAH,MUHAMMAD', 'ABDULLAH,WALLY', 'ABDULLAHU,RIDVAN', 'ABDULMAGEED,TAMER,A', 'ABDULRAHMAN,MOHAMMAD', 'ABDURAKHMANOV, DANIEL', 'ABDUSATTAROV,AZIM', 'ABECEDES SERVICE CORP.', 'ABEDELNABI MANSOUR', 'ABEDIN,JOYNUL,M', 'ABEDIN,MOHAMMED,J', 'ABEDNEGO,JOB', 'ABEDRABBO,M,K', 'ABEKA-AMOAH,ALEX', 'ABEL AMB&amp;MED TRA SRV INCDBA PRFCT CHC', 'ABEL,LEONID', 'ABEL,PIERRE,NMI', 'ABELARD,JEAN F.', 'ABELARD,JEAN,F', 'ABELARD,SERGO', 'ABELASHVILI,GIORGI', 'ABELLA,CARLOS,H', 'ABERS TRANSPORTATION INC', 'ABES SERVICE CORP.', 'ABEYNAYAKA,ERROL', 'ABI CAB CORP', 'ABID HUSSAIN', 'ABID,ABDUL,H', 'ABID,ALI', 'ABID,MED,REFAAT', 'ABID,MOHAMMAD', 'ABIKZER,HAIM', 'ABISKAROON,ASHRAF', 'ABISSE,OMER,S', 'ABKOVICH,GENNADY', 'ABL AUTO CORP', 'ABL AUTO CORP.', 'ABM CAB CORP', 'ABNER I. ISRAEL', 'ABO-AREDA,MAHMOUD,A', 'ABOEL-ELAA,IBRAHIM,M', 'ABOLA TAXI CORP', 'ABOTE YARE', 'ABOU CISSE', 'ABOU,ARAFA,MOSTAFA', 'ABOU,CISSE', 'ABOU,SARABOUNOU', 'ABOU,TRAORE', 'ABOUBAKAR,FOFANA', 'ABOUDAKA,ELSAYED,M', 'ABOUDESHISH,HAZEM,H', 'ABOUDOULAYE,SALAMI', 'ABOUELELA EMAD A', 'ABOUELENEIN,MOHAMED', 'ABOUELFADL, MOHAMED', 'ABOUELFEITOUH,ALI,A', 'ABOUELKHIR,FAROK,T', 'ABOUELNASR,HAMED,M', 'ABOUGHIDIA,KHALED,F', 'ABOUHATSIRA, IRIS', 'ABOUHEIF,AMIN', 'ABOUSALEM,HANY', 'ABOUSETTA,MOHAMED,M', 'ABOUSHADY,MAHMOUD,A', 'ABOUZEID,NABILA,A', 'ABOUZID,AHMED,H', 'ABOUZIED,YOUSRY,E', 'ABOUZNAK,AMJAD,M', 'ABOZAID,ABOZAID,A', 'ABOZEID,TAREK,S &amp; SOLIMAN,TAREK,F', 'ABRAHA,MULU,I', 'ABRAHAM DORY', 'ABRAHAM TRANSPORT INC', 'ABRAHAM TRANSPORTATION SERVICE INC', 'ABRAHAM TRANSPORTATION,INC', 'ABRAHAM, LEON', 'ABRAHAM, VARUGHESE K.', 'ABRAHAM,JOHN,K.', 'ABRAHAM,LESLY', 'ABRAHAMOV,YURI', 'ABRALO SERVICE CORP.', 'ABRAM TAGMIZYAN', 'ABRAMOV, ARKADIY', 'ABRAMOV, ISRAIL, O', 'ABRAMOV, MIKHAIL', 'ABRAMOV, RUBEN', 'ABRAMOV, VALERY', 'ABRAMOV,ARTUR', 'ABRAMOV,BORIS', 'ABRAMOV,SAMON', 'ABRAMOVICH ALEKSANDR', 'ABRAMOVITZ, JAKOB', 'ABRAMOWITZ, ALLEN', 'ABRAMSON, DAN', 'ABRAR U HAQ', 'ABRASHKIN, VIACHESLAV', 'ABREU FREDY N', 'ABREU, JESUS, M', 'ABREU, JUAN,A', 'ABREU, RAFAEL', 'ABREU, YUDILUZ, A', 'ABREU,CARLOS', 'ABREU,CARLOS,M', 'ABREU,CROILYN,F', 'ABREU,DILCIA,E', 'ABREU,ENRIQUE,D', 'ABREU,ERIBERTO,A', 'ABREU,EUGENIO', 'ABREU,FELIX,A', 'ABREU,FERMIN,A', 'ABREU,FREDDY,L', 'ABREU,GERMAN', 'ABREU,GERMAN,ESTEBAN', 'ABREU,ISAEL,A', 'ABREU,JORGE,A.', 'ABREU,JOSE', 'ABREU,JOSE,A', 'ABREU,JOSE,R', 'ABREU,JUAN,A', 'ABREU,JUAN,MANUEL', 'ABREU,JUAN,U', 'ABREU,JUSTO', 'ABREU,LUIS', 'ABREU,MANUEL', 'ABREU,MAXIMO', 'ABREU,MERCEDES,ROWAL', 'ABREU,NELSIDO,A', 'ABREU,NESTOR,E', 'ABREU,PASCUAL', 'ABREU,PLINIO', 'ABREU,RAFAEL,A', 'ABREU,RAFAEL,L', 'ABREU,RAMON', 'ABREU,RAMON,A', 'ABREU,RAMON,ANIBAL', 'ABREU,RICHARD', 'ABREU,RICHARD,J', 'ABREU,SANDY,W', 'ABREU-CARABALLO,A,A', 'ABREU-CRUZ,FELIPE,C', 'ABREU-FELIX,CARLOS,C', 'ABREU-FERNANDEZ,J,D', 'ABREU-LEONARDO,FELIX', 'ABREU-NUNEZ,ROBERTO', 'ABREU-SANTOS,FRADWIN', 'ABREUS LUXURY CAR SERV CORP', 'ABREUS LUXURY CAR SERVICE CORPORATION', 'ABRIL,LUIS,H', 'ABRIL,SIXTO', 'ABRO SERVICE CORP.', 'ABSOLU EXANOR', 'ABT LIM0 SERVICE INC.', 'ABT LIMO SERVICE INC', 'ABT LIMO SERVICE INC.', 'ABT LIMO SERVICE, INC', 'ABT LIMO SERVICE, INC.', 'ABT LIMO SERVICE_INC', 'ABT LIMOUSINE SERVICE INC', 'ABT LIMOUSINE SERVICE INC.', 'ABT LIMOUSINE SERVICE,INC.', 'ABU,FESTUS,O', 'ABU-HAMDA MUNTHER N', 'ABU-SABE,SALEH,H', 'ABUALROUB,MUNEER,A', 'ABUALYA,DURAR,M', 'ABUAQOULA,FAISAL,M', 'ABUAWWAD,SAMIR,I', 'ABUBAKAR,ALHASSAN,R', 'ABUBAKAR,MOHAMMED', 'ABUBAKARI-SADIK,S', 'ABUBAKER,KAMAL,D', 'ABUGHAZALEH,AMR', 'ABUL,KASHEM', 'ABUODEH,SALMAN,MS', 'ABURABIA,MOHAMMAD,H', 'ABURAMILAH,M,N', 'ABURMEILEH,KHAMIS,A', 'ABUSEIF, EMAN A.', 'ABUSHAWISH,MOHAMED,W', 'ABUZAHRA,NASER,FATHI', 'ABUZAHRIEH,ADIB', 'ABUZAHRIYEH,RADI,A,K', 'ACA TRANSPORTATION INC', 'ACAR,GURAY', 'ACASIN LEASING,INC', 'ACAYLAR, ALDEN, B.', 'ACCA TRANS CORP.', 'ACCAD CAB CORP', 'ACCELA CAPITAL FINANCE LLC', 'ACCEPTABLE TAXI LLC', 'ACCESS AMBULETTE SERVICE INC', 'ACCESS PLUS TRANSPORTATION CORP', 'ACCESS PLUS TRANSPORTATION INC', 'ACCORD LIMOUSINE INC', 'ACCREDITED LIMOUSINE SERVICE LLC', 'ACE GOLD LIMO INC', 'ACE LUXURY LIMOUSINE INC', 'ACERO,BELLA,R', 'ACERO,LUIS,A', 'ACERO,MARITZA,E', 'ACERO,NELSON,P', 'ACERO,WASHINGTON,J', 'ACES TRANSPORTATION INC', 'ACEVEDO AUTO CORP', 'ACEVEDO MULTISERVICE INC', 'ACEVEDO, GUILLERMO, L', 'ACEVEDO,ARMANDO,A', 'ACEVEDO,DOMINGO', 'ACEVEDO,HABNEL,D', 'ACEVEDO,JORGE', 'ACEVEDO,JOSE,A.', 'ACEVEDO,JOSE,O', 'ACEVEDO,JOSEFINA', 'ACEVEDO,JUAN,DEJESUS', 'ACEVEDO,JUAN,I', 'ACEVEDO,LORENZO,I', 'ACEVEDO,LUIS,F', 'ACEVEDO,MIGUEL,A', 'ACEVEDO,PABLO', 'ACEVEDO,RUDY,E', 'ACEVEDO,SERGIO,M.', 'ACEVEDO,WILBIN,A', 'ACEVEDO-LOPEZ,A,E', 'ACEVEDO-LORA,F,J', 'ACEVEDO-MORALES,P', 'ACGA2007 INC', 'ACGSA TRANSIT INC', 'ACHARJEE,BABUL,K', 'ACHIBANE,HASSAN', 'ACHILLE,SERGE', 'ACHILLE,WILLIAM', 'ACHKIR,ABDELILAH', 'ACIR CORP', 'ACIR CORPORATION', 'ACJ HACKING CORP', 'ACKA TAXI CO INC', 'ACLUCHE, PRESSOIR J.', 'ACOSTA - MARTINEZ,A,M', 'ACOSTA,ABERCIO,A', 'ACOSTA,ADRIAN', 'ACOSTA,ANTONIO', 'ACOSTA,CARLOS,E', 'ACOSTA,CARLOS,F', 'ACOSTA,CESAR', 'ACOSTA,ENVERT,H', 'ACOSTA,EULOGIO,G', 'ACOSTA,EUSEBIO', 'ACOSTA,FRANCISCO', 'ACOSTA,FRANCISCO,M', 'ACOSTA,FREDY', 'ACOSTA,GENARO,G', 'ACOSTA,IGNACIO', 'ACOSTA,JUAN,I', 'ACOSTA,JULIO,C', 'ACOSTA,LIBRADO,N', 'ACOSTA,LILIANA', 'ACOSTA,MACARIO', 'ACOSTA,MANUEL,I.', 'ACOSTA,PEDRO,M', 'ACOSTA,RAFAEL,L', 'ACOSTA,ROBERT,R', 'ACOSTA,SEGUNDO,H', 'ACOSTA,SOCRATES,G', 'ACOSTA,TOMAS,A JR', 'ACOSTA,VICTOR,J', 'ACOSTA-ROSA,ROBERT', 'ACQUAH,FRANK,ODURO', 'ACROPOLIS TAXI INC', 'ACT AMBULETTE INC', 'ACTION AMBULETTE INC', 'ACTION TEAM INC', 'ACTIVE TAXI CORP', 'ACUNA, JOSE,R', 'ACUNA,WILSON', 'ACUNA-RAMIREZ,YOBANA', 'ACURIO,MARIANO', 'ADA TAXI CORP', 'ADALISSA LIMO INC', 'ADALISSA LIMO INC.', 'ADALISSA LIMO,INC', 'ADALISSA LIMO,INC.', 'ADAM &amp; ZIAD LIMO INC', 'ADAM 1 SERVICE CORP', 'ADAM SETH TAXI INC', 'ADAM,FIZAL', 'ADAM,WEGLARZ', 'ADAMA CISSE', 'ADAMA,KOUMA', 'ADAMCZYK,ZBIGNIEW', 'ADAMES PEDRO A', 'ADAMES,AGUSTIN,A', 'ADAMES,ANDRES,D', 'ADAMES,EDUARDO', 'ADAMES,ELADIO,A', 'ADAMES,JOSE A', 'ADAMES,JULIO', 'ADAMES,LUIS,B', 'ADAMES,MARIANO', 'ADAMES,MAXIMO,E', 'ADAMES,SINITO,A', 'ADAMES-NUNEZ,JOSE,A', 'ADAMESVALERIO,J,M', 'ADAMO TRANSPORTATION INC', 'ADAMS,ABDUL,R', 'ADAMS,DEXTER', 'ADAMS,KUWAN', 'ADAMSKI,MIROSLAW', 'ADANO SERVICE CORP', 'ADARKWA,DANIEL,D', 'ADARKWAH,OTUO&amp;AGYEMAN,EVELYN,OPOKY', 'ADAWY,TAREK', 'ADBAUM CAB CORP', 'ADDAE,JOHN,M', 'ADDAI,GORDON', 'ADDAI,NOAH', 'ADDAI-MENSAH,MAXWELL &amp; AMO,YAW', 'ADDANE,KWASI', 'ADDARICH,HECTOR,A', 'ADDOUCHE,MALIK', 'ADE,BASHIRU', 'ADE,FRED,J', 'ADEBIYI,ADEWALE,J', 'ADEBOGUN,ADELEKE', 'ADEDJOUMA,KAMALOUDNE', 'ADEEL TRANSPORTATION INC', 'ADEEL TRANSPORTATION INC.', 'ADEEL TRANSPORTATION,INC.', 'ADEGBO,NEWTON,D', 'ADEKAHUNSI,GABRIEL,O', 'ADEKUNLE,ADEMOSU,B', 'ADEL S HANNA', 'ADEL SHALTOUT', 'ADELA CAB CORP', 'ADELEGBE,OLUBAYO', 'ADELFA LIVERY CORP', 'ADELFA LIVERY CORP.', 'ADELPHI TAXI CORP', 'ADELSON,JEAN,B', 'ADELSON,VICTOR', 'ADEOLA O ADEGBONMIRE', 'ADERONMU,TAIWO,T', 'ADETIMIRIN,MICHAEL,A', 'ADETUNJI,PRINCE,A', 'ADEYEMI,ADISA', 'ADEYEMI,BABATUNDE,A', 'ADEYEMO,SAMSON,A', 'ADEYINKA,AYODELE', 'ADI HACKING CORP', 'ADIGUZEL,AYDIN', 'ADILOV,SEYRAN,A', 'ADILOV,SHOABZAL', 'ADINAMIA MOU INC', 'ADINYAYEV,BENYAHU', 'ADINYAYEV,DAVID', 'ADJEI,ADWU', 'ADJEI,EMMANUEL,O', 'ADJEI,JUSTICE,J', 'ADJEPONG,AUGUSTINES,A', 'ADJEPONG,FRANCIS', 'ADJIN,KWAME', 'ADJOKATCHER,MICHAEL, K.', 'ADJOOR,NIMER,MUSTAFA', 'ADLAI LIMO INC', 'ADLAI LIMO INC.', 'ADLAI LIMO,INC', 'ADLAI,LIMO INC,', 'ADLY GROUP EXECUTIVE LIMO INC', 'ADMIRAL OPERATING CORP', 'ADMIRE MY TAXI LLC', 'ADNAN,MOHAMMAD,S', 'ADNANE,DRISS', 'ADOLPHE,JEAN,YONEL', 'ADOM RENTAL TRANS INC', 'ADOM RENTAL TRANS.,INC.', 'ADOM RENTAL TRANSP INC.', 'ADOM RENTAL TRANSPORTATION INC', 'ADOM RENTAL TRANSPORTATION INC.', 'ADOM RENTAL TRANSPORTATION, INC.', 'ADOM RENTAL TRANSPORTATION,INC.', 'ADOM RENTAL TRASNSPORTATION INC', 'ADOM RENTAL TRASPORTATION,INC.', 'ADOM, KWABENA', 'ADOM,NANA,K', 'ADOM,RENTAL,TRANSPORTATION,INC', 'ADOM;RENTAL TRANSPORTATION', 'ADOMAKO,KWABENA SR.', 'ADON BEATO', 'ADON,LUCIANO', 'ADOU,ERNEST,I', 'ADR TAXI CORP', 'ADRIAN,JOSE,M', 'ADRIANO H MARTINEZ', 'ADRIANO MARTE', 'ADRIATIC CAR SERVICE INC', 'ADRIATIC CAR SERVICE,INC', 'ADRIATIC CAR SERVICE,INC.', 'ADRIATIC LIMOUSINE &amp; MOTORS INC', 'ADRIEN, MAX PIERRE', 'ADRIEN,GIDSON', 'ADRIEN,JEAN,R', 'ADU,AYOADE,J', 'ADU,PETER', 'ADU-GYAMFI,PAUL', 'ADULT SERVICE CORP', 'ADUTWUM,PETER,O', 'ADUWARE,ROBERT,G', 'ADVANTAGE CAR &amp; LIMO INC.', 'AEA TAXI CORP', 'AEM TRANSPORTATION CORP', 'AERO TAXI CORP', 'AERO TRANS,INC.', 'AETNA TAXI CORP', 'AFADIVI,EDWARD,K', 'AFAQ,NASIR', 'AFERITASH HACKING CORP', 'AFFISSIO,JOHN', 'AFFORDABLE LUXURY LIMOUSINE INC.', 'AFFORDABLE SENIOR CARE INC', 'AFFORDABLE SENIOR CARE INC/ASC TRNSPRTN.', 'AFFORDABLE SENIOR CARE INC/ASC.TRNSPRTN.', 'AFIFI,AMR', 'AFIFI,TAREK', 'AFONIN,IGOR', 'AFORIA CAB CORP', 'AFRIAT,NATAN &amp; ORLY', 'AFRICAN CONNECTIONS &amp; TECHNOLOGIES INC', 'AFRICAN EXPRESS', 'AFRIDI,ZAMAN,KHAN', 'AFRO LIMOUSINE INC', 'AFRODENT CORP', 'AFSAR,BASHIR', 'AFSAR,NURUL', 'AFSAR,ZAREEN,A', 'AFTAB,AHMAD', 'AFTAB,MOHAMMAD,N', 'AFZAL FARRUKH S', 'AFZAL MUHAMMAD', 'AFZAL SHAZAD', 'AFZAL TRANSPORTATION CO LLC', 'AFZAL,MOHAMMAD', 'AFZAL,MUHAMMAD', 'AFZAL,MUHAMMAD,W', 'AFZAL,RAJA,W', 'AFZAL,RIZWAN', 'AFZAL,ZULFIQUEAR', 'AGAMA-CORREA,MARIO,P', 'AGAMI,SHERIF,A', 'AGAMIRZAEV,RUSTAM', 'AGAPE-MOU CAB CORP', 'AGARD RONALD M', 'AGARD,CHARLES,S', 'AGATES TRANSIT INC.', 'AGAUTO WORLD HACKING CORP', 'AGBAI,EMMANUEL,C', 'AGBELOR,EDMUND', 'AGBOKA,THOMAS', 'AGBONIFO,IDAHOSA', 'AGEN TAXI CORP', 'AGGARWAL,ASHWANI,K. BAINS,DALWINDER,S.', 'AGGERUP,JOSEPH', 'AGGRESSIVE LEASING INC', 'AGHA,INAMUR,R', 'AGHA,KHURRAM,R', 'AGHA,MOHAMMAD,I', 'AGHA,SHABNAM,K', 'AGHAABDUL,SAMI,K', 'AGHANWA,ALEXANDER,N', 'AGI SERVICE CORP.', 'AGIBAYLOV,ALEXANDER', 'AGION OROS TAXI INC', 'AGISHEV,VLADIMIR', 'AGNAOU,HASSAN', 'AGORA TAXI CORP', 'AGORA TRANSPORT CORP.', 'AGOSTA,JOHN,T', 'AGRA TRANSIT INC', 'AGRADA,EDWARD,F', 'AGRAMONTE,FERNANDO,A', 'AGRAMONTE,ROBERTO', 'AGRAMONTE,WILSON J', 'AGRONI ENTERPRISE INC', 'AGRONI ENTERPRISE INC.', 'AGRONI ENTERPRISE,INC.', 'AGU,MICHAEL,C', 'AGUAGALLO,JOSE', 'AGUAIZA,ANGEL,R', 'AGUAIZA,SEGUNDO,D', 'AGUAIZA-TENEZACZ F T', 'AGUASVIVA, HECTOR, R', 'AGUAYSA,MANUEL,M', 'AGUAYSA,SEGUNDO,M', 'AGUAYZA, MARTIN', 'AGUAYZA,LUIS,A', 'AGUDELO LUIS A', 'AGUDELO,JESUS,M', 'AGUDELO,LUIS,A.', 'AGUDELO,TEODUARDO', 'AGUDO,LUIS,B', 'AGUERO,ELMER,C', 'AGUERO,RENE,A', 'AGUIAR YSIDRO P', 'AGUIAR,MARIO,E', 'AGUIAR,PEDRO,J', 'AGUILAR, CARLOS, A', 'AGUILAR,AURELIO', 'AGUILAR,JOSE,E', 'AGUILAR,MELIDA,C', 'AGUILAR,NAPOLEON,E', 'AGUILAR,NORA,M', 'AGUILAR-MARTINEZ,A,E', 'AGUILERA,JUAN,C', 'AGUILERA,OSCAR,E', 'AGUILO,LEONARDO', 'AGUIRRE,MARIO,A', 'AGUIRRE,VILMO,E', 'AGUR CORP', 'AGUSTIN,RAFAEL,A', 'AGUVAYEV,SEMYON', 'AGUVAYEV,VADIM,R', 'AGYEMANG, ALBERT', 'AGYEMANG,OSEI,B', 'AH, YOE', 'AHAD,MOHAMMED,A', 'AHAD,ZIA', 'AHAMADI,IQBAL', 'AHAMED,ALAM', 'AHAMED,KHALID', 'AHAMED,SERAZ,UDDIN', 'AHAMED,SYED,S', 'AHAMMED,SHALE', 'AHARONY TAXI CORP', 'AHAVA ACCESS INC', 'AHEMMED,FIRUZ,U', 'AHMAD CHAUDHRY', 'AHMAD IFTIKHAR', 'AHMAD KHALIL', 'AHMAD MOHAMMAD A', 'AHMAD, AZIZ', 'AHMAD, FAYYAZ', 'AHMAD, MOHAMMAD S.', 'AHMAD, MUSHTAQ', 'AHMAD,AFTAB', 'AHMAD,AFZAAL', 'AHMAD,AKHLAQ', 'AHMAD,ALI', 'AHMAD,ANWAR', 'AHMAD,AYMAN,A', 'AHMAD,CHOUDARY,A', 'AHMAD,EJAZ', 'AHMAD,FARHAT', 'AHMAD,FEROJ', 'AHMAD,IFTIKHAR', 'AHMAD,IJAZ', 'AHMAD,IMTIAZ', 'AHMAD,ISHTIAQ', 'AHMAD,ISHTIAQ &amp; CHAUDHERY,SHAHID', 'AHMAD,KALEEM', 'AHMAD,KHALIL', 'AHMAD,MAQSOOD', 'AHMAD,MOHAMMAD M', 'AHMAD,MOHAMMAD,A', 'AHMAD,MOHAMMAD,S', 'AHMAD,MUHAMMAD,R', 'AHMAD,MUKHTAR', 'AHMAD,MUNIR', 'AHMAD,MUSHTAQ', 'AHMAD,NAJEEB,A', 'AHMAD,NASAR', 'AHMAD,NAVEED', 'AHMAD,NAVEED,A', 'AHMAD,NAWAZ', 'AHMAD,NIAZ', 'AHMAD,NOOR', 'AHMAD,RAID,M', 'AHMAD,RASHID', 'AHMAD,RIAZ', 'AHMAD,SAJID', 'AHMAD,SALMAN', 'AHMAD,SARFRAZ', 'AHMAD,SHABBIR', 'AHMAD,SHAHBAZ', 'AHMAD,SHEIKH,M', 'AHMAD,SHEIKH,SHAHZAD', 'AHMAD,SHERAZ', 'AHMAD,SHOAIB', 'AHMAD,SHUAB', 'AHMAD,SOHAIL', 'AHMAD,TASEER', 'AHMAD,TOFAEL', 'AHMAD,WAQAR', 'AHMAD,WASEEM', 'AHMAD,WASEEM,M', 'AHMAD,ZAHEER,A', 'AHMAD,ZAHOOR', 'AHMAD,ZULFIQAR', 'AHMAD,ZULFOKAR', 'AHMAD-SALEH,MOHAMED', 'AHMED CHAUDHARY M', 'AHMED FEROZ', 'AHMED GANIYU O', 'AHMED H. WEHEBA', 'AHMED IMRAN', 'AHMED MAHMOOD', 'AHMED MAHMUD', 'AHMED MIR', 'AHMED MOHAMMAD MASOOD', 'AHMED NASIR', 'AHMED RAFIQ', 'AHMED RAJA CORPORATION', 'AHMED RAJA CORPORATION.', 'AHMED RAJA,CORPORATION.', 'AHMED SABIR', 'AHMED SHAFIG', 'AHMED TAQDEER', 'AHMED TAXI LLC', 'AHMED ZULFIQAR', 'AHMED, ABBAS', 'AHMED, ALTAF H.', 'AHMED, BASHIR', 'AHMED, BENJIR', 'AHMED, CHOUDHRY,M', 'AHMED, IFTEKHAR', 'AHMED, KHURSHED', 'AHMED, MIAN,J', 'AHMED, RAZA', 'AHMED, SAJU', 'AHMED, SYED R.', 'AHMED,ABDUL,J', 'AHMED,ABDUL,R', 'AHMED,ABU', 'AHMED,AFJAL', 'AHMED,AHAD', 'AHMED,AHMED', 'AHMED,AHMED,MOHAMMED', 'AHMED,ALAA,ABDALLAH', 'AHMED,ALAMGIR', 'AHMED,ALAUDDIN &amp; UDDIN,MOHAMMED', 'AHMED,ALI', 'AHMED,ALI,M', 'AHMED,ALI,MOHAMED', 'AHMED,ANSAR', 'AHMED,ANWAR I.', 'AHMED,ARIF', 'AHMED,ARSHAD', 'AHMED,ASHFAQ', 'AHMED,ATIQ', 'AHMED,AZAMAL,HUSSAIN', 'AHMED,AZAZ', 'AHMED,AZIZ', 'AHMED,BABLU', 'AHMED,BAJWA,OZAIR', 'AHMED,BASIT', 'AHMED,BELAL', 'AHMED,CHOUDHARY,K', 'AHMED,EJAZ', 'AHMED,ELHAMY,M', 'AHMED,FAHEEM', 'AHMED,FAISAL', 'AHMED,FARID', 'AHMED,FAROOQ', 'AHMED,FARUK &amp; RAHMAN,MIZANUR', 'AHMED,FARUQUE', 'AHMED,FIAZ', 'AHMED,GIAS,UDDIN', 'AHMED,GUL', 'AHMED,HAFEEZ', 'AHMED,HAMID', 'AHMED,HASAN', 'AHMED,HASSAN', 'AHMED,HASSAN,K', 'AHMED,IBRAR', 'AHMED,IDRIS', 'AHMED,IFTAKHAR', 'AHMED,IFTIKHAR', 'AHMED,IFTIKHAR &amp;KHAN,AKHTAR', 'AHMED,IJAZ', 'AHMED,IKHLAQ', 'AHMED,IMRAN', 'AHMED,IMTIAZ', 'AHMED,IQBAL', 'AHMED,ISHTIAQ', 'AHMED,JAMAL', 'AHMED,JAMAL,UDDIN', 'AHMED,JAMIL', 'AHMED,JASIM,UDDIN', 'AHMED,JUBER', 'AHMED,JUYEL', 'AHMED,JWEL', 'AHMED,KAMAL', 'AHMED,KHALID', 'AHMED,KHURSHID', 'AHMED,MAHER', 'AHMED,MAHER,M', 'AHMED,MAHMOOD', 'AHMED,MAHMOUD,A', 'AHMED,MAHMOUD,I', 'AHMED,MAJED,MUSAID', 'AHMED,MAMDOH,S', 'AHMED,MANSOOR', 'AHMED,MD,M', 'AHMED,MD,RANA', 'AHMED,MD,W', 'AHMED,MOHAMED,F', 'AHMED,MOHAMED,GHRIB', 'AHMED,MOHAMED,H', 'AHMED,MOHAMED,O,E', 'AHMED,MOHAMED,S', 'AHMED,MOHAMMED', 'AHMED,MOHAMMED,A', 'AHMED,MOHAMMED,K', 'AHMED,MOHAMMED,S', 'AHMED,MOHIUDDIN', 'AHMED,MOHSEN', 'AHMED,MUFID', 'AHMED,MUKHTAR', 'AHMED,MUKUL', 'AHMED,MUMTAZ', 'AHMED,MURAD', 'AHMED,MUSHTAQ', 'AHMED,MUSTAK', 'AHMED,MUZAFFAR', 'AHMED,NADEEM', 'AHMED,NADEEM,U', 'AHMED,NAION &amp; AHMED,KUTUB,U', 'AHMED,NAJIM', 'AHMED,NASEER', 'AHMED,NAVEED', 'AHMED,NAWAZ', 'AHMED,NIAZ', 'AHMED,NISAR', 'AHMED,OSSAMA,M', 'AHMED,RAFIQUE,U', 'AHMED,RAJA,S', 'AHMED,RAMZI,A', 'AHMED,RASHEED &amp; WEARK,MUHAMMED', 'AHMED,RAZU', 'AHMED,RIAZ &amp; RIAZ,AJMAL', 'AHMED,RIZWAN', 'AHMED,ROMANA', 'AHMED,RUBEL', 'AHMED,SAGIR', 'AHMED,SAIFUL,S', 'AHMED,SALEEM', 'AHMED,SARFRAZ &amp; AHMED,WAQAR', 'AHMED,SHABBIR', 'AHMED,SHAFAYET', 'AHMED,SHAFIQ', 'AHMED,SHAFIQUE', 'AHMED,SHAH,S', 'AHMED,SHAHBAZ', 'AHMED,SHAHZAD', 'AHMED,SHAKE,R', 'AHMED,SHAKEEL', 'AHMED,SHAMIM', 'AHMED,SHIHAB', 'AHMED,SOHAIL', 'AHMED,SOHEL', 'AHMED,SULTAN', 'AHMED,SUMON', 'AHMED,SYED', 'AHMED,SYED,JAWED', 'AHMED,SYED,K', 'AHMED,SYED,WAQAR', 'AHMED,TALUKDER,S', 'AHMED,TAMER,H', 'AHMED,TARIQ', 'AHMED,TAWFIK,SAID', 'AHMED,YOUSSEF,T', 'AHMED,ZAHEER', 'AHMED,ZAHIR', 'AHMED,ZIA', 'AHMED,ZUBAIR', 'AHMED,ZULFIQAR', 'AHMMED,S,M,SHAKIL', 'AHN,BEYONG,J', 'AHN,HAPPYMAN', 'AHOEY,HAMID,ASGHARY', 'AHSAN,CHAUDHRY,M', 'AHSAN,IMRAN', 'AHUJA,ATUL', 'AHUJA,MANOJ', 'AHUMADA MANUEL A', 'AIA UNITED MANAGEMENT INC', 'AIA UNITED MANAGEMENT INC.', 'AIA UNITED MANAGEMENT,INC', 'AIA UNITED MANAGEMENT,INC.', 'AIA UNITED MANAGEMENTINC', 'AIDA CAB CORP', 'AIFA,MOHAMMED,S', 'AIM HIGH CAB CORP', 'AIMAN Y GIRGIS', 'AIME, MARC', 'AIME,CHENEL', 'AIME,FRANTZ', 'AIME,JEAN-PHENOL', 'AINAHMANESH,R', 'AINOS TAXI INC', 'AIRMAX LIMOUSINE LLC', 'AISSATOU,BARRY', 'AIT-GHERBI,DJAMEL', 'AIT-LEBHAR,OMAR', 'AITBIHI,HASSAN', 'AITMHAND-OUBRAHIM, Z', 'AITMHAND-OUBRAHIM,Z', 'AIVAZIS,KONSTANTINOS', 'AJA LIMOUSINE SERVICE, INC', 'AJAGO,INNOCENT,I', 'AJAY KAPOOR', 'AJAYI,LUYI', 'AJAZ,MUHAMMAD', 'AJB TRANSIT INC', 'AJI LIMO LLC', 'AJIBOLA,LANRE,W', 'AJITHKUMAR,P,K', 'AJL CAB CORP.', 'AJOGBOR,ISIMEME,A', 'AKA CAB CORP', 'AKABALU,LAWRENCE,O', 'AKAL LIMO INC', 'AKANBI,ADESOJI,I', 'AKANBI,LANRAY,O', 'AKASH,IMAMUDDIN,MEAH', 'AKASH,PROGRESSIVE,INC', 'AKBAR, ALI', 'AKBAR, EJAZ, HASAN', 'AKBAR, MOHAMMAD', 'AKBAR,ABID,SAEED', 'AKBAR,HOMAYON', 'AKBAR,IRFAN', 'AKBAR,MOHAMMAD', 'AKBAR,MOHAMMAD,R', 'AKBAR,RIZWAN,A', 'AKBAR,WAHEED', 'AKBAR,ZAHEER', 'AKBARYAR,ABDUL,M', 'AKBULUT,ISKENDER', 'AKEEL,MUHAMMAD', 'AKEMU,DAVID', 'AKEREDOLU,OLUWASEGUN', 'AKHA,ISMAEL,I', 'AKHEEM HACKING CORP.', 'AKHERRAZ,HASSAN', 'AKHLAQ,JUNAID', 'AKHTAR JAVEED &amp; ASGHAR ALI', 'AKHTAR, JAVED', 'AKHTAR,ARFEEN', 'AKHTAR,EJAZ', 'AKHTAR,JAVED', 'AKHTAR,MALIK,M', 'AKHTAR,MASOOD', 'AKHTAR,MIAN', 'AKHTAR,MOHAMMAD', 'AKHTAR,MOHAMMAD,P', 'AKHTAR,MOHSIN', 'AKHTAR,MUHAMMAD', 'AKHTAR,MUHAMMAD,S', 'AKHTAR,NADEEM', 'AKHTAR,NAEEM', 'AKHTAR,NASEEM', 'AKHTAR,NAVEED', 'AKHTAR,PERVAIZ &amp; CHAUDHRY,INTTSARY', 'AKHTAR,TANVEER', 'AKHTAR,WASIR', 'AKHTER,MOHD,K', 'AKHTER,SAJJAD', 'AKHTER,SHOFUR', 'AKICI,SAMI', 'AKIF,ABDUL', 'AKIN SAS INCORPORATED', 'AKIN,SABRI', 'AKINLUSI,MICHAEL', 'AKINOLA,BABATUNDE,J', 'AKINSANYA,OLUGBENGA,H', 'AKINYEMI,AKINSOLA,J', 'AKKAS,MICHAEL', 'AKLADYOUS,ALBIR', 'AKLAI, SAM', 'AKLASSOU,KOMLAN', 'AKLEY, SIHAM', 'AKOLA TAXI CORP', 'AKOREDE,RILIWAN,M', 'AKRAM,ATTIQUE', 'AKRAM,CHAUDRY,M', 'AKRAM,MIAN,MOHAMMAD', 'AKRAM,MOHAMMAD', 'AKRAM,MOHAMMAD,NMI', 'AKRAM,MOHAMMAD,S', 'AKRAM,MUHAMMAD,A', 'AKRAMY,MAJED', 'AKRON TAXI CORP', 'AKSAVAS, ERCAN', 'AKSELROD,STANLEY', 'AKTAS, GAZI', 'AKTASH,DERVISH', 'AKTHER,ZULFEZER', 'AKTURK FIKRET', 'AKTURK HIKMET', 'AKTURK SUAYIP', 'AKTURK YUCEL', 'AKTURK, HIKMET', 'AKTURK,YUKSEL', 'AKUZIE,BENSON,U', 'AKYUZ, SECAATTIN', 'AL IMMAN LEASING LLC', 'AL OUMOURA WAL HADJY TRANSPORTATION LLC', 'AL RUIZ LIMOUSINE SERVICE CORP', 'AL-AHWAS,ADEL', 'AL-AKHRAS,MAHMOOD,I', 'AL-ANN CAB CORP', 'AL-BANAA,KALED,A', 'AL-DABISHI YOUSEF', 'AL-EL CAB CORP', 'AL-MUWALLAD,SALEH', 'AL-NA CAB CORP', 'AL-NAGER,AHMED,SALEH', 'AL-SADOUNI,BADER', 'AL-SUSS,ADIB,M', 'AL-YAGOR,NIR', 'AL-ZAWOQARI,BASSAM,R', 'ALAA-ERA INC', 'ALABDI TAHER', 'ALABHAR,SHAIYEF,A', 'ALAEIPOORFARD G', 'ALAFOGIANNIS,A', 'ALAHERI,NAJI,HUSSEIN', 'ALAIWAT,IMAD', 'ALAM MD SAMSUL', 'ALAM, AFSARUL', 'ALAM,ABU,SHAH', 'ALAM,AFTAB', 'ALAM,AKM,ZIAUL', 'ALAM,ASHRAFUL', 'ALAM,BODRUL', 'ALAM,HABIB', 'ALAM,JAMSHED', 'ALAM,KABIR', 'ALAM,KAZI,M', 'ALAM,MAHABUB', 'ALAM,MAHBUB', 'ALAM,MD,A', 'ALAM,MD,F', 'ALAM,MD,KHORSHED', 'ALAM,MD,SHAHIDUL', 'ALAM,MD,SHOHAG', 'ALAM,MOHAMAD,M', 'ALAM,MOHAMMAD', 'ALAM,MOHAMMAD,K', 'ALAM,MOHAMMAD,MANZUR', 'ALAM,MOHAMMAD,S', 'ALAM,MOHAMMAD,SHAH', 'ALAM,MOHAMMED', 'ALAM,MOHAMMED &amp; BHUIYAN,NASIR,UDDIN', 'ALAM,MOHAMMED,A', 'ALAM,MOHAMMED,F', 'ALAM,MOHAMMED,J', 'ALAM,MOHAMMED,NOOR', 'ALAM,MOHAMMED,P', 'ALAM,MOHAMMED,R', 'ALAM,MOHAMMED,S', 'ALAM,MOHAMMED,SHAH', 'ALAM,MOHAMMED,T', 'ALAM,MOINUL', 'ALAM,MORSHED', 'ALAM,NOOR', 'ALAM,RABIUL MD', 'ALAM,RASHED', 'ALAM,RASHEL', 'ALAM,REZAUL,KAMAL', 'ALAM,SARWAR', 'ALAM,SAYEDUL', 'ALAM,SHAH', 'ALAM,SHAHA', 'ALAM,SHARIF,R', 'ALAM,SUMSHUL', 'ALAM,ZAFAR', 'ALAMGIR,MOHAMMAD,F', 'ALAMI-HASSANI,M', 'ALAMI-HASSANI,OMAR', 'ALAMIN,MOHAMMAD,M', 'ALAN GLANSE', 'ALAN HAIMOWITZ', 'ALAN REJAUL', 'ALAN,REJAUL', 'ALANS LIMO INC', 'ALANS LIMOUSINE SERVICE INC', 'ALANSI,MOHAIALDIN,H', 'ALAOUIEH, KIFAH, M', 'ALARCON,JAIME,E', 'ALARCON,JOSE,R', 'ALARCON,JUAN,F', 'ALARCON,MERCEDES,M', 'ALARCON,RICARDO', 'ALARCON-FLORES,C,A', 'ALARM,RAFIUL,SM', 'ALASKA TAXI INC', 'ALASSANE KEITA', 'ALASSANI,NOUROU', 'ALASSARI,HUSSAIN,M', 'ALASSI,IBRAHIM,Y', 'ALATRISTA,GUILLERMO', 'ALATRISTA,MIGUEL,J', 'ALATRISTA,MIGUEL,Y', 'ALAUDDIN SHEIKH M', 'ALAUDDIN,DEWAN', 'ALAVA-ALVARADO,A,A', 'ALAWI,MOSTAFA', 'ALAYEV,BORIS', 'ALAYEV,YADIDIYA', 'ALB TRANSPORTATION CORP', 'ALBA CAR CORP', 'ALBA CAR CORP.', 'ALBA, JOSE M', 'ALBA, MOSHE', 'ALBA,ALFREDO', 'ALBA,JOHNNY,YA', 'ALBA,JOSE,J', 'ALBA,JOSE,R', 'ALBA,VICTOR,R', 'ALBA,WILFREDO,C', 'ALBA,WILSON,A', 'ALBA-CABA,PEDRO,A', 'ALBAKKA,MOHAMAD,S', 'ALBAKRY,YASSER', 'ALBAN, RICHARD', 'ALBAN,CORNELIO,V', 'ALBAN,EDILBER,C', 'ALBANESE LEONARD', 'ALBANESE,CHARLES', 'ALBANNAVI TLC INC', 'ALBANO,ALDO', 'ALBANY CAR &amp; LIMO SERVICE INC', 'ALBANY GLOBAL TRANSPORTATION INC', 'ALBANY GOLBAL TRANSPORTATION INC', 'ALBARRACIN,CARLOS,A', 'ALBARRACIN,FAUSTO', 'ALBARRACIN,JUAN,P.', 'ALBASIR,FARES,A', 'ALBATROZ LIMOTOUR INC', 'ALBATROZ,LIMOTOUR,INC', 'ALBATTRE,HAMILTON', 'ALBEE TAXI CORP', 'ALBERT ISRAILOV', 'ALBERT,SERGE &amp; ANTENOR,WILFRID', 'ALBERTO RAMIREZ', 'ALBERTO,CARLOS', 'ALBERTO,DANILO,A', 'ALBERTO,VIDAL', 'ALBINO,LUIS', 'ALBORNOZ, JORGE, H', 'ALBORNOZ,JORGE,F', 'ALBRASHI,MOHAMED', 'ALBRO HACKING CORP.', 'ALBU,MICHAEL', 'ALBUJA, HERALDOA', 'ALBUJA,LUIS,H', 'ALBURQUEQUE,N,E', 'ALBURQUEQUE,RAFAEL', 'ALBURQUERQUE,N,E,', 'ALC LIMOUSINE LLC', 'ALCALA,MARCELO', 'ALCALDE,CARMENZA', 'ALCANTARA, EDY,D', 'ALCANTARA, RAUL', 'ALCANTARA,JOSE,A', 'ALCANTARA,JUAN,C', 'ALCANTARA,JULIO', 'ALCANTARA,MANUEL,A', 'ALCANTARA,MODESTO', 'ALCANTARA,NELSON', 'ALCANTARA,RAMON', 'ALCANTARA,RAMON,A', 'ALCANTARA,RICHARD,L', 'ALCANTARA-MARTI,JUAN,M', 'ALCARAZ,AUGUSTO', 'ALCENA,LAFRANCE', 'ALCIDE,EPHRAIM', 'ALCIDE,MICHEL', 'ALCIME,ALCIMA,J', 'ALCINA,HUMBERTO,R', 'ALCINAY,JOSEPH,J', 'ALCIVAR, FRANCISCO, P', 'ALCIVAR,GUILLERMO', 'ALCO TAXI CORP', 'ALCOB CAB CORP', 'ALCOBA,RAUL,F', 'ALDAILAM,NABHAN', 'ALDAMOOR TAXI CORP', 'ALDAVE,DARIO,A', 'ALDAZ,ANGEL,P', 'ALDAZ,NARVAEZ,LUIS,E', 'ALDOAIS,MALEK', 'ALEBANTE DAMASO', 'ALEC BOURNE', 'ALEENA CHAUDHARY INC', 'ALEGACY COACHES LTD', 'ALEGAR CAB CORP', 'ALEJANDRO DELACRUZ', 'ALEJANDRO,GUSTAVO,S', 'ALEJO,JOSE', 'ALEKA TAXI INC.', 'ALEKSANDR PAVLOVSKY', 'ALEMAN,JOSE', 'ALERT AMBULETTE SERVICE CORP', 'ALEX &amp; CHRIS INC', 'ALEX &amp; EUGENE CAB CORP', 'ALEX AUTO SALES INC', 'ALEX CAB CORP', 'ALEX LIMO INC', 'ALEX SAAVEDRA', 'ALEX STAR SERVICES LLC', 'ALEX, CHACKO C.', 'ALEXA CORP', 'ALEXA ENTERPRISES INC', 'ALEXA TRANSPORTATION CORP', 'ALEXA TRANSPORTATION INC', 'ALEXANDER KLEVANSKY', 'ALEXANDER KUSHNIROVICH', 'ALEXANDER TAXI CORP', 'ALEXANDER ZAVADSKY', 'ALEXANDER,AMALSON', 'ALEXANDRA TAXI INC', 'ALEXANDRAKIS,IOSIF', 'ALEXANDRE, ANDRE', 'ALEXANDRE, FRANCOIS', 'ALEXANDRE, JEAN', 'ALEXANDRE, PETERSON,C', 'ALEXANDRE, PIERRE J.', 'ALEXANDRE,FRANTZ', 'ALEXANDRE,JOHN', 'ALEXANDRE,LOUBERT', 'ALEXANDRIA CAR &amp; LIMO SERVICE INC', 'ALEXANDROU, ALEXANDROS', 'ALEXANDROV VENIAMIN', 'ALEXANDROV,PAVEL,S', 'ALEXIADIS,MATHEOS', 'ALEXIOU,THOMAS', 'ALEXIS, FRANCIS', 'ALEXIS, MARC', 'ALEXIS,ALEX', 'ALEXIS,GARLINE', 'ALEXIS,JEAN,M', 'ALEXSANDR PLAKHT', 'ALFALFA CORPORATION', 'ALFAQIH,MAHMOUD,A', 'ALFARO, RODOLFO, S', 'ALFARO,OSCAR', 'ALFONSECA,ALCIBIADES', 'ALFONSECA,FREDDY', 'ALFONSO,DUARTE,Y', 'ALFRED KAPPENBERGER', 'ALFRED,HENDRICK,M', 'ALFREDO LICONA', 'ALFREDO,MANCILLA', 'ALGAHIEM,GAHIEM', 'ALGHAITHI,EISSA,A', 'ALGHOS CAB CORP.', 'ALGI TAXI CORP.', 'ALGIN,KAZIM,FAIK', 'ALGOJENN TRANSPORTATION INC', 'ALHAMAYEL,SOHAIB', 'ALHAMDOU,INC', 'ALHANSHALI,KAHTAN,M', 'ALHONTE, EDITH &amp; SAM', 'ALHUSARI,AHMAD,Y', 'ALI CHAUDHARY RIASAT', 'ALI MOHAMED R', 'ALI MOHAMMAD A', 'ALI MOHAMMED M', 'ALI MOMAMMED A', 'ALI SYED SHOMSHER', 'ALI, DEWAN, MOHAMMAD', 'ALI, KORBAN', 'ALI, NASIR', 'ALI, RAFAQAT', 'ALI, SAFDAR', 'ALI,ABDO,M', 'ALI,ABDO,M,Q', 'ALI,ABDUL,A', 'ALI,ABID', 'ALI,AFRUZ', 'ALI,AGHA,ZAHID', 'ALI,AHMED', 'ALI,AHMER', 'ALI,AHSAN', 'ALI,AKHTAR', 'ALI,AKM,SHOWKAT', 'ALI,ALI,H', 'ALI,ALI,M', 'ALI,ALI,SHAMSAN', 'ALI,ALTAF,H', 'ALI,AMIR', 'ALI,ANDREW', 'ALI,ANJUM', 'ALI,ANZAR', 'ALI,ARIF', 'ALI,ASAD', 'ALI,ASGHAR', 'ALI,ASMAT,M', 'ALI,ATHER', 'ALI,AYUB', 'ALI,BABAR', 'ALI,CH,LIAQUAT', 'ALI,CHAUDHRY,I', 'ALI,CHAUDHRY,L', 'ALI,CHAUDHRY,NAIMAT', 'ALI,CHERIF,AMINE,B', 'ALI,CHOUDHARY,A', 'ALI,DAOUD,BARAKAT', 'ALI,FARID', 'ALI,FARMAN', 'ALI,FATHAN,M', 'ALI,FAYYAZ', 'ALI,HAFFIZULE', 'ALI,IBRAHIM,M', 'ALI,IFTIKHAR', 'ALI,INSAN', 'ALI,JAMEER', 'ALI,JAVED,ISHRAT', 'ALI,JOSIM,SYED', 'ALI,KARAMAT', 'ALI,KAYES,WASIR', 'ALI,LIAQAT', 'ALI,LIAQUAT', 'ALI,MAHBOOB', 'ALI,MAHMOOD', 'ALI,MAHMOOD,A', 'ALI,MANSHA', 'ALI,MD,A', 'ALI,MD,FORHAD', 'ALI,MD,MONSUR', 'ALI,MEER,A', 'ALI,MIAN,A', 'ALI,MOHAMMAD', 'ALI,MOHAMMAD,A', 'ALI,MOHAMMAD,I', 'ALI,MOHAMMAD,IDRIS', 'ALI,MOHAMMAD,IJAZ', 'ALI,MOHAMMAD,SAZZAD', 'ALI,MOHAMMAD,WAHEED', 'ALI,MOHAMMAD,YOUSUF', 'ALI,MOHAMMED,PORASH', 'ALI,MOHAMMED,S', 'ALI,MOHAMMED,W', 'ALI,MOSTAFA,A', 'ALI,MUHAMMAD', 'ALI,MUHAMMAD,I', 'ALI,MUHAMMAD,W', 'ALI,MUNAIR,A,A', 'ALI,MUSTACH', 'ALI,NASHID', 'ALI,NAZAR', 'ALI,NAZIM', 'ALI,NURUZZAMAN,R', 'ALI,PARVEZ', 'ALI,RAFAQAT', 'ALI,RAHMAN', 'ALI,RIASAT', 'ALI,RIAZ', 'ALI,RIAZ,S', 'ALI,RUBEL', 'ALI,SAADAT', 'ALI,SABIR', 'ALI,SADEQ,HASSAN,M', 'ALI,SAJID', 'ALI,SAKHAWAT', 'ALI,SHABEER', 'ALI,SHAHZAD,A', 'ALI,SHAJAHAN', 'ALI,SHAMSHER', 'ALI,SHAUKAT', 'ALI,SHAZAD', 'ALI,SHEHZAD &amp; ASHFAQ,MOHAMMAD', 'ALI,SHEIKH,SHAHID', 'ALI,SOHRAB', 'ALI,SORIF', 'ALI,SYED,A', 'ALI,SYED,AFAQ', 'ALI,SYED,H', 'ALI,SYED,MANSOOR', 'ALI,SYED,ZULFIQAR', 'ALI,TAHIRU,M', 'ALI,TAYYAB', 'ALI,USMAN', 'ALI,WARIS', 'ALI,WAZIR', 'ALI,YAZID,E', 'ALI,ZAKARIA', 'ALI,ZULFIQAR', 'ALIAHMED,YACEN,A', 'ALIBHAI,AMIRALI,H', 'ALICE TAXI INC', 'ALIDA CAB CORP', 'ALIFONSO-RIVAS,AMADO', 'ALIG TRANSIT INC', 'ALIIHSAN S/DBA AIS SVCE CO', 'ALIIHSAN SIMSEK', 'ALIIHSAN SIMSEK DBA', 'ALIKHAN MOHAMMED M', 'ALIKHAN, MOHAMMED, H', 'ALIM,MOHAMMAD,A', 'ALINA ABROMOVICZ', 'ALINA TRANSIT INC.', 'ALIOU MOHAMED', 'ALIOU,SANOH,T', 'ALIP CAB CORP', 'ALISALEH IBRAHIM A M', 'ALIU,TAMIMU', 'ALIX,ABRAHAM,A', 'ALIYU,MOUHAMADOU', 'ALJIBAWI,WAJEH,M', 'ALKABAZ,BACHAR', 'ALKADY,NOUNIR,A', 'ALKAIFEE,ABRAHEM,M', 'ALKAIFI,RIZK,A', 'ALKANDRY,AMINE,M', 'ALKANDRY,SOAID', 'ALKANSHALLY,NABIL', 'ALKASRI,FATAH,HIZAM', 'ALKAYFEE,MOHAMED,A', 'ALKHATAB,ABDELJALIL', 'ALKHATIB,NASSEREDN,R', 'ALKHATIB,WASFI,A', 'ALKUSARI,MOHAMED,H', 'ALL AIRPORT INC', 'ALL AIRPORT INC.', 'ALL AMERICAN SAFETY LIMO INC', 'ALL AROUND TRANSPORTATION INC', 'ALL BEST CAR SERVICE INC', 'ALL BEST CAR SERVICE INC.', 'ALL BEST CAR SERVICE,INC', 'ALL BEST CAR SERVICE,INC.', 'ALL BEST EXPRESS INC', 'ALL CITY FUNDING INC', 'ALL CITY FUNDING LLC', 'ALL CITY FUNDING,INC.', 'ALL CITY LIMOUSINE INC', 'ALL CITY TRANSPORTATION INC', 'ALL CITY TRANSPORTATION,INC', 'ALL COUNTY TRANSPORTATION INC', 'ALL HOUR VAN SERVICE</t>
         </is>
@@ -1031,18 +1057,18 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="E9" t="n">
-        <v>55864</v>
+        <v>55865</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1069,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1094,14 +1120,17 @@
         <v>4621</v>
       </c>
       <c r="U9" t="n">
-        <v>286182</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1019</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>['0', '10', '102', '105', '108', '11', '110', '113', '12', '13', '14', '15', '17', '2', '20', '201', '202', '204', '206', '21', '213', '215', '217', '222', '224', '225', '232', '234', '236', '246', '248', '249', '253', '255', '257', '259', '262', '263', '267', '268', '275', '280', '281', '282', '289', '290', '292', '293', '294', '3', '301', '304', '307', '308', '309', '312', '314', '315', '316', '317', '318', '319', '320', '322', '999', 'B00000', 'B00001', 'B00008', 'B00009', 'B00013', 'B00014', 'B00021', 'B00023', 'B00029', 'B00030', 'B00031', 'B00035', 'B00037', 'B00039', 'B00041', 'B00053', 'B00054', 'B00055', 'B00056', 'B00058', 'B00078', 'B00083', 'B00084', 'B00095', 'B00106', 'B00111', 'B00112', 'B00125', 'B00131', 'B00136', 'B00149', 'B00151', 'B00160', 'B00170', 'B00171', 'B00183', 'B00196', 'B00202', 'B00207', 'B00208', 'B00210', 'B00220', 'B00221', 'B00222', 'B00225', 'B00227', 'B00229', 'B00233', 'B00235', 'B00236', 'B00248', 'B00253', 'B00254', 'B00255', 'B00256', 'B00271', 'B00272', 'B00277', 'B00278', 'B00280', 'B00281', 'B00290', 'B00296', 'B00302', 'B00305', 'B00306', 'B00309', 'B00310', 'B00314', 'B00318', 'B00319', 'B00325', 'B00329', 'B00334', 'B00337', 'B00345', 'B00346', 'B00350', 'B00369', 'B00370', 'B00373', 'B00375', 'B00378', 'B00381', 'B00385', 'B00387', 'B00401', 'B00411', 'B00412', 'B00415', 'B00419', 'B00420', 'B00429', 'B00445', 'B00446', 'B00447', 'B00448', 'B00449', 'B00457', 'B00459', 'B00469', 'B00472', 'B00475', 'B00477', 'B00481', 'B00485', 'B00492', 'B00501', 'B00531', 'B00536', 'B00548', 'B00552', 'B00556', 'B00559', 'B00570', 'B00593', 'B00597', 'B00608', 'B00619', 'B00623', 'B00625', 'B00628', 'B00639', 'B00647', 'B00652', 'B00653', 'B00665', 'B00692', 'B00693', 'B00706', 'B00710', 'B00711', 'B00715', 'B00718', 'B00727', 'B00728', 'B00743', 'B00746', 'B00751', 'B00756', 'B00789', 'B00790', 'B00802', 'B00811', 'B00821', 'B00823', 'B00827', 'B00833', 'B00837', 'B00850', 'B00853', 'B00855', 'B00856', 'B00859', 'B00860', 'B00874', 'B00876', 'B00881', 'B00882', 'B00887', 'B00888', 'B00889', 'B00900', 'B00906', 'B00909', 'B00911', 'B00919', 'B00925', 'B00932', 'B00937', 'B00941', 'B00946', 'B00948', 'B00955', 'B00957', 'B00965', 'B00972', 'B00975', 'B00977', 'B00983', 'B00984', 'B00987', 'B00990', 'B00991', 'B00992', 'B01009', 'B01010', 'B01013', 'B01016', 'B01020', 'B01021', 'B01026', 'B01028', 'B01029', 'B01039', 'B01041', 'B01045', 'B01048', 'B01051', 'B01056', 'B01057', 'B01061', 'B01065', 'B01066', 'B01069', 'B01079', 'B01081', 'B01083', 'B01087', 'B01088', 'B01091', 'B01100', 'B01103', 'B01109', 'B01118', 'B01124', 'B01126', 'B01128', 'B01129', 'B01131', 'B01145', 'B01146', 'B01147', 'B01148', 'B01154', 'B01160', 'B01175', 'B01176', 'B01177', 'B01183', 'B01186', 'B01187', 'B01190', 'B01194', 'B01195', 'B01196', 'B01197', 'B01200', 'B01215', 'B01222', 'B01231', 'B01233', 'B01234', 'B01236', 'B01239', 'B01243', 'B01244', 'B01247', 'B01250', 'B01256', 'B01259', 'B01263', 'B01264', 'B01265', 'B01268', 'B01269', 'B01270', 'B01273', 'B01274', 'B01277', 'B01280', 'B01282', 'B01285', 'B01288', 'B01289', 'B01292', 'B01300', 'B01306', 'B01308', 'B01309', 'B01311', 'B01312', 'B01313', 'B01315', 'B01318', 'B01326', 'B01327', 'B01328', 'B01332', 'B01336', 'B01338', 'B01339', 'B01340', 'B01341', 'B01343', 'B01346', 'B01349', 'B01351', 'B01353', 'B01355', 'B01362', 'B01363', 'B01364', 'B01367', 'B01379', 'B01380', 'B01381', 'B01386', 'B01389', 'B01391', 'B01392', 'B01394', 'B01397', 'B01398', 'B01406', 'B01413', 'B01416', 'B01417', 'B01420', 'B01422', 'B01424', 'B01432', 'B01433', 'B01435', 'B01436', 'B01437', 'B01444', 'B01445', 'B01451', 'B01452', 'B01453', 'B01454', 'B01455', 'B01457', 'B01461', 'B01465', 'B01466', 'B01467', 'B01468', 'B01469', 'B01470', 'B01472', 'B01475', 'B01478', 'B01479', 'B01482', 'B01485', 'B01487', 'B01489', 'B01492', 'B01495', 'B01497', 'B01498', 'B01506', 'B01509', 'B01510', 'B01514', 'B01522', 'B01525', 'B01527', 'B01529', 'B01534', 'B01536', 'B01537', 'B01538', 'B01540', 'B01541', 'B01546', 'B01549', 'B01552', 'B01553', 'B01559', 'B01565', 'B01568', 'B01569', 'B01578', 'B01593', 'B01594', 'B01600', 'B01601', 'B01606', 'B01608', 'B01614', 'B01616', 'B01617', 'B01623', 'B01625', 'B01626', 'B01629', 'B01631', 'B01635', 'B01636', 'B01638', 'B01639', 'B01640', 'B01641', 'B01642', 'B01644', 'B01650', 'B01651', 'B01653', 'B01663', 'B01667', 'B01671', 'B01672', 'B01674', 'B01675', 'B01678', 'B01679', 'B01685', 'B01693', 'B01694', 'B01697', 'B01699', 'B01700', 'B01703', 'B01704', 'B01706', 'B01710', 'B01711', 'B01714', 'B01716', 'B01717', 'B01721', 'B01722', 'B01724', 'B01726', 'B01727', 'B01730', 'B01731', 'B01733', 'B01734', 'B01737', 'B01738', 'B01739', 'B01741', 'B01742', 'B01743', 'B01745', 'B01751', 'B01764', 'B01768', 'B01773', 'B01777', 'B01779', 'B01793', 'B01794', 'B01800', 'B01801', 'B01803', 'B01804', 'B01811', 'B01815', 'B01818', 'B01821', 'B01833', 'B01834', 'B01839', 'B01843', 'B01845', 'B01846', 'B01848', 'B01849', 'B01851', 'B01854', 'B01855', 'B01857', 'B01861', 'B01868', 'B01871', 'B01875', 'B01876', 'B01877', 'B01892', 'B01893', 'B01894', 'B01899', 'B01905', 'B01907', 'B01911', 'B01912', 'B01913', 'B01916', 'B01918', 'B01923', 'B01924', 'B01927', 'B01928', 'B01930', 'B01932', 'B01934', 'B01938', 'B01939', 'B01943', 'B01944', 'B01946', 'B01949', 'B01951', 'B01957', 'B01958', 'B01959', 'B01960', 'B01961', 'B01963', 'B01964', 'B01965', 'B01969', 'B01970', 'B01971', 'B01972', 'B01973', 'B01975', 'B01976', 'B01977', 'B01978', 'B01979', 'B01980', 'B01982', 'B01984', 'B01985', 'B01987', 'B01989', 'B01990', 'B01991', 'B01992', 'B01995', 'B01996', 'B01998', 'B02003', 'B02004', 'B02005', 'B02006', 'B02008', 'B02011', 'B02012', 'B02015', 'B02016', 'B02020', 'B02021', 'B02022', 'B02026', 'B02027', 'B02028', 'B02030', 'B02031', 'B02032', 'B02033', 'B02034', 'B02035', 'B02037', 'B02041', 'B02043', 'B02045', 'B02047', 'B02048', 'B02049', 'B02050', 'B02051', 'B02053', 'B02054', 'B02055', 'B02056', 'B02058', 'B02060', 'B02061', 'B02062', 'B02063', 'B02064', 'B02066', 'B02067', 'B02071', 'B02072', 'B02073', 'B02077', 'B02078', 'B02080', 'B02085', 'B02089', 'B02091', 'B02093', 'B02095', 'B02096', 'B02098', 'B02099', 'B02101', 'B02102', 'B02103', 'B02105', 'B02106', 'B02107', 'B02108', 'B02109', 'B02110', 'B02111', 'B02113', 'B02120', 'B02121', 'B02122', 'B02123', 'B02125', 'B02127', 'B02129', 'B02130', 'B02131', 'B02132', 'B02133', 'B02134', 'B02135', 'B02136', 'B02138', 'B02140', 'B02142', 'B02143', 'B02144', 'B02145', 'B02147', 'B02148', 'B02149', 'B02150', 'B02152', 'B02153', 'B02155', 'B02157', 'B02158', 'B02159', 'B02160', 'B02161', 'B02162', 'B02163', 'B02165', 'B02166', 'B02167', 'B02168', 'B02169', 'B02171', 'B02172', 'B02173', 'B02175', 'B02176', 'B02178', 'B02179', 'B02180', 'B02181', 'B02182', 'B02183', 'B02184', 'B02185', 'B02186', 'B02188', 'B02189', 'B02190', 'B02191', 'B02192', 'B02193', 'B02194', 'B02195', 'B02196', 'B02197', 'B02199', 'B02200', 'B02201', 'B02202', 'B02203', 'B02204', 'B02206', 'B02207', 'B02208', 'B02209', 'B02210', 'B02211', 'B02212', 'B02213', 'B02214', 'B02216', 'B02217', 'B02218', 'B02219', 'B02222', 'B02223', 'B02225', 'B02227', 'B02228', 'B02229', 'B02231', 'B02232', 'B02234', 'B02236', 'B02237', 'B02239', 'B02240', 'B02241', 'B02242', 'B02243', 'B02245', 'B02248', 'B02249', 'B02251', 'B02252', 'B02253', 'B02254', 'B02255', 'B02256', 'B02258', 'B02260', 'B02261', 'B02263', 'B02265', 'B02266', 'B02267', 'B02268', 'B02269', 'B02270', 'B02271', 'B02272', 'B02273', 'B02274', 'B02275', 'B02276', 'B02277', 'B02279', 'B02280', 'B02281', 'B02282', 'B02283', 'B02284', 'B02285', 'B02287', 'B02288', 'B02289', 'B02291', 'B02292', 'B02293', 'B02294', 'B02295', 'B02296', 'B02297', 'B02298', 'B02302', 'B02303', 'B02309', 'B02317', 'B80008', 'B80012', 'B80025', 'B80028', 'B80039', 'B80054', 'B80070', 'B80080', 'B80087', 'B80094', 'B80098', 'B80100', 'B80101', 'B80102', 'B80104', 'B80107', 'B80111', 'B80112', 'B80113', 'B80121', 'B80132', 'B80139', 'B80140', 'B80145', 'B80148', 'B80149', 'B80150', 'B80151', 'B80152', 'B80157', 'B80164', 'B80169', 'B80173', 'B80179', 'B80185', 'B80191', 'B80196', 'B80197', 'B80199', 'B80202', 'B90005', 'B90010', 'B90018', 'B90028', 'B90030', 'B90032', 'B90034', 'B90038', 'B90042', 'B90049', 'B90053', 'B90056', 'B90058', 'B90065', 'B90073', 'B90074', 'B90075', 'B90076', 'B90083', 'B90090', 'B90096', 'B90097', 'B90098', 'B90099', 'B90105', 'B90110', 'B90113', 'B90115', 'B90118', 'B90122', 'B90125', 'B90137', 'B90139', 'B90140', 'B90145', 'B90149', 'B90154', 'B90155', 'B90162', 'B90166', 'B90179', 'B90183', 'B90204', 'B90205', 'B90230', 'B90238', 'B90243', 'B90249', 'B90253', 'B90269', 'B90275', 'B90288', 'B90297', 'B90301', 'B90303', 'B90310', 'B90314', 'B90316', 'B90323', 'B90333', 'B90334', 'B90335', 'B90336', 'B90342', 'B90345', 'B90346', 'B90348', 'B90349', 'B90354', 'B90357', 'B90363', 'B90368', 'B90369', 'B90395', 'B90401', 'B90413', 'B90414', 'B90418', 'B90419', 'B90455', 'B90461', 'B90463', 'B90469', 'B90471', 'B90477', 'B90487', 'B90496', 'B90497', 'B90506', 'B90513', 'B90522', 'B90523', 'B90530', 'B90531', 'B90533', 'B90536', 'B90537', 'B90540', 'B90542', 'B90544', 'B90545', 'B90548', 'B90552', 'B90553', 'B90554', 'B90556', 'B90558', 'B90562', 'B90563', 'B90567', 'B90568', 'B90570', 'B90571', 'B90574', 'B90577', 'B90579', 'B90581', 'B90582', 'B90583', 'B90584', 'B90587', 'B90588', 'B90592', 'B90594', 'B90596', 'B90601', 'B90602', 'B90603', 'B90604', 'B90605', 'B90606', 'B90609', 'B90610', 'B90612', 'B90613', 'B90615', 'B90616', 'B90617', 'B90619', 'B90620', 'B90622', 'B90623', 'B90624', 'B90625', 'B90627', 'B90628', 'B90630', 'B90631', 'B90633', 'B90634', 'B90635', 'B90636', 'B90637', 'B90638', 'B90639', 'B90640', 'B90643', 'B90644', 'B90645', 'B90646', 'B90647', 'B90648', 'B90649', 'B90650', 'B90651', 'B90653', 'B90654', 'B90655', 'B90656', 'B90657', 'B90658', 'B90659', 'B90660', 'B90662', 'B90663', 'B90664', 'B90665', 'B90666', 'B90667', 'B90668', 'B90669', 'B90671', 'B90672']</t>
+        <v>286235</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1020</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>['0', '10', '102', '105', '108', '11', '110', '113', '12', '13', '14', '15', '17', '2', '20', '201', '202', '204', '206', '21', '213', '215', '217', '222', '224', '225', '232', '234', '236', '246', '248', '249', '253', '255', '257', '259', '262', '263', '267', '268', '275', '280', '281', '282', '289', '290', '292', '293', '294', '3', '301', '304', '307', '308', '309', '312', '314', '315', '316', '317', '318', '319', '320', '322', '999', 'Affiliated_Base_or_Taxi_Agent_or_Fleet_License_Number', 'B00000', 'B00001', 'B00008', 'B00009', 'B00013', 'B00014', 'B00021', 'B00023', 'B00029', 'B00030', 'B00031', 'B00035', 'B00037', 'B00039', 'B00041', 'B00053', 'B00054', 'B00055', 'B00056', 'B00058', 'B00078', 'B00083', 'B00084', 'B00095', 'B00106', 'B00111', 'B00112', 'B00125', 'B00131', 'B00136', 'B00149', 'B00151', 'B00160', 'B00170', 'B00171', 'B00183', 'B00196', 'B00202', 'B00207', 'B00208', 'B00210', 'B00220', 'B00221', 'B00222', 'B00225', 'B00227', 'B00229', 'B00233', 'B00235', 'B00236', 'B00248', 'B00253', 'B00254', 'B00255', 'B00256', 'B00271', 'B00272', 'B00277', 'B00278', 'B00280', 'B00281', 'B00290', 'B00296', 'B00302', 'B00305', 'B00306', 'B00309', 'B00310', 'B00314', 'B00318', 'B00319', 'B00325', 'B00329', 'B00334', 'B00337', 'B00345', 'B00346', 'B00350', 'B00369', 'B00370', 'B00373', 'B00375', 'B00378', 'B00381', 'B00385', 'B00387', 'B00401', 'B00411', 'B00412', 'B00415', 'B00419', 'B00420', 'B00429', 'B00445', 'B00446', 'B00447', 'B00448', 'B00449', 'B00457', 'B00459', 'B00469', 'B00472', 'B00475', 'B00477', 'B00481', 'B00485', 'B00492', 'B00501', 'B00531', 'B00536', 'B00548', 'B00552', 'B00556', 'B00559', 'B00570', 'B00593', 'B00597', 'B00608', 'B00619', 'B00623', 'B00625', 'B00628', 'B00639', 'B00647', 'B00652', 'B00653', 'B00665', 'B00692', 'B00693', 'B00706', 'B00710', 'B00711', 'B00715', 'B00718', 'B00727', 'B00728', 'B00743', 'B00746', 'B00751', 'B00756', 'B00789', 'B00790', 'B00802', 'B00811', 'B00821', 'B00823', 'B00827', 'B00833', 'B00837', 'B00850', 'B00853', 'B00855', 'B00856', 'B00859', 'B00860', 'B00874', 'B00876', 'B00881', 'B00882', 'B00887', 'B00888', 'B00889', 'B00900', 'B00906', 'B00909', 'B00911', 'B00919', 'B00925', 'B00932', 'B00937', 'B00941', 'B00946', 'B00948', 'B00955', 'B00957', 'B00965', 'B00972', 'B00975', 'B00977', 'B00983', 'B00984', 'B00987', 'B00990', 'B00991', 'B00992', 'B01009', 'B01010', 'B01013', 'B01016', 'B01020', 'B01021', 'B01026', 'B01028', 'B01029', 'B01039', 'B01041', 'B01045', 'B01048', 'B01051', 'B01056', 'B01057', 'B01061', 'B01065', 'B01066', 'B01069', 'B01079', 'B01081', 'B01083', 'B01087', 'B01088', 'B01091', 'B01100', 'B01103', 'B01109', 'B01118', 'B01124', 'B01126', 'B01128', 'B01129', 'B01131', 'B01145', 'B01146', 'B01147', 'B01148', 'B01154', 'B01160', 'B01175', 'B01176', 'B01177', 'B01183', 'B01186', 'B01187', 'B01190', 'B01194', 'B01195', 'B01196', 'B01197', 'B01200', 'B01215', 'B01222', 'B01231', 'B01233', 'B01234', 'B01236', 'B01239', 'B01243', 'B01244', 'B01247', 'B01250', 'B01256', 'B01259', 'B01263', 'B01264', 'B01265', 'B01268', 'B01269', 'B01270', 'B01273', 'B01274', 'B01277', 'B01280', 'B01282', 'B01285', 'B01288', 'B01289', 'B01292', 'B01300', 'B01306', 'B01308', 'B01309', 'B01311', 'B01312', 'B01313', 'B01315', 'B01318', 'B01326', 'B01327', 'B01328', 'B01332', 'B01336', 'B01338', 'B01339', 'B01340', 'B01341', 'B01343', 'B01346', 'B01349', 'B01351', 'B01353', 'B01355', 'B01362', 'B01363', 'B01364', 'B01367', 'B01379', 'B01380', 'B01381', 'B01386', 'B01389', 'B01391', 'B01392', 'B01394', 'B01397', 'B01398', 'B01406', 'B01413', 'B01416', 'B01417', 'B01420', 'B01422', 'B01424', 'B01432', 'B01433', 'B01435', 'B01436', 'B01437', 'B01444', 'B01445', 'B01451', 'B01452', 'B01453', 'B01454', 'B01455', 'B01457', 'B01461', 'B01465', 'B01466', 'B01467', 'B01468', 'B01469', 'B01470', 'B01472', 'B01475', 'B01478', 'B01479', 'B01482', 'B01485', 'B01487', 'B01489', 'B01492', 'B01495', 'B01497', 'B01498', 'B01506', 'B01509', 'B01510', 'B01514', 'B01522', 'B01525', 'B01527', 'B01529', 'B01534', 'B01536', 'B01537', 'B01538', 'B01540', 'B01541', 'B01546', 'B01549', 'B01552', 'B01553', 'B01559', 'B01565', 'B01568', 'B01569', 'B01578', 'B01593', 'B01594', 'B01600', 'B01601', 'B01606', 'B01608', 'B01614', 'B01616', 'B01617', 'B01623', 'B01625', 'B01626', 'B01629', 'B01631', 'B01635', 'B01636', 'B01638', 'B01639', 'B01640', 'B01641', 'B01642', 'B01644', 'B01650', 'B01651', 'B01653', 'B01663', 'B01667', 'B01671', 'B01672', 'B01674', 'B01675', 'B01678', 'B01679', 'B01685', 'B01693', 'B01694', 'B01697', 'B01699', 'B01700', 'B01703', 'B01704', 'B01706', 'B01710', 'B01711', 'B01714', 'B01716', 'B01717', 'B01721', 'B01722', 'B01724', 'B01726', 'B01727', 'B01730', 'B01731', 'B01733', 'B01734', 'B01737', 'B01738', 'B01739', 'B01741', 'B01742', 'B01743', 'B01745', 'B01751', 'B01764', 'B01768', 'B01773', 'B01777', 'B01779', 'B01793', 'B01794', 'B01800', 'B01801', 'B01803', 'B01804', 'B01811', 'B01815', 'B01818', 'B01821', 'B01833', 'B01834', 'B01839', 'B01843', 'B01845', 'B01846', 'B01848', 'B01849', 'B01851', 'B01854', 'B01855', 'B01857', 'B01861', 'B01868', 'B01871', 'B01875', 'B01876', 'B01877', 'B01892', 'B01893', 'B01894', 'B01899', 'B01905', 'B01907', 'B01911', 'B01912', 'B01913', 'B01916', 'B01918', 'B01923', 'B01924', 'B01927', 'B01928', 'B01930', 'B01932', 'B01934', 'B01938', 'B01939', 'B01943', 'B01944', 'B01946', 'B01949', 'B01951', 'B01957', 'B01958', 'B01959', 'B01960', 'B01961', 'B01963', 'B01964', 'B01965', 'B01969', 'B01970', 'B01971', 'B01972', 'B01973', 'B01975', 'B01976', 'B01977', 'B01978', 'B01979', 'B01980', 'B01982', 'B01984', 'B01985', 'B01987', 'B01989', 'B01990', 'B01991', 'B01992', 'B01995', 'B01996', 'B01998', 'B02003', 'B02004', 'B02005', 'B02006', 'B02008', 'B02011', 'B02012', 'B02015', 'B02016', 'B02020', 'B02021', 'B02022', 'B02026', 'B02027', 'B02028', 'B02030', 'B02031', 'B02032', 'B02033', 'B02034', 'B02035', 'B02037', 'B02041', 'B02043', 'B02045', 'B02047', 'B02048', 'B02049', 'B02050', 'B02051', 'B02053', 'B02054', 'B02055', 'B02056', 'B02058', 'B02060', 'B02061', 'B02062', 'B02063', 'B02064', 'B02066', 'B02067', 'B02071', 'B02072', 'B02073', 'B02077', 'B02078', 'B02080', 'B02085', 'B02089', 'B02091', 'B02093', 'B02095', 'B02096', 'B02098', 'B02099', 'B02101', 'B02102', 'B02103', 'B02105', 'B02106', 'B02107', 'B02108', 'B02109', 'B02110', 'B02111', 'B02113', 'B02120', 'B02121', 'B02122', 'B02123', 'B02125', 'B02127', 'B02129', 'B02130', 'B02131', 'B02132', 'B02133', 'B02134', 'B02135', 'B02136', 'B02138', 'B02140', 'B02142', 'B02143', 'B02144', 'B02145', 'B02147', 'B02148', 'B02149', 'B02150', 'B02152', 'B02153', 'B02155', 'B02157', 'B02158', 'B02159', 'B02160', 'B02161', 'B02162', 'B02163', 'B02165', 'B02166', 'B02167', 'B02168', 'B02169', 'B02171', 'B02172', 'B02173', 'B02175', 'B02176', 'B02178', 'B02179', 'B02180', 'B02181', 'B02182', 'B02183', 'B02184', 'B02185', 'B02186', 'B02188', 'B02189', 'B02190', 'B02191', 'B02192', 'B02193', 'B02194', 'B02195', 'B02196', 'B02197', 'B02199', 'B02200', 'B02201', 'B02202', 'B02203', 'B02204', 'B02206', 'B02207', 'B02208', 'B02209', 'B02210', 'B02211', 'B02212', 'B02213', 'B02214', 'B02216', 'B02217', 'B02218', 'B02219', 'B02222', 'B02223', 'B02225', 'B02227', 'B02228', 'B02229', 'B02231', 'B02232', 'B02234', 'B02236', 'B02237', 'B02239', 'B02240', 'B02241', 'B02242', 'B02243', 'B02245', 'B02248', 'B02249', 'B02251', 'B02252', 'B02253', 'B02254', 'B02255', 'B02256', 'B02258', 'B02260', 'B02261', 'B02263', 'B02265', 'B02266', 'B02267', 'B02268', 'B02269', 'B02270', 'B02271', 'B02272', 'B02273', 'B02274', 'B02275', 'B02276', 'B02277', 'B02279', 'B02280', 'B02281', 'B02282', 'B02283', 'B02284', 'B02285', 'B02287', 'B02288', 'B02289', 'B02291', 'B02292', 'B02293', 'B02294', 'B02295', 'B02296', 'B02297', 'B02298', 'B02302', 'B02303', 'B02309', 'B02317', 'B80008', 'B80012', 'B80025', 'B80028', 'B80039', 'B80054', 'B80070', 'B80080', 'B80087', 'B80094', 'B80098', 'B80100', 'B80101', 'B80102', 'B80104', 'B80107', 'B80111', 'B80112', 'B80113', 'B80121', 'B80132', 'B80139', 'B80140', 'B80145', 'B80148', 'B80149', 'B80150', 'B80151', 'B80152', 'B80157', 'B80164', 'B80169', 'B80173', 'B80179', 'B80185', 'B80191', 'B80196', 'B80197', 'B80199', 'B80202', 'B90005', 'B90010', 'B90018', 'B90028', 'B90030', 'B90032', 'B90034', 'B90038', 'B90042', 'B90049', 'B90053', 'B90056', 'B90058', 'B90065', 'B90073', 'B90074', 'B90075', 'B90076', 'B90083', 'B90090', 'B90096', 'B90097', 'B90098', 'B90099', 'B90105', 'B90110', 'B90113', 'B90115', 'B90118', 'B90122', 'B90125', 'B90137', 'B90139', 'B90140', 'B90145', 'B90149', 'B90154', 'B90155', 'B90162', 'B90166', 'B90179', 'B90183', 'B90204', 'B90205', 'B90230', 'B90238', 'B90243', 'B90249', 'B90253', 'B90269', 'B90275', 'B90288', 'B90297', 'B90301', 'B90303', 'B90310', 'B90314', 'B90316', 'B90323', 'B90333', 'B90334', 'B90335', 'B90336', 'B90342', 'B90345', 'B90346', 'B90348', 'B90349', 'B90354', 'B90357', 'B90363', 'B90368', 'B90369', 'B90395', 'B90401', 'B90413', 'B90414', 'B90418', 'B90419', 'B90455', 'B90461', 'B90463', 'B90469', 'B90471', 'B90477', 'B90487', 'B90496', 'B90497', 'B90506', 'B90513', 'B90522', 'B90523', 'B90530', 'B90531', 'B90533', 'B90536', 'B90537', 'B90540', 'B90542', 'B90544', 'B90545', 'B90548', 'B90552', 'B90553', 'B90554', 'B90556', 'B90558', 'B90562', 'B90563', 'B90567', 'B90568', 'B90570', 'B90571', 'B90574', 'B90577', 'B90579', 'B90581', 'B90582', 'B90583', 'B90584', 'B90587', 'B90588', 'B90592', 'B90594', 'B90596', 'B90601', 'B90602', 'B90603', 'B90604', 'B90605', 'B90606', 'B90609', 'B90610', 'B90612', 'B90613', 'B90615', 'B90616', 'B90617', 'B90619', 'B90620', 'B90622', 'B90623', 'B90624', 'B90625', 'B90627', 'B90628', 'B90630', 'B90631', 'B90633', 'B90634', 'B90635', 'B90636', 'B90637', 'B90638', 'B90639', 'B90640', 'B90643', 'B90644', 'B90645', 'B90646', 'B90647', 'B90648', 'B90649', 'B90650', 'B90651', 'B90653', 'B90654', 'B90655', 'B90656', 'B90657', 'B90658', 'B90659', 'B90660', 'B90662', 'B90663', 'B90664', 'B90665', 'B90666', 'B90667', 'B90668', 'B90669', 'B90671', 'B90672']</t>
         </is>
       </c>
     </row>
